--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_PM25.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_PM25.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM25</t>
+  </si>
+  <si>
+    <t>01_car_PM25_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM25</t>
+  </si>
+  <si>
+    <t>03_van_PM25_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM25</t>
+  </si>
+  <si>
+    <t>04_bus_PM25_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM25 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2200 +418,2458 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM25 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
         <v>2024101513</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1.735507421135961</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>11.63239226959676</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.01016835147014551</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0.01086647057933537</v>
+      </c>
+      <c r="E2">
         <v>1.033594898090624</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>2.777873525841991</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>4.512907692616958</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
+        <v>0.1736591781778671</v>
+      </c>
+      <c r="I2">
+        <v>1.287095030584121</v>
+      </c>
+      <c r="J2">
         <v>2.973216294895761</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2">
         <v>3.937818698648441</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2">
         <v>4.246181650947046</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2">
         <v>2.671921227444738</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2">
         <v>0.1202415736578121</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2">
         <v>0.4997310705046371</v>
       </c>
-      <c r="N2" t="n">
-        <v>36.15155467485088</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="P2">
+        <v>37.61300700272206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
         <v>2024101514</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1.792466472465942</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>12.01416535815017</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.01122755474828567</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0.01199839459801613</v>
+      </c>
+      <c r="E3">
         <v>1.141261033308397</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>2.821277799683272</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>4.583421875314098</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
+        <v>0.1736591781778671</v>
+      </c>
+      <c r="I3">
+        <v>1.287095030584121</v>
+      </c>
+      <c r="J3">
         <v>2.869671448804865</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3">
         <v>3.800680734018893</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3">
         <v>3.371967781634417</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3">
         <v>2.121819798264938</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3">
         <v>0.1109922218379805</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3">
         <v>0.4612902189273574</v>
       </c>
-      <c r="N3" t="n">
-        <v>35.10024229715862</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="P3">
+        <v>36.56176734577034</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>2024101515</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1.815715064845528</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>12.16999110858014</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.01038019212577354</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0.01109285538307152</v>
+      </c>
+      <c r="E4">
         <v>1.055128125134179</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>2.864682073524554</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>4.653936058011237</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
+        <v>0.1640114460568745</v>
+      </c>
+      <c r="I4">
+        <v>1.215589751107225</v>
+      </c>
+      <c r="J4">
         <v>2.677373877493198</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4">
         <v>3.545995942564019</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4">
         <v>3.371967781634417</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4">
         <v>2.121819798264938</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4">
         <v>0.1017428700181487</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4">
         <v>0.4228493673500776</v>
       </c>
-      <c r="N4" t="n">
-        <v>34.8115822595462</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="P4">
+        <v>36.19189611996759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
         <v>2024101516</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1.963343626455886</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>13.1594846238104</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.008685466880749289</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.00928177695318229</v>
+      </c>
+      <c r="E5">
         <v>0.8828623087857418</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>2.994894895048398</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>4.865478606102656</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
+        <v>0.2797842315087858</v>
+      </c>
+      <c r="I5">
+        <v>2.073653104829972</v>
+      </c>
+      <c r="J5">
         <v>2.632997514882814</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5">
         <v>3.487222529151355</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5">
         <v>3.247080086018328</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5">
         <v>2.043233879810682</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5">
         <v>0.09249351819831704</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5">
         <v>0.3844085157727978</v>
       </c>
-      <c r="N5" t="n">
-        <v>35.76218557091812</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="P5">
+        <v>38.11621921732932</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
         <v>2024101517</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2.24116430539192</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>15.02160234144846</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.008261785569493224</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0.008829007345709985</v>
+      </c>
+      <c r="E6">
         <v>0.8397958546986319</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>2.734469252000711</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>4.442393509919818</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
+        <v>0.6174548557435272</v>
+      </c>
+      <c r="I6">
+        <v>4.576337886521317</v>
+      </c>
+      <c r="J6">
         <v>2.218818130519225</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6">
         <v>2.938670670633166</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6">
         <v>1.623540043009164</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6">
         <v>1.021616939905341</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6">
         <v>0.08324416637848531</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6">
         <v>0.345967664195518</v>
       </c>
-      <c r="N6" t="n">
-        <v>33.51954466366994</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="P6">
+        <v>38.713904627711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>2024101518</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>2.392280155859215</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>16.03446971924322</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.003177609834420471</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0.003395772056042301</v>
+      </c>
+      <c r="E7">
         <v>0.3229984056533201</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1.866383775175088</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>3.032109855977018</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
+        <v>0.6463980521065052</v>
+      </c>
+      <c r="I7">
+        <v>4.790853724952004</v>
+      </c>
+      <c r="J7">
         <v>1.434835724402433</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7">
         <v>1.900340367009446</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7">
         <v>1.623540043009164</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7">
         <v>1.021616939905341</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7">
         <v>0.09249351819831704</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7">
         <v>0.3844085157727978</v>
       </c>
-      <c r="N7" t="n">
-        <v>30.10865463003978</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="P7">
+        <v>35.54612456931991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>2024101519</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1.820364783321444</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>12.20115625866612</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.004024972456932598</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0.004301311270986916</v>
+      </c>
+      <c r="E8">
         <v>0.4091313138275387</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>2.560852156635587</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>4.160336779131258</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
+        <v>0.3859092848397045</v>
+      </c>
+      <c r="I8">
+        <v>2.860211179075824</v>
+      </c>
+      <c r="J8">
         <v>1.065032702649228</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8">
         <v>1.410561921903919</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8">
         <v>1.498652347393075</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8">
         <v>0.9430310214510838</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8">
         <v>0.0184987036396634</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8">
         <v>0.07688170315455954</v>
       </c>
-      <c r="N8" t="n">
-        <v>26.16852466423041</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="P8">
+        <v>29.41492146696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>2024101520</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1.449549734867076</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>9.715735539308211</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.004236813112560629</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>0.00452769607472307</v>
+      </c>
+      <c r="E9">
         <v>0.4306645408710934</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>1.605958132127401</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>2.609024759794178</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
+        <v>0.7332276411954386</v>
+      </c>
+      <c r="I9">
+        <v>5.434401240244064</v>
+      </c>
+      <c r="J9">
         <v>0.4881399887142295</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9">
         <v>0.6465075475392962</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9">
         <v>1.748427738625254</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9">
         <v>1.100202858359598</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9">
         <v>0.02774805545949512</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9">
         <v>0.1153225547318393</v>
       </c>
-      <c r="N9" t="n">
-        <v>19.94151826351023</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="P9">
+        <v>26.1094380279119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>2024101521</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1.200789796405525</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>8.048400009707603</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.002118406556280315</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>0.002263848037361535</v>
+      </c>
+      <c r="E10">
         <v>0.2153322704355467</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>1.345532489079715</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>2.18593966361134</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
+        <v>0.3666138205977193</v>
+      </c>
+      <c r="I10">
+        <v>2.717200620122032</v>
+      </c>
+      <c r="J10">
         <v>0.4585557469739733</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10">
         <v>0.6073252719308542</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10">
         <v>2.123090825473523</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10">
         <v>1.335960613722369</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10">
         <v>0.009249351819831702</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10">
         <v>0.03844085157727977</v>
       </c>
-      <c r="N10" t="n">
-        <v>17.57073529729384</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="P10">
+        <v>20.65469517949468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>2024101522</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>0.8532233403307408</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>5.718805040779653</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.004236813112560629</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>0.00452769607472307</v>
+      </c>
+      <c r="E11">
         <v>0.4306645408710934</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.6944683814604977</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>1.128226923154239</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
+        <v>0.1736591781778671</v>
+      </c>
+      <c r="I11">
+        <v>1.287095030584121</v>
+      </c>
+      <c r="J11">
         <v>0.5029321095843576</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11">
         <v>0.6660986853435173</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11">
         <v>1.498652347393075</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11">
         <v>0.9430310214510838</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11">
         <v>0.03699740727932681</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11">
         <v>0.1537634063091191</v>
       </c>
-      <c r="N11" t="n">
-        <v>12.63110001706927</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="P11">
+        <v>14.09214510879342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>2024101523</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0.5242557581596242</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>3.513870672195672</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.004236813112560629</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>0.00452769607472307</v>
+      </c>
+      <c r="E12">
         <v>0.4306645408710934</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>0.3906384645715301</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>0.63462764427426</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
+        <v>0.08682958908893353</v>
+      </c>
+      <c r="I12">
+        <v>0.6435475152920604</v>
+      </c>
+      <c r="J12">
         <v>0.2810502965324352</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12">
         <v>0.3722316182802009</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12">
         <v>1.123989260544805</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12">
         <v>0.7072732660883131</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12">
         <v>0.0184987036396634</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12">
         <v>0.07688170315455954</v>
       </c>
-      <c r="N12" t="n">
-        <v>8.078218741424717</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="P12">
+        <v>8.808886728767874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>2024101600</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.3719774780733474</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>2.493212006879413</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.006355219668840942</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0.006791544112084601</v>
+      </c>
+      <c r="E13">
         <v>0.6459968113066401</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.4340427384128113</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>0.7051418269713997</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
+        <v>0.05788639272595567</v>
+      </c>
+      <c r="I13">
+        <v>0.4290316768613734</v>
+      </c>
+      <c r="J13">
         <v>0.2958424174025633</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13">
         <v>0.391822756084422</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13">
         <v>1.373764651776985</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13">
         <v>0.8644451029968269</v>
       </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
-        <v>7.58260100957325</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="P13">
+        <v>8.069955403603823</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
         <v>2024101601</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.2452726496046135</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1.643961667036113</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.006778900980097005</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>0.007244313719556911</v>
+      </c>
+      <c r="E14">
         <v>0.6890632653937495</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.2604256430476867</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>0.4230850961828398</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
+        <v>0.02894319636297784</v>
+      </c>
+      <c r="I14">
+        <v>0.2145158384306867</v>
+      </c>
+      <c r="J14">
         <v>0.3254266591428197</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14">
         <v>0.4310050316928641</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14">
         <v>1.998203129857433</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14">
         <v>1.257374695268112</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14">
         <v>0.009249351819831702</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14">
         <v>0.03844085157727977</v>
       </c>
-      <c r="N14" t="n">
-        <v>7.328286941603439</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="P14">
+        <v>7.572211389136564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
         <v>2024101602</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.1871511686556529</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1.254397290961204</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.005084175735072755</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>0.005433235289667683</v>
+      </c>
+      <c r="E15">
         <v>0.516797449045312</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.4774470122540923</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>0.7756560096685398</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
+        <v>0.03859092848397045</v>
+      </c>
+      <c r="I15">
+        <v>0.2860211179075823</v>
+      </c>
+      <c r="J15">
         <v>0.2514660547921788</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15">
         <v>0.3330493426717587</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15">
         <v>1.748427738625254</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15">
         <v>1.100202858359598</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15">
         <v>0.0184987036396634</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15">
         <v>0.07688170315455954</v>
       </c>
-      <c r="N15" t="n">
-        <v>6.745059507562886</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="P15">
+        <v>7.070020613509032</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
         <v>2024101603</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.170877153989944</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1.14531926566023</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.001906565900652283</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>0.002037463233625381</v>
+      </c>
+      <c r="E16">
         <v>0.1937990433919921</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.5642555599366548</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>0.9166843750628197</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
+        <v>0.02894319636297784</v>
+      </c>
+      <c r="I16">
+        <v>0.2145158384306867</v>
+      </c>
+      <c r="J16">
         <v>0.2366739339220507</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16">
         <v>0.3134582048675376</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16">
         <v>1.498652347393075</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16">
         <v>0.9430310214510838</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16">
         <v>0.009249351819831702</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16">
         <v>0.03844085157727977</v>
       </c>
-      <c r="N16" t="n">
-        <v>6.032347674973151</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="P16">
+        <v>6.275937607099789</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
         <v>2024101604</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.3440791672178464</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>2.306221106363456</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.002753928523164409</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>0.002943002448569995</v>
+      </c>
+      <c r="E17">
         <v>0.2799319515662109</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.8680854768256225</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>1.410283653942799</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
+        <v>0.02894319636297784</v>
+      </c>
+      <c r="I17">
+        <v>0.2145158384306867</v>
+      </c>
+      <c r="J17">
         <v>0.5473084721947422</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17">
         <v>0.7248720987561807</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17">
         <v>2.247978521089611</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17">
         <v>1.414546532176626</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17">
         <v>0.02774805545949512</v>
       </c>
-      <c r="M17" t="n">
+      <c r="O17">
         <v>0.1153225547318393</v>
       </c>
-      <c r="N17" t="n">
-        <v>10.2891315188476</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="P17">
+        <v>10.53277962756667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
         <v>2024101605</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.7579041115744455</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>5.079919464016805</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.001694725245024251</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>0.001811078429889228</v>
+      </c>
+      <c r="E18">
         <v>0.1722658163484374</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>1.388936762920995</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>2.256453846308479</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
+        <v>0.4630911418076454</v>
+      </c>
+      <c r="I18">
+        <v>3.432253414890988</v>
+      </c>
+      <c r="J18">
         <v>1.257330273960894</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18">
         <v>1.665246713358793</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18">
         <v>4.121293955330954</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18">
         <v>2.593335308990481</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18">
         <v>0.02774805545949512</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18">
         <v>0.1153225547318393</v>
       </c>
-      <c r="N18" t="n">
-        <v>19.43745158824665</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="P18">
+        <v>23.33291249813015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
         <v>2024101606</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>1.334469202588135</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>8.944398074679889</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.002965769178792441</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>0.003169387252306149</v>
+      </c>
+      <c r="E19">
         <v>0.3014651786097653</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>2.560852156635587</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>4.160336779131258</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
+        <v>0.9551254799782687</v>
+      </c>
+      <c r="I19">
+        <v>7.079022668212661</v>
+      </c>
+      <c r="J19">
         <v>2.130065405298455</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19">
         <v>2.821123843807839</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19">
         <v>7.368374041349286</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19">
         <v>4.636569188801166</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19">
         <v>0.09249351819831704</v>
       </c>
-      <c r="M19" t="n">
+      <c r="O19">
         <v>0.3844085157727978</v>
       </c>
-      <c r="N19" t="n">
-        <v>34.73752167405129</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="P19">
+        <v>42.77187344031573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
         <v>2024101607</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>1.807578057512673</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>12.11545209592965</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.003177609834420471</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>0.003395772056042301</v>
+      </c>
+      <c r="E20">
         <v>0.3229984056533201</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>2.257022239746619</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>3.666737500251279</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
+        <v>0.8297049624053647</v>
+      </c>
+      <c r="I20">
+        <v>6.14945403501302</v>
+      </c>
+      <c r="J20">
         <v>2.070896921817944</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20">
         <v>2.742759292590954</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20">
         <v>6.369272476420565</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20">
         <v>4.007881841167109</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20">
         <v>0.09249351819831704</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20">
         <v>0.3844085157727978</v>
       </c>
-      <c r="N20" t="n">
-        <v>35.84067847489565</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="P20">
+        <v>42.82005563453566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
         <v>2024101608</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1.433275720201367</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>9.606657514007233</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.003389450490048503</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>0.003622156859778456</v>
+      </c>
+      <c r="E21">
         <v>0.3445316326968748</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>1.12851111987331</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>1.833368750125639</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
+        <v>0.3473183563557341</v>
+      </c>
+      <c r="I21">
+        <v>2.574190061168242</v>
+      </c>
+      <c r="J21">
         <v>1.627133295714098</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21">
         <v>2.155025158464321</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21">
         <v>4.620844737795315</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21">
         <v>2.90767898280751</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21">
         <v>0.03699740727932681</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21">
         <v>0.1537634063091191</v>
       </c>
-      <c r="N21" t="n">
-        <v>25.85117717576416</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="P21">
+        <v>28.77291829965787</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
         <v>2024101609</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>1.697147243709647</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>11.37527978138732</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.01059203278140157</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22">
+        <v>0.01131924018680767</v>
+      </c>
+      <c r="E22">
         <v>1.076661352177733</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>3.515746181143771</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>5.711648798468338</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
+        <v>0.3569660884767267</v>
+      </c>
+      <c r="I22">
+        <v>2.645695340645136</v>
+      </c>
+      <c r="J22">
         <v>3.076761140986659</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22">
         <v>4.074956663277989</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22">
         <v>8.367475606277996</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22">
         <v>5.26525653643522</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22">
         <v>0.03699740727932681</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22">
         <v>0.1537634063091191</v>
       </c>
-      <c r="N22" t="n">
-        <v>44.36228615023451</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="P22">
+        <v>47.36567478676177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>2024101610</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1.525107660100724</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>10.22216922820559</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.01101571409265763</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>0.01177200979427998</v>
+      </c>
+      <c r="E23">
         <v>1.119727806264843</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>2.864682073524554</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>4.653936058011237</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
+        <v>0.2218978387828301</v>
+      </c>
+      <c r="I23">
+        <v>1.644621427968599</v>
+      </c>
+      <c r="J23">
         <v>3.328227195778838</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23">
         <v>4.408006005949747</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23">
         <v>6.369272476420565</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23">
         <v>4.007881841167109</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23">
         <v>0.04624675909915852</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23">
         <v>0.1922042578863989</v>
       </c>
-      <c r="N23" t="n">
-        <v>38.74847707650143</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="P23">
+        <v>40.61575263895448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
         <v>2024101611</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1.600665585334374</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>10.72860291710297</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.01101571409265763</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>0.01177200979427998</v>
+      </c>
+      <c r="E24">
         <v>1.119727806264843</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>2.560852156635587</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>4.160336779131258</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
+        <v>0.2122501066618375</v>
+      </c>
+      <c r="I24">
+        <v>1.573116148491702</v>
+      </c>
+      <c r="J24">
         <v>3.106345382726915</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24">
         <v>4.11413893888643</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24">
         <v>5.619946302724028</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24">
         <v>3.536366330441566</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24">
         <v>0.09249351819831704</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24">
         <v>0.3844085157727978</v>
       </c>
-      <c r="N24" t="n">
-        <v>37.03489994731174</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="P24">
+        <v>38.82102249816691</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
         <v>2024101612</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1.614614740762125</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>10.82209836736095</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.008473626225121258</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25">
+        <v>0.00905539214944614</v>
+      </c>
+      <c r="E25">
         <v>0.8613290817421868</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>2.69106497815943</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>4.371879327222679</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
+        <v>0.2026023745408449</v>
+      </c>
+      <c r="I25">
+        <v>1.501610869014807</v>
+      </c>
+      <c r="J25">
         <v>2.455492064441276</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25">
         <v>3.252128875500702</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25">
         <v>5.245283215875761</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25">
         <v>3.300608575078795</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25">
         <v>0.06474546273882192</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25">
         <v>0.2690859610409584</v>
       </c>
-      <c r="N25" t="n">
-        <v>34.95680427614881</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="P25">
+        <v>36.6615992856288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
         <v>2024101613</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1.661111925521293</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>11.13374986822087</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.009109148192005355</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26">
+        <v>0.009734546560654599</v>
+      </c>
+      <c r="E26">
         <v>0.9259287628728509</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>2.387235061270461</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>3.878280048342699</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
+        <v>0.1157727854519113</v>
+      </c>
+      <c r="I26">
+        <v>0.8580633537227469</v>
+      </c>
+      <c r="J26">
         <v>3.135929624467172</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26">
         <v>4.153321214494873</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26">
         <v>6.993710954501015</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26">
         <v>4.400811433438394</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26">
         <v>0.07399481455865362</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26">
         <v>0.3075268126182382</v>
       </c>
-      <c r="N26" t="n">
-        <v>39.06070966849852</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="P26">
+        <v>40.03517120604183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
         <v>2024101614</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1.743644428468816</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>11.68693128224725</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.00720258229135307</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27">
+        <v>0.007697083327029217</v>
+      </c>
+      <c r="E27">
         <v>0.7321297194808587</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>3.342129085778646</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>5.429592067679778</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
+        <v>0.2315455709038227</v>
+      </c>
+      <c r="I27">
+        <v>1.716126707445494</v>
+      </c>
+      <c r="J27">
         <v>2.632997514882814</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27">
         <v>3.487222529151355</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27">
         <v>2.747529303553971</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27">
         <v>1.728890205993654</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27">
         <v>0.06474546273882192</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27">
         <v>0.2690859610409584</v>
       </c>
-      <c r="N27" t="n">
-        <v>33.87210014330827</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="P27">
+        <v>35.82026692269326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
         <v>2024101615</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1.687847806757814</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>11.31294948121533</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.01101571409265763</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28">
+        <v>0.01177200979427998</v>
+      </c>
+      <c r="E28">
         <v>1.119727806264843</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>3.298724811937364</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>5.359077884982637</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
+        <v>0.2122501066618375</v>
+      </c>
+      <c r="I28">
+        <v>1.573116148491702</v>
+      </c>
+      <c r="J28">
         <v>2.485076306181532</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28">
         <v>3.291311151109145</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28">
         <v>5.619946302724028</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28">
         <v>3.536366330441566</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28">
         <v>0.1479896291173072</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28">
         <v>0.6150536252364763</v>
       </c>
-      <c r="N28" t="n">
-        <v>38.4850868500607</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="P28">
+        <v>40.27120940091586</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
         <v>2024101616</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1.8564001015098</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>12.44268617183257</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.009532829503261415</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29">
+        <v>0.01018731616812691</v>
+      </c>
+      <c r="E29">
         <v>0.9689952169599602</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>3.211916264254802</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>5.218049519588357</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
+        <v>0.2797842315087858</v>
+      </c>
+      <c r="I29">
+        <v>2.073653104829972</v>
+      </c>
+      <c r="J29">
         <v>2.470284185311404</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29">
         <v>3.271720013304924</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29">
         <v>3.371967781634417</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29">
         <v>2.121819798264938</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29">
         <v>0.2312337954957926</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29">
         <v>0.9610212894319941</v>
       </c>
-      <c r="N29" t="n">
-        <v>36.13562696709222</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="P29">
+        <v>38.48971879009584</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
         <v>2024101617</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>2.326021667577401</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>15.59036633051783</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.004660494423816692</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>0.004980465682195376</v>
+      </c>
+      <c r="E30">
         <v>0.4737309949582028</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>2.040000870540212</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>3.314166586765579</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
+        <v>0.4630911418076454</v>
+      </c>
+      <c r="I30">
+        <v>3.432253414890988</v>
+      </c>
+      <c r="J30">
         <v>2.144857526168584</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30">
         <v>2.840714981612059</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30">
         <v>2.622641607937881</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30">
         <v>1.650304287539398</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30">
         <v>0.1202415736578121</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30">
         <v>0.4997310705046371</v>
       </c>
-      <c r="N30" t="n">
-        <v>33.62743799220341</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="P30">
+        <v>37.52310252016042</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
         <v>2024101618</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>2.420178466714715</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>16.22146061975917</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.006143379013212913</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31">
+        <v>0.006565159308348452</v>
+      </c>
+      <c r="E31">
         <v>0.6244635842630855</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>2.560852156635587</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>4.160336779131258</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
+        <v>0.6753412484694828</v>
+      </c>
+      <c r="I31">
+        <v>5.005369563382691</v>
+      </c>
+      <c r="J31">
         <v>1.641925416584226</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31">
         <v>2.174616296268542</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31">
         <v>2.372866216705702</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31">
         <v>1.493132450630883</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31">
         <v>0.03699740727932681</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31">
         <v>0.1537634063091191</v>
       </c>
-      <c r="N31" t="n">
-        <v>33.86673617929483</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="P31">
+        <v>39.54786877144214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>2024101619</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1.91452158245876</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>12.83225054790747</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.004448653768188661</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>0.004754080878459224</v>
+      </c>
+      <c r="E32">
         <v>0.452197767914648</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>2.170213692064056</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>3.525709134856998</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
+        <v>0.453443409686653</v>
+      </c>
+      <c r="I32">
+        <v>3.360748135414092</v>
+      </c>
+      <c r="J32">
         <v>1.153785427869997</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32">
         <v>1.528108748729246</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32">
         <v>1.873315434241343</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32">
         <v>1.178788776813855</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32">
         <v>0.08324416637848531</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32">
         <v>0.345967664195518</v>
       </c>
-      <c r="N32" t="n">
-        <v>27.06255159719857</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="P32">
+        <v>30.87704856940958</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
         <v>2024101620</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1.602990444572332</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>10.74418549214596</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.006355219668840942</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33">
+        <v>0.006791544112084601</v>
+      </c>
+      <c r="E33">
         <v>0.6459968113066401</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>1.692766679809963</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>2.750053125188458</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
+        <v>0.6174548557435272</v>
+      </c>
+      <c r="I33">
+        <v>4.576337886521317</v>
+      </c>
+      <c r="J33">
         <v>0.7396060435064085</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33">
         <v>0.979556890211055</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33">
         <v>1.998203129857433</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33">
         <v>1.257374695268112</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33">
         <v>0.009249351819831702</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33">
         <v>0.03844085157727977</v>
       </c>
-      <c r="N33" t="n">
-        <v>22.46477873493232</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="P33">
+        <v>27.65900780164041</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
         <v>2024101621</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1.317032758303446</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>8.827528761857419</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.004236813112560629</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34">
+        <v>0.00452769607472307</v>
+      </c>
+      <c r="E34">
         <v>0.4306645408710934</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>1.12851111987331</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>1.833368750125639</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
+        <v>0.299079695750771</v>
+      </c>
+      <c r="I34">
+        <v>2.216663663783763</v>
+      </c>
+      <c r="J34">
         <v>0.4733478678441013</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34">
         <v>0.6269164097350752</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34">
         <v>0.9991015649287165</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34">
         <v>0.6286873476340559</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34">
         <v>0.03699740727932681</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34">
         <v>0.1537634063091191</v>
       </c>
-      <c r="N34" t="n">
-        <v>16.46015674787386</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="P34">
+        <v>18.97619099037055</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
         <v>2024101622</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>0.9311061248023484</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>6.240821304720029</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.004024972456932598</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35">
+        <v>0.004301311270986916</v>
+      </c>
+      <c r="E35">
         <v>0.4091313138275387</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>1.085106846032028</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>1.762854567428499</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
+        <v>0.1640114460568745</v>
+      </c>
+      <c r="I35">
+        <v>1.215589751107225</v>
+      </c>
+      <c r="J35">
         <v>0.355010900883076</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35">
         <v>0.4701873073013064</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35">
         <v>1.623540043009164</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35">
         <v>1.021616939905341</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35">
         <v>0.009249351819831702</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35">
         <v>0.03844085157727977</v>
       </c>
-      <c r="N35" t="n">
-        <v>13.95109052376337</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="P35">
+        <v>15.33096805974153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
         <v>2024101623</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>0.5858645279655221</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>3.926808910835074</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.0074144229469811</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36">
+        <v>0.007923468130765372</v>
+      </c>
+      <c r="E36">
         <v>0.7536629465244136</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>0.4340427384128113</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>0.7051418269713997</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
+        <v>0.08682958908893353</v>
+      </c>
+      <c r="I36">
+        <v>0.6435475152920604</v>
+      </c>
+      <c r="J36">
         <v>0.2958424174025633</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36">
         <v>0.391822756084422</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36">
         <v>1.123989260544805</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36">
         <v>0.7072732660883131</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36">
         <v>0.009249351819831702</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36">
         <v>0.03844085157727977</v>
       </c>
-      <c r="N36" t="n">
-        <v>8.979553277173418</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="P36">
+        <v>9.710439426738196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
         <v>2024101700</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>0.4452105440690377</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>2.984063120733798</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.008897307536377323</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37">
+        <v>0.009508161756918447</v>
+      </c>
+      <c r="E37">
         <v>0.904395535829296</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>0.4340427384128113</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>0.7051418269713997</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
+        <v>0.03859092848397045</v>
+      </c>
+      <c r="I37">
+        <v>0.2860211179075823</v>
+      </c>
+      <c r="J37">
         <v>0.2514660547921788</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37">
         <v>0.3330493426717587</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37">
         <v>1.248876956160895</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37">
         <v>0.7858591845425702</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37">
         <v>0.03699740727932681</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37">
         <v>0.1537634063091191</v>
       </c>
-      <c r="N37" t="n">
-        <v>8.29176342530857</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="P37">
+        <v>8.616986325920664</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
         <v>2024101701</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.2499223680805304</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>1.675126817122105</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.006143379013212913</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38">
+        <v>0.006565159308348452</v>
+      </c>
+      <c r="E38">
         <v>0.6244635842630855</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>0.3472341907302489</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>0.5641134615771197</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
+        <v>0.01929546424198523</v>
+      </c>
+      <c r="I38">
+        <v>0.1430105589537912</v>
+      </c>
+      <c r="J38">
         <v>0.2958424174025633</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38">
         <v>0.391822756084422</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38">
         <v>1.248876956160895</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38">
         <v>0.7858591845425702</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38">
         <v>0.0184987036396634</v>
       </c>
-      <c r="M38" t="n">
+      <c r="O38">
         <v>0.07688170315455954</v>
       </c>
-      <c r="N38" t="n">
-        <v>6.284785521770975</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="P38">
+        <v>6.447513325261887</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
         <v>2024101702</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.1673898651330063</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1.121945403095735</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.004448653768188661</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39">
+        <v>0.004754080878459224</v>
+      </c>
+      <c r="E39">
         <v>0.452197767914648</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>0.5208512860953733</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>0.8461701923656797</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
+        <v>0.009647732120992613</v>
+      </c>
+      <c r="I39">
+        <v>0.07150527947689558</v>
+      </c>
+      <c r="J39">
         <v>0.2810502965324352</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39">
         <v>0.3722316182802009</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39">
         <v>1.248876956160895</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39">
         <v>0.7858591845425702</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39">
         <v>0.009249351819831702</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39">
         <v>0.03844085157727977</v>
       </c>
-      <c r="N39" t="n">
-        <v>5.848711427285843</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="P39">
+        <v>5.930169865994002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
         <v>2024101703</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.1685522947519855</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>1.129736690617234</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.002330247211908346</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40">
+        <v>0.002490232841097688</v>
+      </c>
+      <c r="E40">
         <v>0.2368654974791014</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>0.4774470122540923</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>0.7756560096685398</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
+        <v>0.02894319636297784</v>
+      </c>
+      <c r="I40">
+        <v>0.2145158384306867</v>
+      </c>
+      <c r="J40">
         <v>0.3106345382726915</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40">
         <v>0.4114138938886431</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40">
         <v>1.623540043009164</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40">
         <v>1.021616939905341</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40">
         <v>0.0184987036396634</v>
       </c>
-      <c r="M40" t="n">
+      <c r="O40">
         <v>0.07688170315455954</v>
       </c>
-      <c r="N40" t="n">
-        <v>6.253173573852923</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="P40">
+        <v>6.496792594275777</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
         <v>2024101704</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.3150184267433661</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>2.111438918326002</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.002330247211908346</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41">
+        <v>0.002490232841097688</v>
+      </c>
+      <c r="E41">
         <v>0.2368654974791014</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.6076598337779356</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.9871985577599595</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
+        <v>0.04823866060496306</v>
+      </c>
+      <c r="I41">
+        <v>0.3575263973844779</v>
+      </c>
+      <c r="J41">
         <v>0.7543981643765364</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41">
         <v>0.9991480280152759</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41">
         <v>2.49775391232179</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41">
         <v>1.57171836908514</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41">
         <v>0.009249351819831702</v>
       </c>
-      <c r="M41" t="n">
+      <c r="O41">
         <v>0.03844085157727977</v>
       </c>
-      <c r="N41" t="n">
-        <v>10.13122015849413</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="P41">
+        <v>10.53714520211276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
         <v>2024101705</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.8183504517613641</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>5.485066415134703</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.002330247211908346</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>0.002490232841097688</v>
+      </c>
+      <c r="E42">
         <v>0.2368654974791014</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>1.12851111987331</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>1.833368750125639</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
+        <v>0.4052047490816898</v>
+      </c>
+      <c r="I42">
+        <v>3.003221738029615</v>
+      </c>
+      <c r="J42">
         <v>1.494004207882945</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42">
         <v>1.978704918226331</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42">
         <v>4.620844737795315</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42">
         <v>2.90767898280751</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42">
         <v>0.07399481455865362</v>
       </c>
-      <c r="M42" t="n">
+      <c r="O42">
         <v>0.3075268126182382</v>
       </c>
-      <c r="N42" t="n">
-        <v>20.88724695547502</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="P42">
+        <v>24.29583342821552</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
         <v>2024101706</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>1.218226240690212</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>8.165269322530078</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.001059203278140157</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43">
+        <v>0.001131924018680768</v>
+      </c>
+      <c r="E43">
         <v>0.1076661352177734</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>1.605958132127401</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>2.609024759794178</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
+        <v>0.7911140339213945</v>
+      </c>
+      <c r="I43">
+        <v>5.863432917105436</v>
+      </c>
+      <c r="J43">
         <v>1.819430867025764</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43">
         <v>2.409709949919195</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43">
         <v>9.241689475590631</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43">
         <v>5.81535796561502</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43">
         <v>0.08324416637848531</v>
       </c>
-      <c r="M43" t="n">
+      <c r="O43">
         <v>0.345967664195518</v>
       </c>
-      <c r="N43" t="n">
-        <v>33.4226038823624</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="P43">
+        <v>40.07722355412977</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
         <v>2024101707</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>1.950556900647115</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>13.07378046107392</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.003601291145676535</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44">
+        <v>0.003848541663514609</v>
+      </c>
+      <c r="E44">
         <v>0.3660648597404293</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>2.040000870540212</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>3.314166586765579</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
+        <v>0.8875913551313205</v>
+      </c>
+      <c r="I44">
+        <v>6.578485711874396</v>
+      </c>
+      <c r="J44">
         <v>2.159649647038713</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44">
         <v>2.860306119416281</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44">
         <v>6.743935563268835</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44">
         <v>4.243639596529877</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44">
         <v>0.1664883327569706</v>
       </c>
-      <c r="M44" t="n">
+      <c r="O44">
         <v>0.691935328391036</v>
       </c>
-      <c r="N44" t="n">
-        <v>37.61412555731464</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="P44">
+        <v>45.08044987483819</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
         <v>2024101708</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>1.979617641121596</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>13.26856264911137</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.0074144229469811</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>0.007923468130765372</v>
+      </c>
+      <c r="E45">
         <v>0.7536629465244136</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>2.474043608953024</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>4.019308413736978</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
+        <v>0.4630911418076454</v>
+      </c>
+      <c r="I45">
+        <v>3.432253414890988</v>
+      </c>
+      <c r="J45">
         <v>2.470284185311404</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45">
         <v>3.271720013304924</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45">
         <v>7.618149432581461</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45">
         <v>4.793741025709677</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45">
         <v>0.07399481455865362</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45">
         <v>0.3075268126182382</v>
       </c>
-      <c r="N45" t="n">
-        <v>41.03802596647871</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="P45">
+        <v>44.93387956836114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
         <v>2024101709</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>1.699472102947606</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>11.39086235643031</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.0114393954039137</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46">
+        <v>0.01222477940175228</v>
+      </c>
+      <c r="E46">
         <v>1.162794260351952</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>3.819576098032738</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>6.205248077348318</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
+        <v>0.424500213323675</v>
+      </c>
+      <c r="I46">
+        <v>3.146232296983404</v>
+      </c>
+      <c r="J46">
         <v>2.706958119233455</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46">
         <v>3.585178218172461</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46">
         <v>8.117700215045822</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46">
         <v>5.108084699526706</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46">
         <v>0.07399481455865362</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46">
         <v>0.3075268126182382</v>
       </c>
-      <c r="N46" t="n">
-        <v>44.18883516967018</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="P46">
+        <v>47.7603530639751</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
         <v>2024101710</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1.264723425449382</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>8.47692082339</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.008685466880749289</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47">
+        <v>0.00928177695318229</v>
+      </c>
+      <c r="E47">
         <v>0.8828623087857418</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>2.213617965905338</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>3.596223317554138</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
+        <v>0.1833069102988596</v>
+      </c>
+      <c r="I47">
+        <v>1.358600310061016</v>
+      </c>
+      <c r="J47">
         <v>2.396323580960763</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47">
         <v>3.173764324283818</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47">
         <v>5.495058607107941</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47">
         <v>3.457780411987307</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47">
         <v>0.04624675909915852</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47">
         <v>0.1922042578863989</v>
       </c>
-      <c r="N47" t="n">
-        <v>31.20441124929073</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="P47">
+        <v>32.74691477972305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
         <v>2024101711</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1.327494624874259</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>8.897650349550904</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.008685466880749289</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>0.00928177695318229</v>
+      </c>
+      <c r="E48">
         <v>0.8828623087857418</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>1.953192322857651</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>3.173138221371298</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
+        <v>0.1833069102988596</v>
+      </c>
+      <c r="I48">
+        <v>1.358600310061016</v>
+      </c>
+      <c r="J48">
         <v>2.248402372259482</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48">
         <v>2.977852946241607</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48">
         <v>4.870620129027492</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48">
         <v>3.064850819716023</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48">
         <v>0.09249351819831704</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48">
         <v>0.3844085157727978</v>
       </c>
-      <c r="N48" t="n">
-        <v>29.88165159553632</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="P48">
+        <v>31.42415512596863</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
         <v>2024101712</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1.33911892106405</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>8.975563224765882</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.006778900980097005</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49">
+        <v>0.007244313719556911</v>
+      </c>
+      <c r="E49">
         <v>0.6890632653937495</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>2.083405144381493</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>3.384680769462719</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
+        <v>0.1736591781778671</v>
+      </c>
+      <c r="I49">
+        <v>1.287095030584121</v>
+      </c>
+      <c r="J49">
         <v>1.77505450441538</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49">
         <v>2.350936536506532</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49">
         <v>4.495957042179222</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49">
         <v>2.829093064353252</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49">
         <v>0.06474546273882192</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49">
         <v>0.2690859610409584</v>
       </c>
-      <c r="N49" t="n">
-        <v>28.26348279728215</v>
+      <c r="P49">
+        <v>29.7247024187836</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_PM25.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>1.735507421135961</v>
+        <v>2.515731192203172</v>
       </c>
       <c r="C2">
-        <v>11.63239226959676</v>
+        <v>16.86191122905895</v>
       </c>
       <c r="D2">
-        <v>0.01086647057933537</v>
+        <v>0.01575165778761049</v>
       </c>
       <c r="E2">
-        <v>1.033594898090624</v>
+        <v>1.498263213145279</v>
       </c>
       <c r="F2">
-        <v>2.777873525841991</v>
+        <v>4.026708841372695</v>
       </c>
       <c r="G2">
-        <v>4.512907692616958</v>
+        <v>6.541754020515191</v>
       </c>
       <c r="H2">
-        <v>0.1736591781778671</v>
+        <v>0.2517303043673952</v>
       </c>
       <c r="I2">
-        <v>1.287095030584121</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="J2">
-        <v>2.973216294895761</v>
+        <v>4.309870924861944</v>
       </c>
       <c r="K2">
-        <v>3.937818698648441</v>
+        <v>5.708125017953871</v>
       </c>
       <c r="L2">
-        <v>4.246181650947046</v>
+        <v>6.15511722793802</v>
       </c>
       <c r="M2">
-        <v>2.671921227444738</v>
+        <v>3.873124074913375</v>
       </c>
       <c r="N2">
-        <v>0.1202415736578121</v>
+        <v>0.174298002858759</v>
       </c>
       <c r="O2">
-        <v>0.4997310705046371</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="P2">
-        <v>37.61300700272206</v>
+        <v>54.52250667264146</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>1.792466472465942</v>
+        <v>2.598297051826719</v>
       </c>
       <c r="C3">
-        <v>12.01416535815017</v>
+        <v>17.41531621916204</v>
       </c>
       <c r="D3">
-        <v>0.01199839459801613</v>
+        <v>0.01739245547381991</v>
       </c>
       <c r="E3">
-        <v>1.141261033308397</v>
+        <v>1.654332297847911</v>
       </c>
       <c r="F3">
-        <v>2.821277799683272</v>
+        <v>4.089626167019145</v>
       </c>
       <c r="G3">
-        <v>4.583421875314098</v>
+        <v>6.643968927085742</v>
       </c>
       <c r="H3">
-        <v>0.1736591781778671</v>
+        <v>0.2517303043673952</v>
       </c>
       <c r="I3">
-        <v>1.287095030584121</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="J3">
-        <v>2.869671448804865</v>
+        <v>4.159775917528444</v>
       </c>
       <c r="K3">
-        <v>3.800680734018893</v>
+        <v>5.509334594443041</v>
       </c>
       <c r="L3">
-        <v>3.371967781634417</v>
+        <v>4.88788721042137</v>
       </c>
       <c r="M3">
-        <v>2.121819798264938</v>
+        <v>3.07571617713709</v>
       </c>
       <c r="N3">
-        <v>0.1109922218379805</v>
+        <v>0.160890464177316</v>
       </c>
       <c r="O3">
-        <v>0.4612902189273574</v>
+        <v>0.6686702564799173</v>
       </c>
       <c r="P3">
-        <v>36.56176734577034</v>
+        <v>52.99866623078189</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>1.815715064845528</v>
+        <v>2.631997402693475</v>
       </c>
       <c r="C4">
-        <v>12.16999110858014</v>
+        <v>17.64119580695921</v>
       </c>
       <c r="D4">
-        <v>0.01109285538307152</v>
+        <v>0.01607981732485237</v>
       </c>
       <c r="E4">
-        <v>1.055128125134179</v>
+        <v>1.529477030085806</v>
       </c>
       <c r="F4">
-        <v>2.864682073524554</v>
+        <v>4.152543492665592</v>
       </c>
       <c r="G4">
-        <v>4.653936058011237</v>
+        <v>6.746183833656289</v>
       </c>
       <c r="H4">
-        <v>0.1640114460568745</v>
+        <v>0.2377452874580954</v>
       </c>
       <c r="I4">
-        <v>1.215589751107225</v>
+        <v>1.762076621822386</v>
       </c>
       <c r="J4">
-        <v>2.677373877493198</v>
+        <v>3.881028046766228</v>
       </c>
       <c r="K4">
-        <v>3.545995942564019</v>
+        <v>5.140152379351496</v>
       </c>
       <c r="L4">
-        <v>3.371967781634417</v>
+        <v>4.88788721042137</v>
       </c>
       <c r="M4">
-        <v>2.121819798264938</v>
+        <v>3.07571617713709</v>
       </c>
       <c r="N4">
-        <v>0.1017428700181487</v>
+        <v>0.147482925495873</v>
       </c>
       <c r="O4">
-        <v>0.4228493673500776</v>
+        <v>0.6129477351065907</v>
       </c>
       <c r="P4">
-        <v>36.19189611996759</v>
+        <v>52.46251376694435</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>1.963343626455886</v>
+        <v>2.845994630697362</v>
       </c>
       <c r="C5">
-        <v>13.1594846238104</v>
+        <v>19.07553118947126</v>
       </c>
       <c r="D5">
-        <v>0.00928177695318229</v>
+        <v>0.01345454102691729</v>
       </c>
       <c r="E5">
-        <v>0.8828623087857418</v>
+        <v>1.279766494561593</v>
       </c>
       <c r="F5">
-        <v>2.994894895048398</v>
+        <v>4.341295469604938</v>
       </c>
       <c r="G5">
-        <v>4.865478606102656</v>
+        <v>7.052828553367942</v>
       </c>
       <c r="H5">
-        <v>0.2797842315087858</v>
+        <v>0.405565490369692</v>
       </c>
       <c r="I5">
-        <v>2.073653104829972</v>
+        <v>3.005895413697013</v>
       </c>
       <c r="J5">
-        <v>2.632997514882814</v>
+        <v>3.81670161505187</v>
       </c>
       <c r="K5">
-        <v>3.487222529151355</v>
+        <v>5.054956483561139</v>
       </c>
       <c r="L5">
-        <v>3.247080086018328</v>
+        <v>4.706854350776135</v>
       </c>
       <c r="M5">
-        <v>2.043233879810682</v>
+        <v>2.961800763169051</v>
       </c>
       <c r="N5">
-        <v>0.09249351819831704</v>
+        <v>0.13407538681443</v>
       </c>
       <c r="O5">
-        <v>0.3844085157727978</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="P5">
-        <v>38.11621921732932</v>
+        <v>55.2519455959026</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>2.24116430539192</v>
+        <v>3.248713823555069</v>
       </c>
       <c r="C6">
-        <v>15.02160234144846</v>
+        <v>21.77479226364747</v>
       </c>
       <c r="D6">
-        <v>0.008829007345709985</v>
+        <v>0.01279822195243352</v>
       </c>
       <c r="E6">
-        <v>0.8397958546986319</v>
+        <v>1.217338860680539</v>
       </c>
       <c r="F6">
-        <v>2.734469252000711</v>
+        <v>3.963791515726248</v>
       </c>
       <c r="G6">
-        <v>4.442393509919818</v>
+        <v>6.439539113944641</v>
       </c>
       <c r="H6">
-        <v>0.6174548557435272</v>
+        <v>0.8950410821951829</v>
       </c>
       <c r="I6">
-        <v>4.576337886521317</v>
+        <v>6.633700223331335</v>
       </c>
       <c r="J6">
-        <v>2.218818130519225</v>
+        <v>3.216321585717868</v>
       </c>
       <c r="K6">
-        <v>2.938670670633166</v>
+        <v>4.259794789517814</v>
       </c>
       <c r="L6">
-        <v>1.623540043009164</v>
+        <v>2.353427175388068</v>
       </c>
       <c r="M6">
-        <v>1.021616939905341</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="N6">
-        <v>0.08324416637848531</v>
+        <v>0.120667848132987</v>
       </c>
       <c r="O6">
-        <v>0.345967664195518</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="P6">
-        <v>38.713904627711</v>
+        <v>56.11832957773412</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>2.392280155859215</v>
+        <v>3.46776610418897</v>
       </c>
       <c r="C7">
-        <v>16.03446971924322</v>
+        <v>23.24300958432908</v>
       </c>
       <c r="D7">
-        <v>0.003395772056042301</v>
+        <v>0.004922393058628276</v>
       </c>
       <c r="E7">
-        <v>0.3229984056533201</v>
+        <v>0.4682072541078996</v>
       </c>
       <c r="F7">
-        <v>1.866383775175088</v>
+        <v>2.705445002797281</v>
       </c>
       <c r="G7">
-        <v>3.032109855977018</v>
+        <v>4.395240982533642</v>
       </c>
       <c r="H7">
-        <v>0.6463980521065052</v>
+        <v>0.9369961329230818</v>
       </c>
       <c r="I7">
-        <v>4.790853724952004</v>
+        <v>6.944654921299993</v>
       </c>
       <c r="J7">
-        <v>1.434835724402433</v>
+        <v>2.079887958764222</v>
       </c>
       <c r="K7">
-        <v>1.900340367009446</v>
+        <v>2.75466729722152</v>
       </c>
       <c r="L7">
-        <v>1.623540043009164</v>
+        <v>2.353427175388068</v>
       </c>
       <c r="M7">
-        <v>1.021616939905341</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="N7">
-        <v>0.09249351819831704</v>
+        <v>0.13407538681443</v>
       </c>
       <c r="O7">
-        <v>0.3844085157727978</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="P7">
-        <v>35.54612456931991</v>
+        <v>51.52642578874461</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>1.820364783321444</v>
+        <v>2.638737472866824</v>
       </c>
       <c r="C8">
-        <v>12.20115625866612</v>
+        <v>17.68637172451864</v>
       </c>
       <c r="D8">
-        <v>0.004301311270986916</v>
+        <v>0.006235031207595817</v>
       </c>
       <c r="E8">
-        <v>0.4091313138275387</v>
+        <v>0.5930625218700062</v>
       </c>
       <c r="F8">
-        <v>2.560852156635587</v>
+        <v>3.712122213140454</v>
       </c>
       <c r="G8">
-        <v>4.160336779131258</v>
+        <v>6.030679487662441</v>
       </c>
       <c r="H8">
-        <v>0.3859092848397045</v>
+        <v>0.5594006763719893</v>
       </c>
       <c r="I8">
-        <v>2.860211179075824</v>
+        <v>4.146062639582086</v>
       </c>
       <c r="J8">
-        <v>1.065032702649228</v>
+        <v>1.543834361144576</v>
       </c>
       <c r="K8">
-        <v>1.410561921903919</v>
+        <v>2.044701498968551</v>
       </c>
       <c r="L8">
-        <v>1.498652347393075</v>
+        <v>2.17239431574283</v>
       </c>
       <c r="M8">
-        <v>0.9430310214510838</v>
+        <v>1.366984967616485</v>
       </c>
       <c r="N8">
-        <v>0.0184987036396634</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O8">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P8">
-        <v>29.41492146696</v>
+        <v>42.63884703080201</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>1.449549734867076</v>
+        <v>2.1012168765421</v>
       </c>
       <c r="C9">
-        <v>9.715735539308211</v>
+        <v>14.08359229915372</v>
       </c>
       <c r="D9">
-        <v>0.00452769607472307</v>
+        <v>0.006563190744837701</v>
       </c>
       <c r="E9">
-        <v>0.4306645408710934</v>
+        <v>0.6242763388105328</v>
       </c>
       <c r="F9">
-        <v>1.605958132127401</v>
+        <v>2.32794104891859</v>
       </c>
       <c r="G9">
-        <v>2.609024759794178</v>
+        <v>3.781951543110346</v>
       </c>
       <c r="H9">
-        <v>0.7332276411954386</v>
+        <v>1.062861285106779</v>
       </c>
       <c r="I9">
-        <v>5.434401240244064</v>
+        <v>7.877519015205961</v>
       </c>
       <c r="J9">
-        <v>0.4881399887142295</v>
+        <v>0.7075907488579309</v>
       </c>
       <c r="K9">
-        <v>0.6465075475392962</v>
+        <v>0.937154853693919</v>
       </c>
       <c r="L9">
-        <v>1.748427738625254</v>
+        <v>2.534460035033303</v>
       </c>
       <c r="M9">
-        <v>1.100202858359598</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="N9">
-        <v>0.02774805545949512</v>
+        <v>0.04022261604432901</v>
       </c>
       <c r="O9">
-        <v>0.1153225547318393</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="P9">
-        <v>26.1094380279119</v>
+        <v>37.84733321089489</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>1.200789796405525</v>
+        <v>1.740623122267836</v>
       </c>
       <c r="C10">
-        <v>8.048400009707603</v>
+        <v>11.66668070972398</v>
       </c>
       <c r="D10">
-        <v>0.002263848037361535</v>
+        <v>0.003281595372418851</v>
       </c>
       <c r="E10">
-        <v>0.2153322704355467</v>
+        <v>0.3121381694052664</v>
       </c>
       <c r="F10">
-        <v>1.345532489079715</v>
+        <v>1.950437095039899</v>
       </c>
       <c r="G10">
-        <v>2.18593966361134</v>
+        <v>3.168662103687046</v>
       </c>
       <c r="H10">
-        <v>0.3666138205977193</v>
+        <v>0.5314306425533896</v>
       </c>
       <c r="I10">
-        <v>2.717200620122032</v>
+        <v>3.938759507602981</v>
       </c>
       <c r="J10">
-        <v>0.4585557469739733</v>
+        <v>0.6647064610483596</v>
       </c>
       <c r="K10">
-        <v>0.6073252719308542</v>
+        <v>0.8803575898336815</v>
       </c>
       <c r="L10">
-        <v>2.123090825473523</v>
+        <v>3.07755861396901</v>
       </c>
       <c r="M10">
-        <v>1.335960613722369</v>
+        <v>1.936562037456687</v>
       </c>
       <c r="N10">
-        <v>0.009249351819831702</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O10">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P10">
-        <v>20.65469517949468</v>
+        <v>29.94032770801532</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.8532233403307408</v>
+        <v>1.236802876809865</v>
       </c>
       <c r="C11">
-        <v>5.718805040779653</v>
+        <v>8.289780872156246</v>
       </c>
       <c r="D11">
-        <v>0.00452769607472307</v>
+        <v>0.006563190744837701</v>
       </c>
       <c r="E11">
-        <v>0.4306645408710934</v>
+        <v>0.6242763388105328</v>
       </c>
       <c r="F11">
-        <v>0.6944683814604977</v>
+        <v>1.006677210343174</v>
       </c>
       <c r="G11">
-        <v>1.128226923154239</v>
+        <v>1.635438505128798</v>
       </c>
       <c r="H11">
-        <v>0.1736591781778671</v>
+        <v>0.2517303043673952</v>
       </c>
       <c r="I11">
-        <v>1.287095030584121</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="J11">
-        <v>0.5029321095843576</v>
+        <v>0.729032892762717</v>
       </c>
       <c r="K11">
-        <v>0.6660986853435173</v>
+        <v>0.9655534856240381</v>
       </c>
       <c r="L11">
-        <v>1.498652347393075</v>
+        <v>2.17239431574283</v>
       </c>
       <c r="M11">
-        <v>0.9430310214510838</v>
+        <v>1.366984967616485</v>
       </c>
       <c r="N11">
-        <v>0.03699740727932681</v>
+        <v>0.05363015472577201</v>
       </c>
       <c r="O11">
-        <v>0.1537634063091191</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="P11">
-        <v>14.09214510879342</v>
+        <v>20.42748338813794</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.5242557581596242</v>
+        <v>0.7599429120452986</v>
       </c>
       <c r="C12">
-        <v>3.513870672195672</v>
+        <v>5.093584704826249</v>
       </c>
       <c r="D12">
-        <v>0.00452769607472307</v>
+        <v>0.006563190744837701</v>
       </c>
       <c r="E12">
-        <v>0.4306645408710934</v>
+        <v>0.6242763388105328</v>
       </c>
       <c r="F12">
-        <v>0.3906384645715301</v>
+        <v>0.5662559308180354</v>
       </c>
       <c r="G12">
-        <v>0.63462764427426</v>
+        <v>0.9199341591349488</v>
       </c>
       <c r="H12">
-        <v>0.08682958908893353</v>
+        <v>0.1258651521836976</v>
       </c>
       <c r="I12">
-        <v>0.6435475152920604</v>
+        <v>0.9328640939059692</v>
       </c>
       <c r="J12">
-        <v>0.2810502965324352</v>
+        <v>0.4074007341909299</v>
       </c>
       <c r="K12">
-        <v>0.3722316182802009</v>
+        <v>0.5395740066722564</v>
       </c>
       <c r="L12">
-        <v>1.123989260544805</v>
+        <v>1.629295736807123</v>
       </c>
       <c r="M12">
-        <v>0.7072732660883131</v>
+        <v>1.025238725712364</v>
       </c>
       <c r="N12">
-        <v>0.0184987036396634</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O12">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P12">
-        <v>8.808886728767874</v>
+        <v>12.76905580596178</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,43 +1030,43 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.3719774780733474</v>
+        <v>0.5392056138680609</v>
       </c>
       <c r="C13">
-        <v>2.493212006879413</v>
+        <v>3.614073404754765</v>
       </c>
       <c r="D13">
-        <v>0.006791544112084601</v>
+        <v>0.009844786117256553</v>
       </c>
       <c r="E13">
-        <v>0.6459968113066401</v>
+        <v>0.9364145082157992</v>
       </c>
       <c r="F13">
-        <v>0.4340427384128113</v>
+        <v>0.6291732564644835</v>
       </c>
       <c r="G13">
-        <v>0.7051418269713997</v>
+        <v>1.022149065705499</v>
       </c>
       <c r="H13">
-        <v>0.05788639272595567</v>
+        <v>0.08391010145579837</v>
       </c>
       <c r="I13">
-        <v>0.4290316768613734</v>
+        <v>0.6219093959373129</v>
       </c>
       <c r="J13">
-        <v>0.2958424174025633</v>
+        <v>0.4288428780957158</v>
       </c>
       <c r="K13">
-        <v>0.391822756084422</v>
+        <v>0.5679726386023753</v>
       </c>
       <c r="L13">
-        <v>1.373764651776985</v>
+        <v>1.991361456097595</v>
       </c>
       <c r="M13">
-        <v>0.8644451029968269</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="P13">
-        <v>8.069955403603823</v>
+        <v>11.69792665896311</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.2452726496046135</v>
+        <v>0.3555387016442526</v>
       </c>
       <c r="C14">
-        <v>1.643961667036113</v>
+        <v>2.383029651260175</v>
       </c>
       <c r="D14">
-        <v>0.007244313719556911</v>
+        <v>0.01050110519174033</v>
       </c>
       <c r="E14">
-        <v>0.6890632653937495</v>
+        <v>0.9988421420968526</v>
       </c>
       <c r="F14">
-        <v>0.2604256430476867</v>
+        <v>0.3775039538786903</v>
       </c>
       <c r="G14">
-        <v>0.4230850961828398</v>
+        <v>0.6132894394232992</v>
       </c>
       <c r="H14">
-        <v>0.02894319636297784</v>
+        <v>0.04195505072789919</v>
       </c>
       <c r="I14">
-        <v>0.2145158384306867</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="J14">
-        <v>0.3254266591428197</v>
+        <v>0.4717271659052875</v>
       </c>
       <c r="K14">
-        <v>0.4310050316928641</v>
+        <v>0.6247699024626128</v>
       </c>
       <c r="L14">
-        <v>1.998203129857433</v>
+        <v>2.896525754323775</v>
       </c>
       <c r="M14">
-        <v>1.257374695268112</v>
+        <v>1.822646623488646</v>
       </c>
       <c r="N14">
-        <v>0.009249351819831702</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O14">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P14">
-        <v>7.572211389136564</v>
+        <v>10.97641424842666</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1124,49 +1124,49 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.1871511686556529</v>
+        <v>0.2712878244773683</v>
       </c>
       <c r="C15">
-        <v>1.254397290961204</v>
+        <v>1.818330681767241</v>
       </c>
       <c r="D15">
-        <v>0.005433235289667683</v>
+        <v>0.007875828893805243</v>
       </c>
       <c r="E15">
-        <v>0.516797449045312</v>
+        <v>0.7491316065726394</v>
       </c>
       <c r="F15">
-        <v>0.4774470122540923</v>
+        <v>0.6920905821109322</v>
       </c>
       <c r="G15">
-        <v>0.7756560096685398</v>
+        <v>1.124363972276049</v>
       </c>
       <c r="H15">
-        <v>0.03859092848397045</v>
+        <v>0.05594006763719893</v>
       </c>
       <c r="I15">
-        <v>0.2860211179075823</v>
+        <v>0.4146062639582084</v>
       </c>
       <c r="J15">
-        <v>0.2514660547921788</v>
+        <v>0.3645164463813585</v>
       </c>
       <c r="K15">
-        <v>0.3330493426717587</v>
+        <v>0.482776742812019</v>
       </c>
       <c r="L15">
-        <v>1.748427738625254</v>
+        <v>2.534460035033303</v>
       </c>
       <c r="M15">
-        <v>1.100202858359598</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="N15">
-        <v>0.0184987036396634</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O15">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P15">
-        <v>7.070020613509032</v>
+        <v>10.24845596758223</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1174,49 +1174,49 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.170877153989944</v>
+        <v>0.2476975788706406</v>
       </c>
       <c r="C16">
-        <v>1.14531926566023</v>
+        <v>1.66021497030922</v>
       </c>
       <c r="D16">
-        <v>0.002037463233625381</v>
+        <v>0.002953435835176966</v>
       </c>
       <c r="E16">
-        <v>0.1937990433919921</v>
+        <v>0.2809243524647397</v>
       </c>
       <c r="F16">
-        <v>0.5642555599366548</v>
+        <v>0.8179252334038292</v>
       </c>
       <c r="G16">
-        <v>0.9166843750628197</v>
+        <v>1.328793785417148</v>
       </c>
       <c r="H16">
-        <v>0.02894319636297784</v>
+        <v>0.04195505072789919</v>
       </c>
       <c r="I16">
-        <v>0.2145158384306867</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="J16">
-        <v>0.2366739339220507</v>
+        <v>0.3430743024765726</v>
       </c>
       <c r="K16">
-        <v>0.3134582048675376</v>
+        <v>0.4543781108819002</v>
       </c>
       <c r="L16">
-        <v>1.498652347393075</v>
+        <v>2.17239431574283</v>
       </c>
       <c r="M16">
-        <v>0.9430310214510838</v>
+        <v>1.366984967616485</v>
       </c>
       <c r="N16">
-        <v>0.009249351819831702</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O16">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P16">
-        <v>6.275937607099789</v>
+        <v>9.097380861769867</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1224,49 +1224,49 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.3440791672178464</v>
+        <v>0.4987651928279564</v>
       </c>
       <c r="C17">
-        <v>2.306221106363456</v>
+        <v>3.343017899398157</v>
       </c>
       <c r="D17">
-        <v>0.002943002448569995</v>
+        <v>0.004266073984144505</v>
       </c>
       <c r="E17">
-        <v>0.2799319515662109</v>
+        <v>0.4057796202268465</v>
       </c>
       <c r="F17">
-        <v>0.8680854768256225</v>
+        <v>1.258346512928967</v>
       </c>
       <c r="G17">
-        <v>1.410283653942799</v>
+        <v>2.044298131410997</v>
       </c>
       <c r="H17">
-        <v>0.02894319636297784</v>
+        <v>0.04195505072789919</v>
       </c>
       <c r="I17">
-        <v>0.2145158384306867</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="J17">
-        <v>0.5473084721947422</v>
+        <v>0.793359324477074</v>
       </c>
       <c r="K17">
-        <v>0.7248720987561807</v>
+        <v>1.050749381414394</v>
       </c>
       <c r="L17">
-        <v>2.247978521089611</v>
+        <v>3.258591473614247</v>
       </c>
       <c r="M17">
-        <v>1.414546532176626</v>
+        <v>2.050477451424727</v>
       </c>
       <c r="N17">
-        <v>0.02774805545949512</v>
+        <v>0.04022261604432901</v>
       </c>
       <c r="O17">
-        <v>0.1153225547318393</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="P17">
-        <v>10.53277962756667</v>
+        <v>15.26795099056838</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1274,49 +1274,49 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.7579041115744455</v>
+        <v>1.098631438256174</v>
       </c>
       <c r="C18">
-        <v>5.079919464016805</v>
+        <v>7.363674562187833</v>
       </c>
       <c r="D18">
-        <v>0.001811078429889228</v>
+        <v>0.002625276297935081</v>
       </c>
       <c r="E18">
-        <v>0.1722658163484374</v>
+        <v>0.2497105355242132</v>
       </c>
       <c r="F18">
-        <v>1.388936762920995</v>
+        <v>2.013354420686348</v>
       </c>
       <c r="G18">
-        <v>2.256453846308479</v>
+        <v>3.270877010257596</v>
       </c>
       <c r="H18">
-        <v>0.4630911418076454</v>
+        <v>0.671280811646387</v>
       </c>
       <c r="I18">
-        <v>3.432253414890988</v>
+        <v>4.975275167498503</v>
       </c>
       <c r="J18">
-        <v>1.257330273960894</v>
+        <v>1.822582231906792</v>
       </c>
       <c r="K18">
-        <v>1.665246713358793</v>
+        <v>2.413883714060095</v>
       </c>
       <c r="L18">
-        <v>4.121293955330954</v>
+        <v>5.974084368292788</v>
       </c>
       <c r="M18">
-        <v>2.593335308990481</v>
+        <v>3.759208660945333</v>
       </c>
       <c r="N18">
-        <v>0.02774805545949512</v>
+        <v>0.04022261604432901</v>
       </c>
       <c r="O18">
-        <v>0.1153225547318393</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="P18">
-        <v>23.33291249813015</v>
+        <v>33.8225783777243</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1324,49 +1324,49 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>1.334469202588135</v>
+        <v>1.93440013975167</v>
       </c>
       <c r="C19">
-        <v>8.944398074679889</v>
+        <v>12.96548833955772</v>
       </c>
       <c r="D19">
-        <v>0.003169387252306149</v>
+        <v>0.00459423352138639</v>
       </c>
       <c r="E19">
-        <v>0.3014651786097653</v>
+        <v>0.4369934371673729</v>
       </c>
       <c r="F19">
-        <v>2.560852156635587</v>
+        <v>3.712122213140454</v>
       </c>
       <c r="G19">
-        <v>4.160336779131258</v>
+        <v>6.030679487662441</v>
       </c>
       <c r="H19">
-        <v>0.9551254799782687</v>
+        <v>1.384516674020673</v>
       </c>
       <c r="I19">
-        <v>7.079022668212661</v>
+        <v>10.26150503296566</v>
       </c>
       <c r="J19">
-        <v>2.130065405298455</v>
+        <v>3.087668722289152</v>
       </c>
       <c r="K19">
-        <v>2.821123843807839</v>
+        <v>4.089402997937102</v>
       </c>
       <c r="L19">
-        <v>7.368374041349286</v>
+        <v>10.68093871906891</v>
       </c>
       <c r="M19">
-        <v>4.636569188801166</v>
+        <v>6.721009424114385</v>
       </c>
       <c r="N19">
-        <v>0.09249351819831704</v>
+        <v>0.13407538681443</v>
       </c>
       <c r="O19">
-        <v>0.3844085157727978</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="P19">
-        <v>42.77187344031573</v>
+        <v>62.00062002174462</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1374,49 +1374,49 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>1.807578057512673</v>
+        <v>2.62020227989011</v>
       </c>
       <c r="C20">
-        <v>12.11545209592965</v>
+        <v>17.56213795123019</v>
       </c>
       <c r="D20">
-        <v>0.003395772056042301</v>
+        <v>0.004922393058628276</v>
       </c>
       <c r="E20">
-        <v>0.3229984056533201</v>
+        <v>0.4682072541078996</v>
       </c>
       <c r="F20">
-        <v>2.257022239746619</v>
+        <v>3.271700933615317</v>
       </c>
       <c r="G20">
-        <v>3.666737500251279</v>
+        <v>5.315175141668592</v>
       </c>
       <c r="H20">
-        <v>0.8297049624053647</v>
+        <v>1.202711454199777</v>
       </c>
       <c r="I20">
-        <v>6.14945403501302</v>
+        <v>8.914034675101485</v>
       </c>
       <c r="J20">
-        <v>2.070896921817944</v>
+        <v>3.00190014667001</v>
       </c>
       <c r="K20">
-        <v>2.742759292590954</v>
+        <v>3.975808470216626</v>
       </c>
       <c r="L20">
-        <v>6.369272476420565</v>
+        <v>9.232675841907028</v>
       </c>
       <c r="M20">
-        <v>4.007881841167109</v>
+        <v>5.809686112370061</v>
       </c>
       <c r="N20">
-        <v>0.09249351819831704</v>
+        <v>0.13407538681443</v>
       </c>
       <c r="O20">
-        <v>0.3844085157727978</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="P20">
-        <v>42.82005563453566</v>
+        <v>62.07046325458341</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1424,49 +1424,49 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>1.433275720201367</v>
+        <v>2.077626630935373</v>
       </c>
       <c r="C21">
-        <v>9.606657514007233</v>
+        <v>13.92547658769571</v>
       </c>
       <c r="D21">
-        <v>0.003622156859778456</v>
+        <v>0.005250552595870163</v>
       </c>
       <c r="E21">
-        <v>0.3445316326968748</v>
+        <v>0.4994210710484263</v>
       </c>
       <c r="F21">
-        <v>1.12851111987331</v>
+        <v>1.635850466807658</v>
       </c>
       <c r="G21">
-        <v>1.833368750125639</v>
+        <v>2.657587570834296</v>
       </c>
       <c r="H21">
-        <v>0.3473183563557341</v>
+        <v>0.5034606087347904</v>
       </c>
       <c r="I21">
-        <v>2.574190061168242</v>
+        <v>3.731456375623877</v>
       </c>
       <c r="J21">
-        <v>1.627133295714098</v>
+        <v>2.358635829526437</v>
       </c>
       <c r="K21">
-        <v>2.155025158464321</v>
+        <v>3.123849512313063</v>
       </c>
       <c r="L21">
-        <v>4.620844737795315</v>
+        <v>6.698215806873732</v>
       </c>
       <c r="M21">
-        <v>2.90767898280751</v>
+        <v>4.214870316817495</v>
       </c>
       <c r="N21">
-        <v>0.03699740727932681</v>
+        <v>0.05363015472577201</v>
       </c>
       <c r="O21">
-        <v>0.1537634063091191</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="P21">
-        <v>28.77291829965787</v>
+        <v>41.70822157002581</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1474,49 +1474,49 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>1.697147243709647</v>
+        <v>2.460125613273028</v>
       </c>
       <c r="C22">
-        <v>11.37527978138732</v>
+        <v>16.48920990919362</v>
       </c>
       <c r="D22">
-        <v>0.01131924018680767</v>
+        <v>0.01640797686209425</v>
       </c>
       <c r="E22">
-        <v>1.076661352177733</v>
+        <v>1.560690847026332</v>
       </c>
       <c r="F22">
-        <v>3.515746181143771</v>
+        <v>5.096303377362318</v>
       </c>
       <c r="G22">
-        <v>5.711648798468338</v>
+        <v>8.279407432214541</v>
       </c>
       <c r="H22">
-        <v>0.3569660884767267</v>
+        <v>0.51744562564409</v>
       </c>
       <c r="I22">
-        <v>2.645695340645136</v>
+        <v>3.835107941613429</v>
       </c>
       <c r="J22">
-        <v>3.076761140986659</v>
+        <v>4.459965932195444</v>
       </c>
       <c r="K22">
-        <v>4.074956663277989</v>
+        <v>5.906915441464702</v>
       </c>
       <c r="L22">
-        <v>8.367475606277996</v>
+        <v>12.12920159623081</v>
       </c>
       <c r="M22">
-        <v>5.26525653643522</v>
+        <v>7.632332735858708</v>
       </c>
       <c r="N22">
-        <v>0.03699740727932681</v>
+        <v>0.05363015472577201</v>
       </c>
       <c r="O22">
-        <v>0.1537634063091191</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="P22">
-        <v>47.36567478676177</v>
+        <v>68.65963466915819</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1524,49 +1524,49 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>1.525107660100724</v>
+        <v>2.210743016859049</v>
       </c>
       <c r="C23">
-        <v>10.22216922820559</v>
+        <v>14.81770095949454</v>
       </c>
       <c r="D23">
-        <v>0.01177200979427998</v>
+        <v>0.01706429593657802</v>
       </c>
       <c r="E23">
-        <v>1.119727806264843</v>
+        <v>1.623118480907386</v>
       </c>
       <c r="F23">
-        <v>2.864682073524554</v>
+        <v>4.152543492665592</v>
       </c>
       <c r="G23">
-        <v>4.653936058011237</v>
+        <v>6.746183833656289</v>
       </c>
       <c r="H23">
-        <v>0.2218978387828301</v>
+        <v>0.3216553889138937</v>
       </c>
       <c r="I23">
-        <v>1.644621427968599</v>
+        <v>2.383986017759699</v>
       </c>
       <c r="J23">
-        <v>3.328227195778838</v>
+        <v>4.824482378576803</v>
       </c>
       <c r="K23">
-        <v>4.408006005949747</v>
+        <v>6.389692184276721</v>
       </c>
       <c r="L23">
-        <v>6.369272476420565</v>
+        <v>9.232675841907028</v>
       </c>
       <c r="M23">
-        <v>4.007881841167109</v>
+        <v>5.809686112370061</v>
       </c>
       <c r="N23">
-        <v>0.04624675909915852</v>
+        <v>0.06703769340721499</v>
       </c>
       <c r="O23">
-        <v>0.1922042578863989</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="P23">
-        <v>40.61575263895448</v>
+        <v>58.87518230359748</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1574,49 +1574,49 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>1.600665585334374</v>
+        <v>2.320269157176</v>
       </c>
       <c r="C24">
-        <v>10.72860291710297</v>
+        <v>15.55180961983535</v>
       </c>
       <c r="D24">
-        <v>0.01177200979427998</v>
+        <v>0.01706429593657802</v>
       </c>
       <c r="E24">
-        <v>1.119727806264843</v>
+        <v>1.623118480907386</v>
       </c>
       <c r="F24">
-        <v>2.560852156635587</v>
+        <v>3.712122213140454</v>
       </c>
       <c r="G24">
-        <v>4.160336779131258</v>
+        <v>6.030679487662441</v>
       </c>
       <c r="H24">
-        <v>0.2122501066618375</v>
+        <v>0.307670372004594</v>
       </c>
       <c r="I24">
-        <v>1.573116148491702</v>
+        <v>2.280334451770146</v>
       </c>
       <c r="J24">
-        <v>3.106345382726915</v>
+        <v>4.502850220005015</v>
       </c>
       <c r="K24">
-        <v>4.11413893888643</v>
+        <v>5.963712705324939</v>
       </c>
       <c r="L24">
-        <v>5.619946302724028</v>
+        <v>8.146478684035621</v>
       </c>
       <c r="M24">
-        <v>3.536366330441566</v>
+        <v>5.126193628561817</v>
       </c>
       <c r="N24">
-        <v>0.09249351819831704</v>
+        <v>0.13407538681443</v>
       </c>
       <c r="O24">
-        <v>0.3844085157727978</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="P24">
-        <v>38.82102249816691</v>
+        <v>56.27360391690802</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1624,49 +1624,49 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>1.614614740762125</v>
+        <v>2.340489367696054</v>
       </c>
       <c r="C25">
-        <v>10.82209836736095</v>
+        <v>15.68733737251366</v>
       </c>
       <c r="D25">
-        <v>0.00905539214944614</v>
+        <v>0.0131263814896754</v>
       </c>
       <c r="E25">
-        <v>0.8613290817421868</v>
+        <v>1.248552677621066</v>
       </c>
       <c r="F25">
-        <v>2.69106497815943</v>
+        <v>3.900874190079799</v>
       </c>
       <c r="G25">
-        <v>4.371879327222679</v>
+        <v>6.337324207374092</v>
       </c>
       <c r="H25">
-        <v>0.2026023745408449</v>
+        <v>0.2936853550952944</v>
       </c>
       <c r="I25">
-        <v>1.501610869014807</v>
+        <v>2.176682885780594</v>
       </c>
       <c r="J25">
-        <v>2.455492064441276</v>
+        <v>3.559395888194441</v>
       </c>
       <c r="K25">
-        <v>3.252128875500702</v>
+        <v>4.714172900399714</v>
       </c>
       <c r="L25">
-        <v>5.245283215875761</v>
+        <v>7.603380105099912</v>
       </c>
       <c r="M25">
-        <v>3.300608575078795</v>
+        <v>4.784447386657696</v>
       </c>
       <c r="N25">
-        <v>0.06474546273882192</v>
+        <v>0.09385277077010104</v>
       </c>
       <c r="O25">
-        <v>0.2690859610409584</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="P25">
-        <v>36.6615992856288</v>
+        <v>53.14337913838538</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1674,49 +1674,49 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>1.661111925521293</v>
+        <v>2.407890069429561</v>
       </c>
       <c r="C26">
-        <v>11.13374986822087</v>
+        <v>16.139096548108</v>
       </c>
       <c r="D26">
-        <v>0.009734546560654599</v>
+        <v>0.01411086010140106</v>
       </c>
       <c r="E26">
-        <v>0.9259287628728509</v>
+        <v>1.342194128442646</v>
       </c>
       <c r="F26">
-        <v>2.387235061270461</v>
+        <v>3.460452910554662</v>
       </c>
       <c r="G26">
-        <v>3.878280048342699</v>
+        <v>5.621819861380242</v>
       </c>
       <c r="H26">
-        <v>0.1157727854519113</v>
+        <v>0.1678202029115967</v>
       </c>
       <c r="I26">
-        <v>0.8580633537227469</v>
+        <v>1.243818791874626</v>
       </c>
       <c r="J26">
-        <v>3.135929624467172</v>
+        <v>4.545734507814587</v>
       </c>
       <c r="K26">
-        <v>4.153321214494873</v>
+        <v>6.020509969185178</v>
       </c>
       <c r="L26">
-        <v>6.993710954501015</v>
+        <v>10.13784014013321</v>
       </c>
       <c r="M26">
-        <v>4.400811433438394</v>
+        <v>6.379263182210263</v>
       </c>
       <c r="N26">
-        <v>0.07399481455865362</v>
+        <v>0.107260309451544</v>
       </c>
       <c r="O26">
-        <v>0.3075268126182382</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="P26">
-        <v>40.03517120604183</v>
+        <v>58.03359165258412</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1724,49 +1724,49 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>1.743644428468816</v>
+        <v>2.527526315006537</v>
       </c>
       <c r="C27">
-        <v>11.68693128224725</v>
+        <v>16.94096908478797</v>
       </c>
       <c r="D27">
-        <v>0.007697083327029217</v>
+        <v>0.01115742426622409</v>
       </c>
       <c r="E27">
-        <v>0.7321297194808587</v>
+        <v>1.061269775977906</v>
       </c>
       <c r="F27">
-        <v>3.342129085778646</v>
+        <v>4.844634074776525</v>
       </c>
       <c r="G27">
-        <v>5.429592067679778</v>
+        <v>7.870547805932339</v>
       </c>
       <c r="H27">
-        <v>0.2315455709038227</v>
+        <v>0.3356404058231935</v>
       </c>
       <c r="I27">
-        <v>1.716126707445494</v>
+        <v>2.487637583749251</v>
       </c>
       <c r="J27">
-        <v>2.632997514882814</v>
+        <v>3.81670161505187</v>
       </c>
       <c r="K27">
-        <v>3.487222529151355</v>
+        <v>5.054956483561139</v>
       </c>
       <c r="L27">
-        <v>2.747529303553971</v>
+        <v>3.98272291219519</v>
       </c>
       <c r="M27">
-        <v>1.728890205993654</v>
+        <v>2.506139107296889</v>
       </c>
       <c r="N27">
-        <v>0.06474546273882192</v>
+        <v>0.09385277077010104</v>
       </c>
       <c r="O27">
-        <v>0.2690859610409584</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="P27">
-        <v>35.82026692269326</v>
+        <v>51.92381300880842</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1774,49 +1774,49 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>1.687847806757814</v>
+        <v>2.446645472926326</v>
       </c>
       <c r="C28">
-        <v>11.31294948121533</v>
+        <v>16.39885807407475</v>
       </c>
       <c r="D28">
-        <v>0.01177200979427998</v>
+        <v>0.01706429593657802</v>
       </c>
       <c r="E28">
-        <v>1.119727806264843</v>
+        <v>1.623118480907386</v>
       </c>
       <c r="F28">
-        <v>3.298724811937364</v>
+        <v>4.781716749130076</v>
       </c>
       <c r="G28">
-        <v>5.359077884982637</v>
+        <v>7.76833289936179</v>
       </c>
       <c r="H28">
-        <v>0.2122501066618375</v>
+        <v>0.307670372004594</v>
       </c>
       <c r="I28">
-        <v>1.573116148491702</v>
+        <v>2.280334451770146</v>
       </c>
       <c r="J28">
-        <v>2.485076306181532</v>
+        <v>3.602280176004014</v>
       </c>
       <c r="K28">
-        <v>3.291311151109145</v>
+        <v>4.770970164259952</v>
       </c>
       <c r="L28">
-        <v>5.619946302724028</v>
+        <v>8.146478684035621</v>
       </c>
       <c r="M28">
-        <v>3.536366330441566</v>
+        <v>5.126193628561817</v>
       </c>
       <c r="N28">
-        <v>0.1479896291173072</v>
+        <v>0.214520618903088</v>
       </c>
       <c r="O28">
-        <v>0.6150536252364763</v>
+        <v>0.891560341973223</v>
       </c>
       <c r="P28">
-        <v>40.27120940091586</v>
+        <v>58.37574440984935</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1824,49 +1824,49 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>1.8564001015098</v>
+        <v>2.690973016710295</v>
       </c>
       <c r="C29">
-        <v>12.44268617183257</v>
+        <v>18.03648508560424</v>
       </c>
       <c r="D29">
-        <v>0.01018731616812691</v>
+        <v>0.01476717917588483</v>
       </c>
       <c r="E29">
-        <v>0.9689952169599602</v>
+        <v>1.404621762323699</v>
       </c>
       <c r="F29">
-        <v>3.211916264254802</v>
+        <v>4.65588209783718</v>
       </c>
       <c r="G29">
-        <v>5.218049519588357</v>
+        <v>7.563903086220692</v>
       </c>
       <c r="H29">
-        <v>0.2797842315087858</v>
+        <v>0.405565490369692</v>
       </c>
       <c r="I29">
-        <v>2.073653104829972</v>
+        <v>3.005895413697013</v>
       </c>
       <c r="J29">
-        <v>2.470284185311404</v>
+        <v>3.580838032099227</v>
       </c>
       <c r="K29">
-        <v>3.271720013304924</v>
+        <v>4.742571532329834</v>
       </c>
       <c r="L29">
-        <v>3.371967781634417</v>
+        <v>4.88788721042137</v>
       </c>
       <c r="M29">
-        <v>2.121819798264938</v>
+        <v>3.07571617713709</v>
       </c>
       <c r="N29">
-        <v>0.2312337954957926</v>
+        <v>0.3351884670360751</v>
       </c>
       <c r="O29">
-        <v>0.9610212894319941</v>
+        <v>1.39306303433316</v>
       </c>
       <c r="P29">
-        <v>38.48971879009584</v>
+        <v>55.79335758529545</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1874,49 +1874,49 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>2.326021667577401</v>
+        <v>3.371720104218719</v>
       </c>
       <c r="C30">
-        <v>15.59036633051783</v>
+        <v>22.59925275910716</v>
       </c>
       <c r="D30">
-        <v>0.004980465682195376</v>
+        <v>0.007219509819321472</v>
       </c>
       <c r="E30">
-        <v>0.4737309949582028</v>
+        <v>0.686703972691586</v>
       </c>
       <c r="F30">
-        <v>2.040000870540212</v>
+        <v>2.957114305383074</v>
       </c>
       <c r="G30">
-        <v>3.314166586765579</v>
+        <v>4.804100608815844</v>
       </c>
       <c r="H30">
-        <v>0.4630911418076454</v>
+        <v>0.671280811646387</v>
       </c>
       <c r="I30">
-        <v>3.432253414890988</v>
+        <v>4.975275167498503</v>
       </c>
       <c r="J30">
-        <v>2.144857526168584</v>
+        <v>3.10911086619394</v>
       </c>
       <c r="K30">
-        <v>2.840714981612059</v>
+        <v>4.11780162986722</v>
       </c>
       <c r="L30">
-        <v>2.622641607937881</v>
+        <v>3.801690052549956</v>
       </c>
       <c r="M30">
-        <v>1.650304287539398</v>
+        <v>2.392223693328848</v>
       </c>
       <c r="N30">
-        <v>0.1202415736578121</v>
+        <v>0.174298002858759</v>
       </c>
       <c r="O30">
-        <v>0.4997310705046371</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="P30">
-        <v>37.52310252016042</v>
+        <v>54.39218426183256</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1924,49 +1924,49 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>2.420178466714715</v>
+        <v>3.508206525229073</v>
       </c>
       <c r="C31">
-        <v>16.22146061975917</v>
+        <v>23.51406508968569</v>
       </c>
       <c r="D31">
-        <v>0.006565159308348452</v>
+        <v>0.009516626580014667</v>
       </c>
       <c r="E31">
-        <v>0.6244635842630855</v>
+        <v>0.9052006912752727</v>
       </c>
       <c r="F31">
-        <v>2.560852156635587</v>
+        <v>3.712122213140454</v>
       </c>
       <c r="G31">
-        <v>4.160336779131258</v>
+        <v>6.030679487662441</v>
       </c>
       <c r="H31">
-        <v>0.6753412484694828</v>
+        <v>0.9789511836509812</v>
       </c>
       <c r="I31">
-        <v>5.005369563382691</v>
+        <v>7.255609619268649</v>
       </c>
       <c r="J31">
-        <v>1.641925416584226</v>
+        <v>2.380077973431223</v>
       </c>
       <c r="K31">
-        <v>2.174616296268542</v>
+        <v>3.152248144243182</v>
       </c>
       <c r="L31">
-        <v>2.372866216705702</v>
+        <v>3.439624333259483</v>
       </c>
       <c r="M31">
-        <v>1.493132450630883</v>
+        <v>2.164392865392768</v>
       </c>
       <c r="N31">
-        <v>0.03699740727932681</v>
+        <v>0.05363015472577201</v>
       </c>
       <c r="O31">
-        <v>0.1537634063091191</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="P31">
-        <v>39.54786877144214</v>
+        <v>57.32721499303832</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1974,49 +1974,49 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>1.91452158245876</v>
+        <v>2.775223893877175</v>
       </c>
       <c r="C32">
-        <v>12.83225054790747</v>
+        <v>18.60118405509718</v>
       </c>
       <c r="D32">
-        <v>0.004754080878459224</v>
+        <v>0.006891350282079589</v>
       </c>
       <c r="E32">
-        <v>0.452197767914648</v>
+        <v>0.6554901557510594</v>
       </c>
       <c r="F32">
-        <v>2.170213692064056</v>
+        <v>3.145866282322419</v>
       </c>
       <c r="G32">
-        <v>3.525709134856998</v>
+        <v>5.110745328527495</v>
       </c>
       <c r="H32">
-        <v>0.453443409686653</v>
+        <v>0.6572957947370871</v>
       </c>
       <c r="I32">
-        <v>3.360748135414092</v>
+        <v>4.871623601508951</v>
       </c>
       <c r="J32">
-        <v>1.153785427869997</v>
+        <v>1.672487224573291</v>
       </c>
       <c r="K32">
-        <v>1.528108748729246</v>
+        <v>2.215093290549263</v>
       </c>
       <c r="L32">
-        <v>1.873315434241343</v>
+        <v>2.715492894678539</v>
       </c>
       <c r="M32">
-        <v>1.178788776813855</v>
+        <v>1.708731209520606</v>
       </c>
       <c r="N32">
-        <v>0.08324416637848531</v>
+        <v>0.120667848132987</v>
       </c>
       <c r="O32">
-        <v>0.345967664195518</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="P32">
-        <v>30.87704856940958</v>
+        <v>44.75829562191807</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2024,49 +2024,49 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>1.602990444572332</v>
+        <v>2.323639192262678</v>
       </c>
       <c r="C33">
-        <v>10.74418549214596</v>
+        <v>15.57439757861507</v>
       </c>
       <c r="D33">
-        <v>0.006791544112084601</v>
+        <v>0.009844786117256553</v>
       </c>
       <c r="E33">
-        <v>0.6459968113066401</v>
+        <v>0.9364145082157992</v>
       </c>
       <c r="F33">
-        <v>1.692766679809963</v>
+        <v>2.453775700211486</v>
       </c>
       <c r="G33">
-        <v>2.750053125188458</v>
+        <v>3.986381356251445</v>
       </c>
       <c r="H33">
-        <v>0.6174548557435272</v>
+        <v>0.8950410821951829</v>
       </c>
       <c r="I33">
-        <v>4.576337886521317</v>
+        <v>6.633700223331335</v>
       </c>
       <c r="J33">
-        <v>0.7396060435064085</v>
+        <v>1.07210719523929</v>
       </c>
       <c r="K33">
-        <v>0.979556890211055</v>
+        <v>1.419931596505938</v>
       </c>
       <c r="L33">
-        <v>1.998203129857433</v>
+        <v>2.896525754323775</v>
       </c>
       <c r="M33">
-        <v>1.257374695268112</v>
+        <v>1.822646623488646</v>
       </c>
       <c r="N33">
-        <v>0.009249351819831702</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O33">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P33">
-        <v>27.65900780164041</v>
+        <v>40.09353565681267</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2074,49 +2074,49 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>1.317032758303446</v>
+        <v>1.909124876601603</v>
       </c>
       <c r="C34">
-        <v>8.827528761857419</v>
+        <v>12.79607864870985</v>
       </c>
       <c r="D34">
-        <v>0.00452769607472307</v>
+        <v>0.006563190744837701</v>
       </c>
       <c r="E34">
-        <v>0.4306645408710934</v>
+        <v>0.6242763388105328</v>
       </c>
       <c r="F34">
-        <v>1.12851111987331</v>
+        <v>1.635850466807658</v>
       </c>
       <c r="G34">
-        <v>1.833368750125639</v>
+        <v>2.657587570834296</v>
       </c>
       <c r="H34">
-        <v>0.299079695750771</v>
+        <v>0.4335355241882916</v>
       </c>
       <c r="I34">
-        <v>2.216663663783763</v>
+        <v>3.213198545676115</v>
       </c>
       <c r="J34">
-        <v>0.4733478678441013</v>
+        <v>0.6861486049531452</v>
       </c>
       <c r="K34">
-        <v>0.6269164097350752</v>
+        <v>0.9087562217638004</v>
       </c>
       <c r="L34">
-        <v>0.9991015649287165</v>
+        <v>1.448262877161888</v>
       </c>
       <c r="M34">
-        <v>0.6286873476340559</v>
+        <v>0.9113233117443232</v>
       </c>
       <c r="N34">
-        <v>0.03699740727932681</v>
+        <v>0.05363015472577201</v>
       </c>
       <c r="O34">
-        <v>0.1537634063091191</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="P34">
-        <v>18.97619099037055</v>
+        <v>27.50722641821541</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2124,49 +2124,49 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.9311061248023484</v>
+        <v>1.34969905221349</v>
       </c>
       <c r="C35">
-        <v>6.240821304720029</v>
+        <v>9.046477491276772</v>
       </c>
       <c r="D35">
-        <v>0.004301311270986916</v>
+        <v>0.006235031207595817</v>
       </c>
       <c r="E35">
-        <v>0.4091313138275387</v>
+        <v>0.5930625218700062</v>
       </c>
       <c r="F35">
-        <v>1.085106846032028</v>
+        <v>1.57293314116121</v>
       </c>
       <c r="G35">
-        <v>1.762854567428499</v>
+        <v>2.555372664263747</v>
       </c>
       <c r="H35">
-        <v>0.1640114460568745</v>
+        <v>0.2377452874580954</v>
       </c>
       <c r="I35">
-        <v>1.215589751107225</v>
+        <v>1.762076621822386</v>
       </c>
       <c r="J35">
-        <v>0.355010900883076</v>
+        <v>0.5146114537148591</v>
       </c>
       <c r="K35">
-        <v>0.4701873073013064</v>
+        <v>0.6815671663228503</v>
       </c>
       <c r="L35">
-        <v>1.623540043009164</v>
+        <v>2.353427175388068</v>
       </c>
       <c r="M35">
-        <v>1.021616939905341</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="N35">
-        <v>0.009249351819831702</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O35">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P35">
-        <v>15.33096805974153</v>
+        <v>22.22323804833838</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2174,49 +2174,49 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.5858645279655221</v>
+        <v>0.8492488418421962</v>
       </c>
       <c r="C36">
-        <v>3.926808910835074</v>
+        <v>5.69216561248876</v>
       </c>
       <c r="D36">
-        <v>0.007923468130765372</v>
+        <v>0.01148558380346598</v>
       </c>
       <c r="E36">
-        <v>0.7536629465244136</v>
+        <v>1.092483592918432</v>
       </c>
       <c r="F36">
-        <v>0.4340427384128113</v>
+        <v>0.6291732564644835</v>
       </c>
       <c r="G36">
-        <v>0.7051418269713997</v>
+        <v>1.022149065705499</v>
       </c>
       <c r="H36">
-        <v>0.08682958908893353</v>
+        <v>0.1258651521836976</v>
       </c>
       <c r="I36">
-        <v>0.6435475152920604</v>
+        <v>0.9328640939059692</v>
       </c>
       <c r="J36">
-        <v>0.2958424174025633</v>
+        <v>0.4288428780957158</v>
       </c>
       <c r="K36">
-        <v>0.391822756084422</v>
+        <v>0.5679726386023753</v>
       </c>
       <c r="L36">
-        <v>1.123989260544805</v>
+        <v>1.629295736807123</v>
       </c>
       <c r="M36">
-        <v>0.7072732660883131</v>
+        <v>1.025238725712364</v>
       </c>
       <c r="N36">
-        <v>0.009249351819831702</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O36">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P36">
-        <v>9.710439426738196</v>
+        <v>14.07591523858485</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2224,49 +2224,49 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.4452105440690377</v>
+        <v>0.6453617190983354</v>
       </c>
       <c r="C37">
-        <v>2.984063120733798</v>
+        <v>4.325594106315863</v>
       </c>
       <c r="D37">
-        <v>0.009508161756918447</v>
+        <v>0.01378270056415918</v>
       </c>
       <c r="E37">
-        <v>0.904395535829296</v>
+        <v>1.310980311502119</v>
       </c>
       <c r="F37">
-        <v>0.4340427384128113</v>
+        <v>0.6291732564644835</v>
       </c>
       <c r="G37">
-        <v>0.7051418269713997</v>
+        <v>1.022149065705499</v>
       </c>
       <c r="H37">
-        <v>0.03859092848397045</v>
+        <v>0.05594006763719893</v>
       </c>
       <c r="I37">
-        <v>0.2860211179075823</v>
+        <v>0.4146062639582084</v>
       </c>
       <c r="J37">
-        <v>0.2514660547921788</v>
+        <v>0.3645164463813585</v>
       </c>
       <c r="K37">
-        <v>0.3330493426717587</v>
+        <v>0.482776742812019</v>
       </c>
       <c r="L37">
-        <v>1.248876956160895</v>
+        <v>1.810328596452359</v>
       </c>
       <c r="M37">
-        <v>0.7858591845425702</v>
+        <v>1.139154139680404</v>
       </c>
       <c r="N37">
-        <v>0.03699740727932681</v>
+        <v>0.05363015472577201</v>
       </c>
       <c r="O37">
-        <v>0.1537634063091191</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="P37">
-        <v>8.616986325920664</v>
+        <v>12.49088365679109</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2274,49 +2274,49 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.2499223680805304</v>
+        <v>0.3622787718176038</v>
       </c>
       <c r="C38">
-        <v>1.675126817122105</v>
+        <v>2.428205568819608</v>
       </c>
       <c r="D38">
-        <v>0.006565159308348452</v>
+        <v>0.009516626580014667</v>
       </c>
       <c r="E38">
-        <v>0.6244635842630855</v>
+        <v>0.9052006912752727</v>
       </c>
       <c r="F38">
-        <v>0.3472341907302489</v>
+        <v>0.5033386051715869</v>
       </c>
       <c r="G38">
-        <v>0.5641134615771197</v>
+        <v>0.8177192525643989</v>
       </c>
       <c r="H38">
-        <v>0.01929546424198523</v>
+        <v>0.02797003381859946</v>
       </c>
       <c r="I38">
-        <v>0.1430105589537912</v>
+        <v>0.2073031319791042</v>
       </c>
       <c r="J38">
-        <v>0.2958424174025633</v>
+        <v>0.4288428780957158</v>
       </c>
       <c r="K38">
-        <v>0.391822756084422</v>
+        <v>0.5679726386023753</v>
       </c>
       <c r="L38">
-        <v>1.248876956160895</v>
+        <v>1.810328596452359</v>
       </c>
       <c r="M38">
-        <v>0.7858591845425702</v>
+        <v>1.139154139680404</v>
       </c>
       <c r="N38">
-        <v>0.0184987036396634</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O38">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P38">
-        <v>6.447513325261887</v>
+        <v>9.34609105496658</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2324,49 +2324,49 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.1673898651330063</v>
+        <v>0.2426425262406276</v>
       </c>
       <c r="C39">
-        <v>1.121945403095735</v>
+        <v>1.626333032139645</v>
       </c>
       <c r="D39">
-        <v>0.004754080878459224</v>
+        <v>0.006891350282079589</v>
       </c>
       <c r="E39">
-        <v>0.452197767914648</v>
+        <v>0.6554901557510594</v>
       </c>
       <c r="F39">
-        <v>0.5208512860953733</v>
+        <v>0.7550079077573807</v>
       </c>
       <c r="G39">
-        <v>0.8461701923656797</v>
+        <v>1.226578878846598</v>
       </c>
       <c r="H39">
-        <v>0.009647732120992613</v>
+        <v>0.01398501690929973</v>
       </c>
       <c r="I39">
-        <v>0.07150527947689558</v>
+        <v>0.1036515659895521</v>
       </c>
       <c r="J39">
-        <v>0.2810502965324352</v>
+        <v>0.4074007341909299</v>
       </c>
       <c r="K39">
-        <v>0.3722316182802009</v>
+        <v>0.5395740066722564</v>
       </c>
       <c r="L39">
-        <v>1.248876956160895</v>
+        <v>1.810328596452359</v>
       </c>
       <c r="M39">
-        <v>0.7858591845425702</v>
+        <v>1.139154139680404</v>
       </c>
       <c r="N39">
-        <v>0.009249351819831702</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O39">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P39">
-        <v>5.930169865994002</v>
+        <v>8.596167970966961</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2374,49 +2374,49 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.1685522947519855</v>
+        <v>0.2443275437839651</v>
       </c>
       <c r="C40">
-        <v>1.129736690617234</v>
+        <v>1.637627011529503</v>
       </c>
       <c r="D40">
-        <v>0.002490232841097688</v>
+        <v>0.003609754909660736</v>
       </c>
       <c r="E40">
-        <v>0.2368654974791014</v>
+        <v>0.343351986345793</v>
       </c>
       <c r="F40">
-        <v>0.4774470122540923</v>
+        <v>0.6920905821109322</v>
       </c>
       <c r="G40">
-        <v>0.7756560096685398</v>
+        <v>1.124363972276049</v>
       </c>
       <c r="H40">
-        <v>0.02894319636297784</v>
+        <v>0.04195505072789919</v>
       </c>
       <c r="I40">
-        <v>0.2145158384306867</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="J40">
-        <v>0.3106345382726915</v>
+        <v>0.4502850220005017</v>
       </c>
       <c r="K40">
-        <v>0.4114138938886431</v>
+        <v>0.5963712705324939</v>
       </c>
       <c r="L40">
-        <v>1.623540043009164</v>
+        <v>2.353427175388068</v>
       </c>
       <c r="M40">
-        <v>1.021616939905341</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="N40">
-        <v>0.0184987036396634</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O40">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P40">
-        <v>6.496792594275777</v>
+        <v>9.417524569267584</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2424,49 +2424,49 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.3150184267433661</v>
+        <v>0.4566397542445141</v>
       </c>
       <c r="C41">
-        <v>2.111438918326002</v>
+        <v>3.060668414651694</v>
       </c>
       <c r="D41">
-        <v>0.002490232841097688</v>
+        <v>0.003609754909660736</v>
       </c>
       <c r="E41">
-        <v>0.2368654974791014</v>
+        <v>0.343351986345793</v>
       </c>
       <c r="F41">
-        <v>0.6076598337779356</v>
+        <v>0.8808425590502772</v>
       </c>
       <c r="G41">
-        <v>0.9871985577599595</v>
+        <v>1.431008691987699</v>
       </c>
       <c r="H41">
-        <v>0.04823866060496306</v>
+        <v>0.06992508454649866</v>
       </c>
       <c r="I41">
-        <v>0.3575263973844779</v>
+        <v>0.5182578299477607</v>
       </c>
       <c r="J41">
-        <v>0.7543981643765364</v>
+        <v>1.093549339144076</v>
       </c>
       <c r="K41">
-        <v>0.9991480280152759</v>
+        <v>1.448330228436057</v>
       </c>
       <c r="L41">
-        <v>2.49775391232179</v>
+        <v>3.620657192904718</v>
       </c>
       <c r="M41">
-        <v>1.57171836908514</v>
+        <v>2.278308279360808</v>
       </c>
       <c r="N41">
-        <v>0.009249351819831702</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O41">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P41">
-        <v>10.53714520211276</v>
+        <v>15.27427917558432</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2474,49 +2474,49 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.8183504517613641</v>
+        <v>1.186252350509734</v>
       </c>
       <c r="C42">
-        <v>5.485066415134703</v>
+        <v>7.950961490460482</v>
       </c>
       <c r="D42">
-        <v>0.002490232841097688</v>
+        <v>0.003609754909660736</v>
       </c>
       <c r="E42">
-        <v>0.2368654974791014</v>
+        <v>0.343351986345793</v>
       </c>
       <c r="F42">
-        <v>1.12851111987331</v>
+        <v>1.635850466807658</v>
       </c>
       <c r="G42">
-        <v>1.833368750125639</v>
+        <v>2.657587570834296</v>
       </c>
       <c r="H42">
-        <v>0.4052047490816898</v>
+        <v>0.5873707101905887</v>
       </c>
       <c r="I42">
-        <v>3.003221738029615</v>
+        <v>4.353365771561188</v>
       </c>
       <c r="J42">
-        <v>1.494004207882945</v>
+        <v>2.165656534383364</v>
       </c>
       <c r="K42">
-        <v>1.978704918226331</v>
+        <v>2.868261824941994</v>
       </c>
       <c r="L42">
-        <v>4.620844737795315</v>
+        <v>6.698215806873732</v>
       </c>
       <c r="M42">
-        <v>2.90767898280751</v>
+        <v>4.214870316817495</v>
       </c>
       <c r="N42">
-        <v>0.07399481455865362</v>
+        <v>0.107260309451544</v>
       </c>
       <c r="O42">
-        <v>0.3075268126182382</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="P42">
-        <v>24.29583342821552</v>
+        <v>35.21839506507413</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2524,49 +2524,49 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>1.218226240690212</v>
+        <v>1.7658983854179</v>
       </c>
       <c r="C43">
-        <v>8.165269322530078</v>
+        <v>11.83609040057185</v>
       </c>
       <c r="D43">
-        <v>0.001131924018680768</v>
+        <v>0.001640797686209425</v>
       </c>
       <c r="E43">
-        <v>0.1076661352177734</v>
+        <v>0.1560690847026332</v>
       </c>
       <c r="F43">
-        <v>1.605958132127401</v>
+        <v>2.32794104891859</v>
       </c>
       <c r="G43">
-        <v>2.609024759794178</v>
+        <v>3.781951543110346</v>
       </c>
       <c r="H43">
-        <v>0.7911140339213945</v>
+        <v>1.146771386562578</v>
       </c>
       <c r="I43">
-        <v>5.863432917105436</v>
+        <v>8.499428411143276</v>
       </c>
       <c r="J43">
-        <v>1.819430867025764</v>
+        <v>2.637383700288652</v>
       </c>
       <c r="K43">
-        <v>2.409709949919195</v>
+        <v>3.493031727404607</v>
       </c>
       <c r="L43">
-        <v>9.241689475590631</v>
+        <v>13.39643161374746</v>
       </c>
       <c r="M43">
-        <v>5.81535796561502</v>
+        <v>8.42974063363499</v>
       </c>
       <c r="N43">
-        <v>0.08324416637848531</v>
+        <v>0.120667848132987</v>
       </c>
       <c r="O43">
-        <v>0.345967664195518</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="P43">
-        <v>40.07722355412977</v>
+        <v>58.09454927368202</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2574,49 +2574,49 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>1.950556900647115</v>
+        <v>2.827459437720646</v>
       </c>
       <c r="C44">
-        <v>13.07378046107392</v>
+        <v>18.95129741618281</v>
       </c>
       <c r="D44">
-        <v>0.003848541663514609</v>
+        <v>0.005578712133112046</v>
       </c>
       <c r="E44">
-        <v>0.3660648597404293</v>
+        <v>0.5306348879889531</v>
       </c>
       <c r="F44">
-        <v>2.040000870540212</v>
+        <v>2.957114305383074</v>
       </c>
       <c r="G44">
-        <v>3.314166586765579</v>
+        <v>4.804100608815844</v>
       </c>
       <c r="H44">
-        <v>0.8875913551313205</v>
+        <v>1.286621555655575</v>
       </c>
       <c r="I44">
-        <v>6.578485711874396</v>
+        <v>9.535944071038795</v>
       </c>
       <c r="J44">
-        <v>2.159649647038713</v>
+        <v>3.130553010098725</v>
       </c>
       <c r="K44">
-        <v>2.860306119416281</v>
+        <v>4.146200261797339</v>
       </c>
       <c r="L44">
-        <v>6.743935563268835</v>
+        <v>9.77577442084274</v>
       </c>
       <c r="M44">
-        <v>4.243639596529877</v>
+        <v>6.15143235427418</v>
       </c>
       <c r="N44">
-        <v>0.1664883327569706</v>
+        <v>0.241335696265974</v>
       </c>
       <c r="O44">
-        <v>0.691935328391036</v>
+        <v>1.003005384719876</v>
       </c>
       <c r="P44">
-        <v>45.08044987483819</v>
+        <v>65.34705212291765</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2624,49 +2624,49 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>1.979617641121596</v>
+        <v>2.869584876304089</v>
       </c>
       <c r="C45">
-        <v>13.26856264911137</v>
+        <v>19.23364690092927</v>
       </c>
       <c r="D45">
-        <v>0.007923468130765372</v>
+        <v>0.01148558380346598</v>
       </c>
       <c r="E45">
-        <v>0.7536629465244136</v>
+        <v>1.092483592918432</v>
       </c>
       <c r="F45">
-        <v>2.474043608953024</v>
+        <v>3.586287561847559</v>
       </c>
       <c r="G45">
-        <v>4.019308413736978</v>
+        <v>5.826249674521343</v>
       </c>
       <c r="H45">
-        <v>0.4630911418076454</v>
+        <v>0.671280811646387</v>
       </c>
       <c r="I45">
-        <v>3.432253414890988</v>
+        <v>4.975275167498503</v>
       </c>
       <c r="J45">
-        <v>2.470284185311404</v>
+        <v>3.580838032099227</v>
       </c>
       <c r="K45">
-        <v>3.271720013304924</v>
+        <v>4.742571532329834</v>
       </c>
       <c r="L45">
-        <v>7.618149432581461</v>
+        <v>11.04300443835939</v>
       </c>
       <c r="M45">
-        <v>4.793741025709677</v>
+        <v>6.948840252050465</v>
       </c>
       <c r="N45">
-        <v>0.07399481455865362</v>
+        <v>0.107260309451544</v>
       </c>
       <c r="O45">
-        <v>0.3075268126182382</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="P45">
-        <v>44.93387956836114</v>
+        <v>65.13458890474612</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2674,49 +2674,49 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>1.699472102947606</v>
+        <v>2.463495648359703</v>
       </c>
       <c r="C46">
-        <v>11.39086235643031</v>
+        <v>16.51179786797334</v>
       </c>
       <c r="D46">
-        <v>0.01222477940175228</v>
+        <v>0.01772061501106179</v>
       </c>
       <c r="E46">
-        <v>1.162794260351952</v>
+        <v>1.685546114788439</v>
       </c>
       <c r="F46">
-        <v>3.819576098032738</v>
+        <v>5.536724656887458</v>
       </c>
       <c r="G46">
-        <v>6.205248077348318</v>
+        <v>8.994911778208388</v>
       </c>
       <c r="H46">
-        <v>0.424500213323675</v>
+        <v>0.615340744009188</v>
       </c>
       <c r="I46">
-        <v>3.146232296983404</v>
+        <v>4.560668903540293</v>
       </c>
       <c r="J46">
-        <v>2.706958119233455</v>
+        <v>3.9239123345758</v>
       </c>
       <c r="K46">
-        <v>3.585178218172461</v>
+        <v>5.196949643211733</v>
       </c>
       <c r="L46">
-        <v>8.117700215045822</v>
+        <v>11.76713587694034</v>
       </c>
       <c r="M46">
-        <v>5.108084699526706</v>
+        <v>7.404501907922626</v>
       </c>
       <c r="N46">
-        <v>0.07399481455865362</v>
+        <v>0.107260309451544</v>
       </c>
       <c r="O46">
-        <v>0.3075268126182382</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="P46">
-        <v>47.7603530639751</v>
+        <v>69.23174657186651</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2724,49 +2724,49 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>1.264723425449382</v>
+        <v>1.833299087151407</v>
       </c>
       <c r="C47">
-        <v>8.47692082339</v>
+        <v>12.2878495761662</v>
       </c>
       <c r="D47">
-        <v>0.00928177695318229</v>
+        <v>0.01345454102691729</v>
       </c>
       <c r="E47">
-        <v>0.8828623087857418</v>
+        <v>1.279766494561593</v>
       </c>
       <c r="F47">
-        <v>2.213617965905338</v>
+        <v>3.208783607968868</v>
       </c>
       <c r="G47">
-        <v>3.596223317554138</v>
+        <v>5.212960235098041</v>
       </c>
       <c r="H47">
-        <v>0.1833069102988596</v>
+        <v>0.2657153212766948</v>
       </c>
       <c r="I47">
-        <v>1.358600310061016</v>
+        <v>1.96937975380149</v>
       </c>
       <c r="J47">
-        <v>2.396323580960763</v>
+        <v>3.473627312575298</v>
       </c>
       <c r="K47">
-        <v>3.173764324283818</v>
+        <v>4.60057837267924</v>
       </c>
       <c r="L47">
-        <v>5.495058607107941</v>
+        <v>7.965445824390381</v>
       </c>
       <c r="M47">
-        <v>3.457780411987307</v>
+        <v>5.012278214593779</v>
       </c>
       <c r="N47">
-        <v>0.04624675909915852</v>
+        <v>0.06703769340721499</v>
       </c>
       <c r="O47">
-        <v>0.1922042578863989</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="P47">
-        <v>32.74691477972305</v>
+        <v>47.46878864156375</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2774,49 +2774,49 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>1.327494624874259</v>
+        <v>1.924290034491642</v>
       </c>
       <c r="C48">
-        <v>8.897650349550904</v>
+        <v>12.89772446321857</v>
       </c>
       <c r="D48">
-        <v>0.00928177695318229</v>
+        <v>0.01345454102691729</v>
       </c>
       <c r="E48">
-        <v>0.8828623087857418</v>
+        <v>1.279766494561593</v>
       </c>
       <c r="F48">
-        <v>1.953192322857651</v>
+        <v>2.831279654090177</v>
       </c>
       <c r="G48">
-        <v>3.173138221371298</v>
+        <v>4.599670795674744</v>
       </c>
       <c r="H48">
-        <v>0.1833069102988596</v>
+        <v>0.2657153212766948</v>
       </c>
       <c r="I48">
-        <v>1.358600310061016</v>
+        <v>1.96937975380149</v>
       </c>
       <c r="J48">
-        <v>2.248402372259482</v>
+        <v>3.259205873527439</v>
       </c>
       <c r="K48">
-        <v>2.977852946241607</v>
+        <v>4.316592053378051</v>
       </c>
       <c r="L48">
-        <v>4.870620129027492</v>
+        <v>7.0602815261642</v>
       </c>
       <c r="M48">
-        <v>3.064850819716023</v>
+        <v>4.442701144753576</v>
       </c>
       <c r="N48">
-        <v>0.09249351819831704</v>
+        <v>0.13407538681443</v>
       </c>
       <c r="O48">
-        <v>0.3844085157727978</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="P48">
-        <v>31.42415512596863</v>
+        <v>45.55136225651279</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2824,49 +2824,49 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>1.33911892106405</v>
+        <v>1.941140209925021</v>
       </c>
       <c r="C49">
-        <v>8.975563224765882</v>
+        <v>13.01066425711716</v>
       </c>
       <c r="D49">
-        <v>0.007244313719556911</v>
+        <v>0.01050110519174033</v>
       </c>
       <c r="E49">
-        <v>0.6890632653937495</v>
+        <v>0.9988421420968526</v>
       </c>
       <c r="F49">
-        <v>2.083405144381493</v>
+        <v>3.020031631029523</v>
       </c>
       <c r="G49">
-        <v>3.384680769462719</v>
+        <v>4.906315515386393</v>
       </c>
       <c r="H49">
-        <v>0.1736591781778671</v>
+        <v>0.2517303043673952</v>
       </c>
       <c r="I49">
-        <v>1.287095030584121</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="J49">
-        <v>1.77505450441538</v>
+        <v>2.573057268574295</v>
       </c>
       <c r="K49">
-        <v>2.350936536506532</v>
+        <v>3.407835831614251</v>
       </c>
       <c r="L49">
-        <v>4.495957042179222</v>
+        <v>6.517182947228493</v>
       </c>
       <c r="M49">
-        <v>2.829093064353252</v>
+        <v>4.100954902849455</v>
       </c>
       <c r="N49">
-        <v>0.06474546273882192</v>
+        <v>0.09385277077010104</v>
       </c>
       <c r="O49">
-        <v>0.2690859610409584</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="P49">
-        <v>29.7247024187836</v>
+        <v>43.08789472357589</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_PM25.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>2.515731192203172</v>
+        <v>1.709852094040908</v>
       </c>
       <c r="C2">
-        <v>16.86191122905895</v>
+        <v>11.46043516648098</v>
       </c>
       <c r="D2">
-        <v>0.01575165778761049</v>
+        <v>0.01070583579685824</v>
       </c>
       <c r="E2">
-        <v>1.498263213145279</v>
+        <v>1.018315669162328</v>
       </c>
       <c r="F2">
-        <v>4.026708841372695</v>
+        <v>2.736809308503457</v>
       </c>
       <c r="G2">
-        <v>6.541754020515191</v>
+        <v>4.446195144117404</v>
       </c>
       <c r="H2">
-        <v>0.2517303043673952</v>
+        <v>0.1710920425004551</v>
       </c>
       <c r="I2">
-        <v>1.865728187811938</v>
+        <v>1.268068408392877</v>
       </c>
       <c r="J2">
-        <v>4.309870924861944</v>
+        <v>2.929264401840781</v>
       </c>
       <c r="K2">
-        <v>5.708125017953871</v>
+        <v>3.879607465711899</v>
       </c>
       <c r="L2">
-        <v>6.15511722793802</v>
+        <v>4.183412009150436</v>
       </c>
       <c r="M2">
-        <v>3.873124074913375</v>
+        <v>2.632423261473816</v>
       </c>
       <c r="N2">
-        <v>0.174298002858759</v>
+        <v>0.1184640895254793</v>
       </c>
       <c r="O2">
-        <v>0.7243927778532436</v>
+        <v>0.4923437416363077</v>
       </c>
       <c r="P2">
-        <v>54.52250667264146</v>
+        <v>37.05698863833398</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>2.598297051826719</v>
+        <v>1.765969142003404</v>
       </c>
       <c r="C3">
-        <v>17.41531621916204</v>
+        <v>11.83656465285578</v>
       </c>
       <c r="D3">
-        <v>0.01739245547381991</v>
+        <v>0.01182102702569763</v>
       </c>
       <c r="E3">
-        <v>1.654332297847911</v>
+        <v>1.124390218033404</v>
       </c>
       <c r="F3">
-        <v>4.089626167019145</v>
+        <v>2.779571953948825</v>
       </c>
       <c r="G3">
-        <v>6.643968927085742</v>
+        <v>4.515666943244237</v>
       </c>
       <c r="H3">
-        <v>0.2517303043673952</v>
+        <v>0.1710920425004551</v>
       </c>
       <c r="I3">
-        <v>1.865728187811938</v>
+        <v>1.268068408392877</v>
       </c>
       <c r="J3">
-        <v>4.159775917528444</v>
+        <v>2.827250218692097</v>
       </c>
       <c r="K3">
-        <v>5.509334594443041</v>
+        <v>3.744496757950788</v>
       </c>
       <c r="L3">
-        <v>4.88788721042137</v>
+        <v>3.32212130138417</v>
       </c>
       <c r="M3">
-        <v>3.07571617713709</v>
+        <v>2.090453766464501</v>
       </c>
       <c r="N3">
-        <v>0.160890464177316</v>
+        <v>0.1093514672542886</v>
       </c>
       <c r="O3">
-        <v>0.6686702564799173</v>
+        <v>0.4544711461258225</v>
       </c>
       <c r="P3">
-        <v>52.99866623078189</v>
+        <v>36.02128904587635</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>2.631997402693475</v>
+        <v>1.788874059539115</v>
       </c>
       <c r="C4">
-        <v>17.64119580695921</v>
+        <v>11.99008689219243</v>
       </c>
       <c r="D4">
-        <v>0.01607981732485237</v>
+        <v>0.01092887404262612</v>
       </c>
       <c r="E4">
-        <v>1.529477030085806</v>
+        <v>1.039530578936543</v>
       </c>
       <c r="F4">
-        <v>4.152543492665592</v>
+        <v>2.822334599394192</v>
       </c>
       <c r="G4">
-        <v>6.746183833656289</v>
+        <v>4.585138742371072</v>
       </c>
       <c r="H4">
-        <v>0.2377452874580954</v>
+        <v>0.1615869290282076</v>
       </c>
       <c r="I4">
-        <v>1.762076621822386</v>
+        <v>1.197620163482161</v>
       </c>
       <c r="J4">
-        <v>3.881028046766228</v>
+        <v>2.637795307130256</v>
       </c>
       <c r="K4">
-        <v>5.140152379351496</v>
+        <v>3.493576872108725</v>
       </c>
       <c r="L4">
-        <v>4.88788721042137</v>
+        <v>3.32212130138417</v>
       </c>
       <c r="M4">
-        <v>3.07571617713709</v>
+        <v>2.090453766464501</v>
       </c>
       <c r="N4">
-        <v>0.147482925495873</v>
+        <v>0.1002388449830978</v>
       </c>
       <c r="O4">
-        <v>0.6129477351065907</v>
+        <v>0.4165985506153373</v>
       </c>
       <c r="P4">
-        <v>52.46251376694435</v>
+        <v>35.65688548167243</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>2.845994630697362</v>
+        <v>1.934320285890886</v>
       </c>
       <c r="C5">
-        <v>19.07553118947126</v>
+        <v>12.96495311198016</v>
       </c>
       <c r="D5">
-        <v>0.01345454102691729</v>
+        <v>0.009144568076483076</v>
       </c>
       <c r="E5">
-        <v>1.279766494561593</v>
+        <v>0.869811300742822</v>
       </c>
       <c r="F5">
-        <v>4.341295469604938</v>
+        <v>2.95062253573029</v>
       </c>
       <c r="G5">
-        <v>7.052828553367942</v>
+        <v>4.793554139751574</v>
       </c>
       <c r="H5">
-        <v>0.405565490369692</v>
+        <v>0.2756482906951777</v>
       </c>
       <c r="I5">
-        <v>3.005895413697013</v>
+        <v>2.042999102410746</v>
       </c>
       <c r="J5">
-        <v>3.81670161505187</v>
+        <v>2.594074942923676</v>
       </c>
       <c r="K5">
-        <v>5.054956483561139</v>
+        <v>3.435672283068249</v>
       </c>
       <c r="L5">
-        <v>4.706854350776135</v>
+        <v>3.199079771703275</v>
       </c>
       <c r="M5">
-        <v>2.961800763169051</v>
+        <v>2.013029552891742</v>
       </c>
       <c r="N5">
-        <v>0.13407538681443</v>
+        <v>0.09112622271190718</v>
       </c>
       <c r="O5">
-        <v>0.5572252137332642</v>
+        <v>0.3787259551048521</v>
       </c>
       <c r="P5">
-        <v>55.2519455959026</v>
+        <v>37.55276206368184</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>3.248713823555069</v>
+        <v>2.208034050442647</v>
       </c>
       <c r="C6">
-        <v>21.77479226364747</v>
+        <v>14.79954387205313</v>
       </c>
       <c r="D6">
-        <v>0.01279822195243352</v>
+        <v>0.008698491584947317</v>
       </c>
       <c r="E6">
-        <v>1.217338860680539</v>
+        <v>0.8273814811943915</v>
       </c>
       <c r="F6">
-        <v>3.963791515726248</v>
+        <v>2.694046663058091</v>
       </c>
       <c r="G6">
-        <v>6.439539113944641</v>
+        <v>4.37672334499057</v>
       </c>
       <c r="H6">
-        <v>0.8950410821951829</v>
+        <v>0.6083272622238404</v>
       </c>
       <c r="I6">
-        <v>6.633700223331335</v>
+        <v>4.508687674285785</v>
       </c>
       <c r="J6">
-        <v>3.216321585717868</v>
+        <v>2.186018210328941</v>
       </c>
       <c r="K6">
-        <v>4.259794789517814</v>
+        <v>2.895229452023806</v>
       </c>
       <c r="L6">
-        <v>2.353427175388068</v>
+        <v>1.599539885851638</v>
       </c>
       <c r="M6">
-        <v>1.480900381584525</v>
+        <v>1.006514776445871</v>
       </c>
       <c r="N6">
-        <v>0.120667848132987</v>
+        <v>0.08201360044071641</v>
       </c>
       <c r="O6">
-        <v>0.5015026923599379</v>
+        <v>0.3408533595943669</v>
       </c>
       <c r="P6">
-        <v>56.11832957773412</v>
+        <v>38.14161212451874</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>3.46776610418897</v>
+        <v>2.356916014424776</v>
       </c>
       <c r="C7">
-        <v>23.24300958432908</v>
+        <v>15.79743842774136</v>
       </c>
       <c r="D7">
-        <v>0.004922393058628276</v>
+        <v>0.003345573686518199</v>
       </c>
       <c r="E7">
-        <v>0.4682072541078996</v>
+        <v>0.3182236466132276</v>
       </c>
       <c r="F7">
-        <v>2.705445002797281</v>
+        <v>1.838793754150761</v>
       </c>
       <c r="G7">
-        <v>4.395240982533642</v>
+        <v>2.98728736245388</v>
       </c>
       <c r="H7">
-        <v>0.9369961329230818</v>
+        <v>0.6368426026405831</v>
       </c>
       <c r="I7">
-        <v>6.944654921299993</v>
+        <v>4.72003240901793</v>
       </c>
       <c r="J7">
-        <v>2.079887958764222</v>
+        <v>1.413625109346049</v>
       </c>
       <c r="K7">
-        <v>2.75466729722152</v>
+        <v>1.872248378975394</v>
       </c>
       <c r="L7">
-        <v>2.353427175388068</v>
+        <v>1.599539885851638</v>
       </c>
       <c r="M7">
-        <v>1.480900381584525</v>
+        <v>1.006514776445871</v>
       </c>
       <c r="N7">
-        <v>0.13407538681443</v>
+        <v>0.09112622271190718</v>
       </c>
       <c r="O7">
-        <v>0.5572252137332642</v>
+        <v>0.3787259551048521</v>
       </c>
       <c r="P7">
-        <v>51.52642578874461</v>
+        <v>35.02066011916475</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>2.638737472866824</v>
+        <v>1.793455043046258</v>
       </c>
       <c r="C8">
-        <v>17.68637172451864</v>
+        <v>12.02079134005976</v>
       </c>
       <c r="D8">
-        <v>0.006235031207595817</v>
+        <v>0.004237726669589718</v>
       </c>
       <c r="E8">
-        <v>0.5930625218700062</v>
+        <v>0.4030832857100882</v>
       </c>
       <c r="F8">
-        <v>3.712122213140454</v>
+        <v>2.522996081276625</v>
       </c>
       <c r="G8">
-        <v>6.030679487662441</v>
+        <v>4.09883614848323</v>
       </c>
       <c r="H8">
-        <v>0.5594006763719893</v>
+        <v>0.3802045388899004</v>
       </c>
       <c r="I8">
-        <v>4.146062639582086</v>
+        <v>2.817929796428616</v>
       </c>
       <c r="J8">
-        <v>1.543834361144576</v>
+        <v>1.049288740957892</v>
       </c>
       <c r="K8">
-        <v>2.044701498968551</v>
+        <v>1.389710136971426</v>
       </c>
       <c r="L8">
-        <v>2.17239431574283</v>
+        <v>1.476498356170743</v>
       </c>
       <c r="M8">
-        <v>1.366984967616485</v>
+        <v>0.9290905628731118</v>
       </c>
       <c r="N8">
-        <v>0.02681507736288601</v>
+        <v>0.01822524454238142</v>
       </c>
       <c r="O8">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="P8">
-        <v>42.63884703080201</v>
+        <v>28.98009219310059</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>2.1012168765421</v>
+        <v>1.42812160835165</v>
       </c>
       <c r="C9">
-        <v>14.08359229915372</v>
+        <v>9.572111622640175</v>
       </c>
       <c r="D9">
-        <v>0.006563190744837701</v>
+        <v>0.004460764915357598</v>
       </c>
       <c r="E9">
-        <v>0.6242763388105328</v>
+        <v>0.4242981954843034</v>
       </c>
       <c r="F9">
-        <v>2.32794104891859</v>
+        <v>1.582217881478561</v>
       </c>
       <c r="G9">
-        <v>3.781951543110346</v>
+        <v>2.570456567692873</v>
       </c>
       <c r="H9">
-        <v>1.062861285106779</v>
+        <v>0.7223886238908106</v>
       </c>
       <c r="I9">
-        <v>7.877519015205961</v>
+        <v>5.354066613214371</v>
       </c>
       <c r="J9">
-        <v>0.7075907488579309</v>
+        <v>0.4809240062723671</v>
       </c>
       <c r="K9">
-        <v>0.937154853693919</v>
+        <v>0.6369504794452372</v>
       </c>
       <c r="L9">
-        <v>2.534460035033303</v>
+        <v>1.722581415532533</v>
       </c>
       <c r="M9">
-        <v>1.594815795552566</v>
+        <v>1.08393899001863</v>
       </c>
       <c r="N9">
-        <v>0.04022261604432901</v>
+        <v>0.02733786681357215</v>
       </c>
       <c r="O9">
-        <v>0.1671675641199793</v>
+        <v>0.1136177865314556</v>
       </c>
       <c r="P9">
-        <v>37.84733321089489</v>
+        <v>25.7234724222819</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>1.740623122267836</v>
+        <v>1.18303899071953</v>
       </c>
       <c r="C10">
-        <v>11.66668070972398</v>
+        <v>7.929423661738013</v>
       </c>
       <c r="D10">
-        <v>0.003281595372418851</v>
+        <v>0.002230382457678799</v>
       </c>
       <c r="E10">
-        <v>0.3121381694052664</v>
+        <v>0.2121490977421517</v>
       </c>
       <c r="F10">
-        <v>1.950437095039899</v>
+        <v>1.325642008806363</v>
       </c>
       <c r="G10">
-        <v>3.168662103687046</v>
+        <v>2.153625772931867</v>
       </c>
       <c r="H10">
-        <v>0.5314306425533896</v>
+        <v>0.3611943119454053</v>
       </c>
       <c r="I10">
-        <v>3.938759507602981</v>
+        <v>2.677033306607186</v>
       </c>
       <c r="J10">
-        <v>0.6647064610483596</v>
+        <v>0.4517770968013146</v>
       </c>
       <c r="K10">
-        <v>0.8803575898336815</v>
+        <v>0.5983474200849197</v>
       </c>
       <c r="L10">
-        <v>3.07755861396901</v>
+        <v>2.091706004575218</v>
       </c>
       <c r="M10">
-        <v>1.936562037456687</v>
+        <v>1.316211630736908</v>
       </c>
       <c r="N10">
-        <v>0.013407538681443</v>
+        <v>0.009112622271190711</v>
       </c>
       <c r="O10">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="P10">
-        <v>29.94032770801532</v>
+        <v>20.34936490292823</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>1.236802876809865</v>
+        <v>0.840610473560634</v>
       </c>
       <c r="C11">
-        <v>8.289780872156246</v>
+        <v>5.634266183655083</v>
       </c>
       <c r="D11">
-        <v>0.006563190744837701</v>
+        <v>0.004460764915357598</v>
       </c>
       <c r="E11">
-        <v>0.6242763388105328</v>
+        <v>0.4242981954843034</v>
       </c>
       <c r="F11">
-        <v>1.006677210343174</v>
+        <v>0.6842023271258644</v>
       </c>
       <c r="G11">
-        <v>1.635438505128798</v>
+        <v>1.111548786029351</v>
       </c>
       <c r="H11">
-        <v>0.2517303043673952</v>
+        <v>0.1710920425004551</v>
       </c>
       <c r="I11">
-        <v>1.865728187811938</v>
+        <v>1.268068408392877</v>
       </c>
       <c r="J11">
-        <v>0.729032892762717</v>
+        <v>0.4954974610078934</v>
       </c>
       <c r="K11">
-        <v>0.9655534856240381</v>
+        <v>0.6562520091253958</v>
       </c>
       <c r="L11">
-        <v>2.17239431574283</v>
+        <v>1.476498356170743</v>
       </c>
       <c r="M11">
-        <v>1.366984967616485</v>
+        <v>0.9290905628731118</v>
       </c>
       <c r="N11">
-        <v>0.05363015472577201</v>
+        <v>0.03645048908476285</v>
       </c>
       <c r="O11">
-        <v>0.2228900854933057</v>
+        <v>0.1514903820419408</v>
       </c>
       <c r="P11">
-        <v>20.42748338813794</v>
+        <v>13.88382644196777</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.7599429120452986</v>
+        <v>0.5165058904303081</v>
       </c>
       <c r="C12">
-        <v>5.093584704826249</v>
+        <v>3.461926497041476</v>
       </c>
       <c r="D12">
-        <v>0.006563190744837701</v>
+        <v>0.004460764915357598</v>
       </c>
       <c r="E12">
-        <v>0.6242763388105328</v>
+        <v>0.4242981954843034</v>
       </c>
       <c r="F12">
-        <v>0.5662559308180354</v>
+        <v>0.3848638090082988</v>
       </c>
       <c r="G12">
-        <v>0.9199341591349488</v>
+        <v>0.62524619214151</v>
       </c>
       <c r="H12">
-        <v>0.1258651521836976</v>
+        <v>0.08554602125022756</v>
       </c>
       <c r="I12">
-        <v>0.9328640939059692</v>
+        <v>0.6340342041964386</v>
       </c>
       <c r="J12">
-        <v>0.4074007341909299</v>
+        <v>0.2768956399749992</v>
       </c>
       <c r="K12">
-        <v>0.5395740066722564</v>
+        <v>0.3667290639230154</v>
       </c>
       <c r="L12">
-        <v>1.629295736807123</v>
+        <v>1.107373767128056</v>
       </c>
       <c r="M12">
-        <v>1.025238725712364</v>
+        <v>0.6968179221548337</v>
       </c>
       <c r="N12">
-        <v>0.02681507736288601</v>
+        <v>0.01822524454238142</v>
       </c>
       <c r="O12">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="P12">
-        <v>12.76905580596178</v>
+        <v>8.678668403212178</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,43 +1030,43 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.5392056138680609</v>
+        <v>0.3664786805713936</v>
       </c>
       <c r="C13">
-        <v>3.614073404754765</v>
+        <v>2.456355829386414</v>
       </c>
       <c r="D13">
-        <v>0.009844786117256553</v>
+        <v>0.006691147373036397</v>
       </c>
       <c r="E13">
-        <v>0.9364145082157992</v>
+        <v>0.6364472932264552</v>
       </c>
       <c r="F13">
-        <v>0.6291732564644835</v>
+        <v>0.4276264544536654</v>
       </c>
       <c r="G13">
-        <v>1.022149065705499</v>
+        <v>0.6947179912683442</v>
       </c>
       <c r="H13">
-        <v>0.08391010145579837</v>
+        <v>0.05703068083348502</v>
       </c>
       <c r="I13">
-        <v>0.6219093959373129</v>
+        <v>0.4226894694642921</v>
       </c>
       <c r="J13">
-        <v>0.4288428780957158</v>
+        <v>0.2914690947105254</v>
       </c>
       <c r="K13">
-        <v>0.5679726386023753</v>
+        <v>0.386030593603174</v>
       </c>
       <c r="L13">
-        <v>1.991361456097595</v>
+        <v>1.353456826489848</v>
       </c>
       <c r="M13">
-        <v>1.253069553648445</v>
+        <v>0.8516663493003526</v>
       </c>
       <c r="P13">
-        <v>11.69792665896311</v>
+        <v>7.950660410680986</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.3555387016442526</v>
+        <v>0.2416468800017627</v>
       </c>
       <c r="C14">
-        <v>2.383029651260175</v>
+        <v>1.619659625001665</v>
       </c>
       <c r="D14">
-        <v>0.01050110519174033</v>
+        <v>0.007137223864572156</v>
       </c>
       <c r="E14">
-        <v>0.9988421420968526</v>
+        <v>0.6788771127748854</v>
       </c>
       <c r="F14">
-        <v>0.3775039538786903</v>
+        <v>0.2565758726721992</v>
       </c>
       <c r="G14">
-        <v>0.6132894394232992</v>
+        <v>0.4168307947610065</v>
       </c>
       <c r="H14">
-        <v>0.04195505072789919</v>
+        <v>0.02851534041674251</v>
       </c>
       <c r="I14">
-        <v>0.3109546979686564</v>
+        <v>0.2113447347321461</v>
       </c>
       <c r="J14">
-        <v>0.4717271659052875</v>
+        <v>0.320616004181578</v>
       </c>
       <c r="K14">
-        <v>0.6247699024626128</v>
+        <v>0.4246336529634914</v>
       </c>
       <c r="L14">
-        <v>2.896525754323775</v>
+        <v>1.968664474894324</v>
       </c>
       <c r="M14">
-        <v>1.822646623488646</v>
+        <v>1.238787417164149</v>
       </c>
       <c r="N14">
-        <v>0.013407538681443</v>
+        <v>0.009112622271190711</v>
       </c>
       <c r="O14">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="P14">
-        <v>10.97641424842666</v>
+        <v>7.460274351210198</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1124,49 +1124,49 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.2712878244773683</v>
+        <v>0.1843845861624826</v>
       </c>
       <c r="C15">
-        <v>1.818330681767241</v>
+        <v>1.235854026660039</v>
       </c>
       <c r="D15">
-        <v>0.007875828893805243</v>
+        <v>0.005352917898429118</v>
       </c>
       <c r="E15">
-        <v>0.7491316065726394</v>
+        <v>0.509157834581164</v>
       </c>
       <c r="F15">
-        <v>0.6920905821109322</v>
+        <v>0.4703890998990318</v>
       </c>
       <c r="G15">
-        <v>1.124363972276049</v>
+        <v>0.7641897903951788</v>
       </c>
       <c r="H15">
-        <v>0.05594006763719893</v>
+        <v>0.03802045388899002</v>
       </c>
       <c r="I15">
-        <v>0.4146062639582084</v>
+        <v>0.2817929796428615</v>
       </c>
       <c r="J15">
-        <v>0.3645164463813585</v>
+        <v>0.2477487305039467</v>
       </c>
       <c r="K15">
-        <v>0.482776742812019</v>
+        <v>0.3281260045626979</v>
       </c>
       <c r="L15">
-        <v>2.534460035033303</v>
+        <v>1.722581415532533</v>
       </c>
       <c r="M15">
-        <v>1.594815795552566</v>
+        <v>1.08393899001863</v>
       </c>
       <c r="N15">
-        <v>0.02681507736288601</v>
+        <v>0.01822524454238142</v>
       </c>
       <c r="O15">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="P15">
-        <v>10.24845596758223</v>
+        <v>6.965507265309336</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1174,49 +1174,49 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.2476975788706406</v>
+        <v>0.1683511438874839</v>
       </c>
       <c r="C16">
-        <v>1.66021497030922</v>
+        <v>1.128388459124382</v>
       </c>
       <c r="D16">
-        <v>0.002953435835176966</v>
+        <v>0.002007344211910919</v>
       </c>
       <c r="E16">
-        <v>0.2809243524647397</v>
+        <v>0.1909341879679365</v>
       </c>
       <c r="F16">
-        <v>0.8179252334038292</v>
+        <v>0.5559143907897649</v>
       </c>
       <c r="G16">
-        <v>1.328793785417148</v>
+        <v>0.9031333886488474</v>
       </c>
       <c r="H16">
-        <v>0.04195505072789919</v>
+        <v>0.02851534041674251</v>
       </c>
       <c r="I16">
-        <v>0.3109546979686564</v>
+        <v>0.2113447347321461</v>
       </c>
       <c r="J16">
-        <v>0.3430743024765726</v>
+        <v>0.2331752757684204</v>
       </c>
       <c r="K16">
-        <v>0.4543781108819002</v>
+        <v>0.3088244748825393</v>
       </c>
       <c r="L16">
-        <v>2.17239431574283</v>
+        <v>1.476498356170743</v>
       </c>
       <c r="M16">
-        <v>1.366984967616485</v>
+        <v>0.9290905628731118</v>
       </c>
       <c r="N16">
-        <v>0.013407538681443</v>
+        <v>0.009112622271190711</v>
       </c>
       <c r="O16">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="P16">
-        <v>9.097380861769867</v>
+        <v>6.183162877255705</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1224,49 +1224,49 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.4987651928279564</v>
+        <v>0.3389927795285392</v>
       </c>
       <c r="C17">
-        <v>3.343017899398157</v>
+        <v>2.272129142182432</v>
       </c>
       <c r="D17">
-        <v>0.004266073984144505</v>
+        <v>0.002899497194982439</v>
       </c>
       <c r="E17">
-        <v>0.4057796202268465</v>
+        <v>0.2757938270647972</v>
       </c>
       <c r="F17">
-        <v>1.258346512928967</v>
+        <v>0.8552529089073309</v>
       </c>
       <c r="G17">
-        <v>2.044298131410997</v>
+        <v>1.389435982536688</v>
       </c>
       <c r="H17">
-        <v>0.04195505072789919</v>
+        <v>0.02851534041674251</v>
       </c>
       <c r="I17">
-        <v>0.3109546979686564</v>
+        <v>0.2113447347321461</v>
       </c>
       <c r="J17">
-        <v>0.793359324477074</v>
+        <v>0.5392178252144719</v>
       </c>
       <c r="K17">
-        <v>1.050749381414394</v>
+        <v>0.7141565981658721</v>
       </c>
       <c r="L17">
-        <v>3.258591473614247</v>
+        <v>2.214747534256113</v>
       </c>
       <c r="M17">
-        <v>2.050477451424727</v>
+        <v>1.393635844309667</v>
       </c>
       <c r="N17">
-        <v>0.04022261604432901</v>
+        <v>0.02733786681357215</v>
       </c>
       <c r="O17">
-        <v>0.1671675641199793</v>
+        <v>0.1136177865314556</v>
       </c>
       <c r="P17">
-        <v>15.26795099056838</v>
+        <v>10.37707766785481</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1274,49 +1274,49 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>1.098631438256174</v>
+        <v>0.746700311664215</v>
       </c>
       <c r="C18">
-        <v>7.363674562187833</v>
+        <v>5.004825002374816</v>
       </c>
       <c r="D18">
-        <v>0.002625276297935081</v>
+        <v>0.001784305966143039</v>
       </c>
       <c r="E18">
-        <v>0.2497105355242132</v>
+        <v>0.1697192781937213</v>
       </c>
       <c r="F18">
-        <v>2.013354420686348</v>
+        <v>1.368404654251729</v>
       </c>
       <c r="G18">
-        <v>3.270877010257596</v>
+        <v>2.223097572058702</v>
       </c>
       <c r="H18">
-        <v>0.671280811646387</v>
+        <v>0.4562454466678801</v>
       </c>
       <c r="I18">
-        <v>4.975275167498503</v>
+        <v>3.381515755714337</v>
       </c>
       <c r="J18">
-        <v>1.822582231906792</v>
+        <v>1.238743652519734</v>
       </c>
       <c r="K18">
-        <v>2.413883714060095</v>
+        <v>1.64063002281349</v>
       </c>
       <c r="L18">
-        <v>5.974084368292788</v>
+        <v>4.060370479469541</v>
       </c>
       <c r="M18">
-        <v>3.759208660945333</v>
+        <v>2.554999047901058</v>
       </c>
       <c r="N18">
-        <v>0.04022261604432901</v>
+        <v>0.02733786681357215</v>
       </c>
       <c r="O18">
-        <v>0.1671675641199793</v>
+        <v>0.1136177865314556</v>
       </c>
       <c r="P18">
-        <v>33.8225783777243</v>
+        <v>22.98799118294039</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1324,49 +1324,49 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>1.93440013975167</v>
+        <v>1.314742266549874</v>
       </c>
       <c r="C19">
-        <v>12.96548833955772</v>
+        <v>8.812176537923753</v>
       </c>
       <c r="D19">
-        <v>0.00459423352138639</v>
+        <v>0.003122535440750319</v>
       </c>
       <c r="E19">
-        <v>0.4369934371673729</v>
+        <v>0.2970087368390124</v>
       </c>
       <c r="F19">
-        <v>3.712122213140454</v>
+        <v>2.522996081276625</v>
       </c>
       <c r="G19">
-        <v>6.030679487662441</v>
+        <v>4.09883614848323</v>
       </c>
       <c r="H19">
-        <v>1.384516674020673</v>
+        <v>0.9410062337525033</v>
       </c>
       <c r="I19">
-        <v>10.26150503296566</v>
+        <v>6.974376246160825</v>
       </c>
       <c r="J19">
-        <v>3.087668722289152</v>
+        <v>2.098577481915784</v>
       </c>
       <c r="K19">
-        <v>4.089402997937102</v>
+        <v>2.779420273942853</v>
       </c>
       <c r="L19">
-        <v>10.68093871906891</v>
+        <v>7.259450251172818</v>
       </c>
       <c r="M19">
-        <v>6.721009424114385</v>
+        <v>4.5680286007928</v>
       </c>
       <c r="N19">
-        <v>0.13407538681443</v>
+        <v>0.09112622271190718</v>
       </c>
       <c r="O19">
-        <v>0.5572252137332642</v>
+        <v>0.3787259551048521</v>
       </c>
       <c r="P19">
-        <v>62.00062002174462</v>
+        <v>42.13959357206759</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1374,49 +1374,49 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>2.62020227989011</v>
+        <v>1.780857338401616</v>
       </c>
       <c r="C20">
-        <v>17.56213795123019</v>
+        <v>11.9363541084246</v>
       </c>
       <c r="D20">
-        <v>0.004922393058628276</v>
+        <v>0.003345573686518199</v>
       </c>
       <c r="E20">
-        <v>0.4682072541078996</v>
+        <v>0.3182236466132276</v>
       </c>
       <c r="F20">
-        <v>3.271700933615317</v>
+        <v>2.22365756315906</v>
       </c>
       <c r="G20">
-        <v>5.315175141668592</v>
+        <v>3.61253355459539</v>
       </c>
       <c r="H20">
-        <v>1.202711454199777</v>
+        <v>0.8174397586132854</v>
       </c>
       <c r="I20">
-        <v>8.914034675101485</v>
+        <v>6.058549062321524</v>
       </c>
       <c r="J20">
-        <v>3.00190014667001</v>
+        <v>2.040283662973678</v>
       </c>
       <c r="K20">
-        <v>3.975808470216626</v>
+        <v>2.702214155222218</v>
       </c>
       <c r="L20">
-        <v>9.232675841907028</v>
+        <v>6.275118013725654</v>
       </c>
       <c r="M20">
-        <v>5.809686112370061</v>
+        <v>3.948634892210725</v>
       </c>
       <c r="N20">
-        <v>0.13407538681443</v>
+        <v>0.09112622271190718</v>
       </c>
       <c r="O20">
-        <v>0.5572252137332642</v>
+        <v>0.3787259551048521</v>
       </c>
       <c r="P20">
-        <v>62.07046325458341</v>
+        <v>42.18706350776426</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1424,49 +1424,49 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>2.077626630935373</v>
+        <v>1.412088166076652</v>
       </c>
       <c r="C21">
-        <v>13.92547658769571</v>
+        <v>9.464646055104517</v>
       </c>
       <c r="D21">
-        <v>0.005250552595870163</v>
+        <v>0.003568611932286078</v>
       </c>
       <c r="E21">
-        <v>0.4994210710484263</v>
+        <v>0.3394385563874427</v>
       </c>
       <c r="F21">
-        <v>1.635850466807658</v>
+        <v>1.11182878157953</v>
       </c>
       <c r="G21">
-        <v>2.657587570834296</v>
+        <v>1.806266777297695</v>
       </c>
       <c r="H21">
-        <v>0.5034606087347904</v>
+        <v>0.3421840850009102</v>
       </c>
       <c r="I21">
-        <v>3.731456375623877</v>
+        <v>2.536136816785755</v>
       </c>
       <c r="J21">
-        <v>2.358635829526437</v>
+        <v>1.60308002090789</v>
       </c>
       <c r="K21">
-        <v>3.123849512313063</v>
+        <v>2.123168264817457</v>
       </c>
       <c r="L21">
-        <v>6.698215806873732</v>
+        <v>4.552536598193121</v>
       </c>
       <c r="M21">
-        <v>4.214870316817495</v>
+        <v>2.864695902192095</v>
       </c>
       <c r="N21">
-        <v>0.05363015472577201</v>
+        <v>0.03645048908476285</v>
       </c>
       <c r="O21">
-        <v>0.2228900854933057</v>
+        <v>0.1514903820419408</v>
       </c>
       <c r="P21">
-        <v>41.70822157002581</v>
+        <v>28.34757950740205</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1474,49 +1474,49 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>2.460125613273028</v>
+        <v>1.672058980106983</v>
       </c>
       <c r="C22">
-        <v>16.48920990919362</v>
+        <v>11.2071234715755</v>
       </c>
       <c r="D22">
-        <v>0.01640797686209425</v>
+        <v>0.011151912288394</v>
       </c>
       <c r="E22">
-        <v>1.560690847026332</v>
+        <v>1.060745488710758</v>
       </c>
       <c r="F22">
-        <v>5.096303377362318</v>
+        <v>3.463774281074689</v>
       </c>
       <c r="G22">
-        <v>8.279407432214541</v>
+        <v>5.62721572927359</v>
       </c>
       <c r="H22">
-        <v>0.51744562564409</v>
+        <v>0.3516891984731577</v>
       </c>
       <c r="I22">
-        <v>3.835107941613429</v>
+        <v>2.606585061696469</v>
       </c>
       <c r="J22">
-        <v>4.459965932195444</v>
+        <v>3.031278584989465</v>
       </c>
       <c r="K22">
-        <v>5.906915441464702</v>
+        <v>4.01471817347301</v>
       </c>
       <c r="L22">
-        <v>12.12920159623081</v>
+        <v>8.243782488619981</v>
       </c>
       <c r="M22">
-        <v>7.632332735858708</v>
+        <v>5.187422309374874</v>
       </c>
       <c r="N22">
-        <v>0.05363015472577201</v>
+        <v>0.03645048908476285</v>
       </c>
       <c r="O22">
-        <v>0.2228900854933057</v>
+        <v>0.1514903820419408</v>
       </c>
       <c r="P22">
-        <v>68.65963466915819</v>
+        <v>46.66548655078358</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1524,49 +1524,49 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>2.210743016859049</v>
+        <v>1.502562590342715</v>
       </c>
       <c r="C23">
-        <v>14.81770095949454</v>
+        <v>10.07105890048429</v>
       </c>
       <c r="D23">
-        <v>0.01706429593657802</v>
+        <v>0.01159798877992975</v>
       </c>
       <c r="E23">
-        <v>1.623118480907386</v>
+        <v>1.103175308259189</v>
       </c>
       <c r="F23">
-        <v>4.152543492665592</v>
+        <v>2.822334599394192</v>
       </c>
       <c r="G23">
-        <v>6.746183833656289</v>
+        <v>4.585138742371072</v>
       </c>
       <c r="H23">
-        <v>0.3216553889138937</v>
+        <v>0.2186176098616927</v>
       </c>
       <c r="I23">
-        <v>2.383986017759699</v>
+        <v>1.620309632946454</v>
       </c>
       <c r="J23">
-        <v>4.824482378576803</v>
+        <v>3.279027315493411</v>
       </c>
       <c r="K23">
-        <v>6.389692184276721</v>
+        <v>4.342844178035708</v>
       </c>
       <c r="L23">
-        <v>9.232675841907028</v>
+        <v>6.275118013725654</v>
       </c>
       <c r="M23">
-        <v>5.809686112370061</v>
+        <v>3.948634892210725</v>
       </c>
       <c r="N23">
-        <v>0.06703769340721499</v>
+        <v>0.04556311135595359</v>
       </c>
       <c r="O23">
-        <v>0.2786126068666321</v>
+        <v>0.1893629775524261</v>
       </c>
       <c r="P23">
-        <v>58.87518230359748</v>
+        <v>40.01534586081342</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1574,49 +1574,49 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>2.320269157176</v>
+        <v>1.577003572333779</v>
       </c>
       <c r="C24">
-        <v>15.55180961983535</v>
+        <v>10.57000617832841</v>
       </c>
       <c r="D24">
-        <v>0.01706429593657802</v>
+        <v>0.01159798877992975</v>
       </c>
       <c r="E24">
-        <v>1.623118480907386</v>
+        <v>1.103175308259189</v>
       </c>
       <c r="F24">
-        <v>3.712122213140454</v>
+        <v>2.522996081276625</v>
       </c>
       <c r="G24">
-        <v>6.030679487662441</v>
+        <v>4.09883614848323</v>
       </c>
       <c r="H24">
-        <v>0.307670372004594</v>
+        <v>0.2091124963894452</v>
       </c>
       <c r="I24">
-        <v>2.280334451770146</v>
+        <v>1.549861388035739</v>
       </c>
       <c r="J24">
-        <v>4.502850220005015</v>
+        <v>3.060425494460517</v>
       </c>
       <c r="K24">
-        <v>5.963712705324939</v>
+        <v>4.053321232833328</v>
       </c>
       <c r="L24">
-        <v>8.146478684035621</v>
+        <v>5.536868835640286</v>
       </c>
       <c r="M24">
-        <v>5.126193628561817</v>
+        <v>3.484089610774168</v>
       </c>
       <c r="N24">
-        <v>0.13407538681443</v>
+        <v>0.09112622271190718</v>
       </c>
       <c r="O24">
-        <v>0.5572252137332642</v>
+        <v>0.3787259551048521</v>
       </c>
       <c r="P24">
-        <v>56.27360391690802</v>
+        <v>38.2471465134114</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1624,49 +1624,49 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>2.340489367696054</v>
+        <v>1.590746522855206</v>
       </c>
       <c r="C25">
-        <v>15.68733737251366</v>
+        <v>10.6621195219304</v>
       </c>
       <c r="D25">
-        <v>0.0131263814896754</v>
+        <v>0.008921529830715196</v>
       </c>
       <c r="E25">
-        <v>1.248552677621066</v>
+        <v>0.8485963909686067</v>
       </c>
       <c r="F25">
-        <v>3.900874190079799</v>
+        <v>2.651284017612725</v>
       </c>
       <c r="G25">
-        <v>6.337324207374092</v>
+        <v>4.307251545863735</v>
       </c>
       <c r="H25">
-        <v>0.2936853550952944</v>
+        <v>0.1996073829171976</v>
       </c>
       <c r="I25">
-        <v>2.176682885780594</v>
+        <v>1.479413143125023</v>
       </c>
       <c r="J25">
-        <v>3.559395888194441</v>
+        <v>2.419193486097361</v>
       </c>
       <c r="K25">
-        <v>4.714172900399714</v>
+        <v>3.204053926906345</v>
       </c>
       <c r="L25">
-        <v>7.603380105099912</v>
+        <v>5.167744246597596</v>
       </c>
       <c r="M25">
-        <v>4.784447386657696</v>
+        <v>3.251816970055891</v>
       </c>
       <c r="N25">
-        <v>0.09385277077010104</v>
+        <v>0.06378835589833501</v>
       </c>
       <c r="O25">
-        <v>0.390057649613285</v>
+        <v>0.2651081685733964</v>
       </c>
       <c r="P25">
-        <v>53.14337913838538</v>
+        <v>36.11964520923253</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1674,49 +1674,49 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>2.407890069429561</v>
+        <v>1.63655635792663</v>
       </c>
       <c r="C26">
-        <v>16.139096548108</v>
+        <v>10.9691640006037</v>
       </c>
       <c r="D26">
-        <v>0.01411086010140106</v>
+        <v>0.009590644568018839</v>
       </c>
       <c r="E26">
-        <v>1.342194128442646</v>
+        <v>0.9122411202912521</v>
       </c>
       <c r="F26">
-        <v>3.460452910554662</v>
+        <v>2.35194549949516</v>
       </c>
       <c r="G26">
-        <v>5.621819861380242</v>
+        <v>3.820948951975893</v>
       </c>
       <c r="H26">
-        <v>0.1678202029115967</v>
+        <v>0.11406136166697</v>
       </c>
       <c r="I26">
-        <v>1.243818791874626</v>
+        <v>0.8453789389285843</v>
       </c>
       <c r="J26">
-        <v>4.545734507814587</v>
+        <v>3.08957240393157</v>
       </c>
       <c r="K26">
-        <v>6.020509969185178</v>
+        <v>4.091924292193644</v>
       </c>
       <c r="L26">
-        <v>10.13784014013321</v>
+        <v>6.890325662130133</v>
       </c>
       <c r="M26">
-        <v>6.379263182210263</v>
+        <v>4.335755960074522</v>
       </c>
       <c r="N26">
-        <v>0.107260309451544</v>
+        <v>0.07290097816952569</v>
       </c>
       <c r="O26">
-        <v>0.4457801709866115</v>
+        <v>0.3029807640838816</v>
       </c>
       <c r="P26">
-        <v>58.03359165258412</v>
+        <v>39.44334693603948</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1724,49 +1724,49 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>2.527526315006537</v>
+        <v>1.717868815178407</v>
       </c>
       <c r="C27">
-        <v>16.94096908478797</v>
+        <v>11.51416795024881</v>
       </c>
       <c r="D27">
-        <v>0.01115742426622409</v>
+        <v>0.007583300356107915</v>
       </c>
       <c r="E27">
-        <v>1.061269775977906</v>
+        <v>0.7213069323233158</v>
       </c>
       <c r="F27">
-        <v>4.844634074776525</v>
+        <v>3.292723699293223</v>
       </c>
       <c r="G27">
-        <v>7.870547805932339</v>
+        <v>5.349328532766252</v>
       </c>
       <c r="H27">
-        <v>0.3356404058231935</v>
+        <v>0.2281227233339401</v>
       </c>
       <c r="I27">
-        <v>2.487637583749251</v>
+        <v>1.690757877857169</v>
       </c>
       <c r="J27">
-        <v>3.81670161505187</v>
+        <v>2.594074942923676</v>
       </c>
       <c r="K27">
-        <v>5.054956483561139</v>
+        <v>3.435672283068249</v>
       </c>
       <c r="L27">
-        <v>3.98272291219519</v>
+        <v>2.706913652979695</v>
       </c>
       <c r="M27">
-        <v>2.506139107296889</v>
+        <v>1.703332698600705</v>
       </c>
       <c r="N27">
-        <v>0.09385277077010104</v>
+        <v>0.06378835589833501</v>
       </c>
       <c r="O27">
-        <v>0.390057649613285</v>
+        <v>0.2651081685733964</v>
       </c>
       <c r="P27">
-        <v>51.92381300880842</v>
+        <v>35.29074993340128</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1774,49 +1774,49 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>2.446645472926326</v>
+        <v>1.662897013092698</v>
       </c>
       <c r="C28">
-        <v>16.39885807407475</v>
+        <v>11.14571457584084</v>
       </c>
       <c r="D28">
-        <v>0.01706429593657802</v>
+        <v>0.01159798877992975</v>
       </c>
       <c r="E28">
-        <v>1.623118480907386</v>
+        <v>1.103175308259189</v>
       </c>
       <c r="F28">
-        <v>4.781716749130076</v>
+        <v>3.249961053847857</v>
       </c>
       <c r="G28">
-        <v>7.76833289936179</v>
+        <v>5.279856733639417</v>
       </c>
       <c r="H28">
-        <v>0.307670372004594</v>
+        <v>0.2091124963894452</v>
       </c>
       <c r="I28">
-        <v>2.280334451770146</v>
+        <v>1.549861388035739</v>
       </c>
       <c r="J28">
-        <v>3.602280176004014</v>
+        <v>2.448340395568414</v>
       </c>
       <c r="K28">
-        <v>4.770970164259952</v>
+        <v>3.242656986266661</v>
       </c>
       <c r="L28">
-        <v>8.146478684035621</v>
+        <v>5.536868835640286</v>
       </c>
       <c r="M28">
-        <v>5.126193628561817</v>
+        <v>3.484089610774168</v>
       </c>
       <c r="N28">
-        <v>0.214520618903088</v>
+        <v>0.1458019563390514</v>
       </c>
       <c r="O28">
-        <v>0.891560341973223</v>
+        <v>0.6059615281677633</v>
       </c>
       <c r="P28">
-        <v>58.37574440984935</v>
+        <v>39.67589587064145</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1824,49 +1824,49 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>2.690973016710295</v>
+        <v>1.828957665226612</v>
       </c>
       <c r="C29">
-        <v>18.03648508560424</v>
+        <v>12.25875081103156</v>
       </c>
       <c r="D29">
-        <v>0.01476717917588483</v>
+        <v>0.0100367210595546</v>
       </c>
       <c r="E29">
-        <v>1.404621762323699</v>
+        <v>0.9546709398396825</v>
       </c>
       <c r="F29">
-        <v>4.65588209783718</v>
+        <v>3.164435762957122</v>
       </c>
       <c r="G29">
-        <v>7.563903086220692</v>
+        <v>5.140913135385746</v>
       </c>
       <c r="H29">
-        <v>0.405565490369692</v>
+        <v>0.2756482906951777</v>
       </c>
       <c r="I29">
-        <v>3.005895413697013</v>
+        <v>2.042999102410746</v>
       </c>
       <c r="J29">
-        <v>3.580838032099227</v>
+        <v>2.433766940832888</v>
       </c>
       <c r="K29">
-        <v>4.742571532329834</v>
+        <v>3.223355456586503</v>
       </c>
       <c r="L29">
-        <v>4.88788721042137</v>
+        <v>3.32212130138417</v>
       </c>
       <c r="M29">
-        <v>3.07571617713709</v>
+        <v>2.090453766464501</v>
       </c>
       <c r="N29">
-        <v>0.3351884670360751</v>
+        <v>0.2278155567797679</v>
       </c>
       <c r="O29">
-        <v>1.39306303433316</v>
+        <v>0.94681488776213</v>
       </c>
       <c r="P29">
-        <v>55.79335758529545</v>
+        <v>37.92074033841617</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1874,49 +1874,49 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>3.371720104218719</v>
+        <v>2.291636999447997</v>
       </c>
       <c r="C30">
-        <v>22.59925275910716</v>
+        <v>15.35990004563191</v>
       </c>
       <c r="D30">
-        <v>0.007219509819321472</v>
+        <v>0.004906841406893358</v>
       </c>
       <c r="E30">
-        <v>0.686703972691586</v>
+        <v>0.4667280150327337</v>
       </c>
       <c r="F30">
-        <v>2.957114305383074</v>
+        <v>2.009844335932227</v>
       </c>
       <c r="G30">
-        <v>4.804100608815844</v>
+        <v>3.265174558961218</v>
       </c>
       <c r="H30">
-        <v>0.671280811646387</v>
+        <v>0.4562454466678801</v>
       </c>
       <c r="I30">
-        <v>4.975275167498503</v>
+        <v>3.381515755714337</v>
       </c>
       <c r="J30">
-        <v>3.10911086619394</v>
+        <v>2.11315093665131</v>
       </c>
       <c r="K30">
-        <v>4.11780162986722</v>
+        <v>2.798721803623012</v>
       </c>
       <c r="L30">
-        <v>3.801690052549956</v>
+        <v>2.583872123298798</v>
       </c>
       <c r="M30">
-        <v>2.392223693328848</v>
+        <v>1.625908485027945</v>
       </c>
       <c r="N30">
-        <v>0.174298002858759</v>
+        <v>0.1184640895254793</v>
       </c>
       <c r="O30">
-        <v>0.7243927778532436</v>
+        <v>0.4923437416363077</v>
       </c>
       <c r="P30">
-        <v>54.39218426183256</v>
+        <v>36.96841317855804</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1924,49 +1924,49 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>3.508206525229073</v>
+        <v>2.384401915467632</v>
       </c>
       <c r="C31">
-        <v>23.51406508968569</v>
+        <v>15.98166511494535</v>
       </c>
       <c r="D31">
-        <v>0.009516626580014667</v>
+        <v>0.006468109127268518</v>
       </c>
       <c r="E31">
-        <v>0.9052006912752727</v>
+        <v>0.6152323834522399</v>
       </c>
       <c r="F31">
-        <v>3.712122213140454</v>
+        <v>2.522996081276625</v>
       </c>
       <c r="G31">
-        <v>6.030679487662441</v>
+        <v>4.09883614848323</v>
       </c>
       <c r="H31">
-        <v>0.9789511836509812</v>
+        <v>0.6653579430573254</v>
       </c>
       <c r="I31">
-        <v>7.255609619268649</v>
+        <v>4.931377143750078</v>
       </c>
       <c r="J31">
-        <v>2.380077973431223</v>
+        <v>1.617653475643416</v>
       </c>
       <c r="K31">
-        <v>3.152248144243182</v>
+        <v>2.142469794497615</v>
       </c>
       <c r="L31">
-        <v>3.439624333259483</v>
+        <v>2.337789063937009</v>
       </c>
       <c r="M31">
-        <v>2.164392865392768</v>
+        <v>1.471060057882427</v>
       </c>
       <c r="N31">
-        <v>0.05363015472577201</v>
+        <v>0.03645048908476285</v>
       </c>
       <c r="O31">
-        <v>0.2228900854933057</v>
+        <v>0.1514903820419408</v>
       </c>
       <c r="P31">
-        <v>57.32721499303832</v>
+        <v>38.96324810264692</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1974,49 +1974,49 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>2.775223893877175</v>
+        <v>1.886219959065891</v>
       </c>
       <c r="C32">
-        <v>18.60118405509718</v>
+        <v>12.64255640937319</v>
       </c>
       <c r="D32">
-        <v>0.006891350282079589</v>
+        <v>0.004683803161125477</v>
       </c>
       <c r="E32">
-        <v>0.6554901557510594</v>
+        <v>0.4455131052585184</v>
       </c>
       <c r="F32">
-        <v>3.145866282322419</v>
+        <v>2.138132272268327</v>
       </c>
       <c r="G32">
-        <v>5.110745328527495</v>
+        <v>3.473589956341722</v>
       </c>
       <c r="H32">
-        <v>0.6572957947370871</v>
+        <v>0.4467403331956329</v>
       </c>
       <c r="I32">
-        <v>4.871623601508951</v>
+        <v>3.311067510803624</v>
       </c>
       <c r="J32">
-        <v>1.672487224573291</v>
+        <v>1.136729469371049</v>
       </c>
       <c r="K32">
-        <v>2.215093290549263</v>
+        <v>1.505519315052379</v>
       </c>
       <c r="L32">
-        <v>2.715492894678539</v>
+        <v>1.845622945213428</v>
       </c>
       <c r="M32">
-        <v>1.708731209520606</v>
+        <v>1.16136320359139</v>
       </c>
       <c r="N32">
-        <v>0.120667848132987</v>
+        <v>0.08201360044071641</v>
       </c>
       <c r="O32">
-        <v>0.5015026923599379</v>
+        <v>0.3408533595943669</v>
       </c>
       <c r="P32">
-        <v>44.75829562191807</v>
+        <v>30.42060524273136</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2024,49 +2024,49 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>2.323639192262678</v>
+        <v>1.579294064087349</v>
       </c>
       <c r="C33">
-        <v>15.57439757861507</v>
+        <v>10.58535840226207</v>
       </c>
       <c r="D33">
-        <v>0.009844786117256553</v>
+        <v>0.006691147373036397</v>
       </c>
       <c r="E33">
-        <v>0.9364145082157992</v>
+        <v>0.6364472932264552</v>
       </c>
       <c r="F33">
-        <v>2.453775700211486</v>
+        <v>1.667743172369295</v>
       </c>
       <c r="G33">
-        <v>3.986381356251445</v>
+        <v>2.709400165946542</v>
       </c>
       <c r="H33">
-        <v>0.8950410821951829</v>
+        <v>0.6083272622238404</v>
       </c>
       <c r="I33">
-        <v>6.633700223331335</v>
+        <v>4.508687674285785</v>
       </c>
       <c r="J33">
-        <v>1.07210719523929</v>
+        <v>0.7286727367763137</v>
       </c>
       <c r="K33">
-        <v>1.419931596505938</v>
+        <v>0.965076484007935</v>
       </c>
       <c r="L33">
-        <v>2.896525754323775</v>
+        <v>1.968664474894324</v>
       </c>
       <c r="M33">
-        <v>1.822646623488646</v>
+        <v>1.238787417164149</v>
       </c>
       <c r="N33">
-        <v>0.013407538681443</v>
+        <v>0.009112622271190711</v>
       </c>
       <c r="O33">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="P33">
-        <v>40.09353565681267</v>
+        <v>27.25013551239877</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2074,49 +2074,49 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>1.909124876601603</v>
+        <v>1.297563578398092</v>
       </c>
       <c r="C34">
-        <v>12.79607864870985</v>
+        <v>8.697034858421269</v>
       </c>
       <c r="D34">
-        <v>0.006563190744837701</v>
+        <v>0.004460764915357598</v>
       </c>
       <c r="E34">
-        <v>0.6242763388105328</v>
+        <v>0.4242981954843034</v>
       </c>
       <c r="F34">
-        <v>1.635850466807658</v>
+        <v>1.11182878157953</v>
       </c>
       <c r="G34">
-        <v>2.657587570834296</v>
+        <v>1.806266777297695</v>
       </c>
       <c r="H34">
-        <v>0.4335355241882916</v>
+        <v>0.2946585176396728</v>
       </c>
       <c r="I34">
-        <v>3.213198545676115</v>
+        <v>2.183895592232177</v>
       </c>
       <c r="J34">
-        <v>0.6861486049531452</v>
+        <v>0.4663505515368407</v>
       </c>
       <c r="K34">
-        <v>0.9087562217638004</v>
+        <v>0.6176489497650786</v>
       </c>
       <c r="L34">
-        <v>1.448262877161888</v>
+        <v>0.9843322374471619</v>
       </c>
       <c r="M34">
-        <v>0.9113233117443232</v>
+        <v>0.6193937085820745</v>
       </c>
       <c r="N34">
-        <v>0.05363015472577201</v>
+        <v>0.03645048908476285</v>
       </c>
       <c r="O34">
-        <v>0.2228900854933057</v>
+        <v>0.1514903820419408</v>
       </c>
       <c r="P34">
-        <v>27.50722641821541</v>
+        <v>18.69567338442596</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2124,49 +2124,49 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>1.34969905221349</v>
+        <v>0.9173419473052697</v>
       </c>
       <c r="C35">
-        <v>9.046477491276772</v>
+        <v>6.148565685432861</v>
       </c>
       <c r="D35">
-        <v>0.006235031207595817</v>
+        <v>0.004237726669589718</v>
       </c>
       <c r="E35">
-        <v>0.5930625218700062</v>
+        <v>0.4030832857100882</v>
       </c>
       <c r="F35">
-        <v>1.57293314116121</v>
+        <v>1.069066136134164</v>
       </c>
       <c r="G35">
-        <v>2.555372664263747</v>
+        <v>1.736794978170861</v>
       </c>
       <c r="H35">
-        <v>0.2377452874580954</v>
+        <v>0.1615869290282076</v>
       </c>
       <c r="I35">
-        <v>1.762076621822386</v>
+        <v>1.197620163482161</v>
       </c>
       <c r="J35">
-        <v>0.5146114537148591</v>
+        <v>0.3497629136526306</v>
       </c>
       <c r="K35">
-        <v>0.6815671663228503</v>
+        <v>0.4632367123238089</v>
       </c>
       <c r="L35">
-        <v>2.353427175388068</v>
+        <v>1.599539885851638</v>
       </c>
       <c r="M35">
-        <v>1.480900381584525</v>
+        <v>1.006514776445871</v>
       </c>
       <c r="N35">
-        <v>0.013407538681443</v>
+        <v>0.009112622271190711</v>
       </c>
       <c r="O35">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="P35">
-        <v>22.22323804833838</v>
+        <v>15.10433635798883</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2174,49 +2174,49 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.8492488418421962</v>
+        <v>0.5772039218999452</v>
       </c>
       <c r="C36">
-        <v>5.69216561248876</v>
+        <v>3.868760431283599</v>
       </c>
       <c r="D36">
-        <v>0.01148558380346598</v>
+        <v>0.007806338601875797</v>
       </c>
       <c r="E36">
-        <v>1.092483592918432</v>
+        <v>0.7425218420975308</v>
       </c>
       <c r="F36">
-        <v>0.6291732564644835</v>
+        <v>0.4276264544536654</v>
       </c>
       <c r="G36">
-        <v>1.022149065705499</v>
+        <v>0.6947179912683442</v>
       </c>
       <c r="H36">
-        <v>0.1258651521836976</v>
+        <v>0.08554602125022756</v>
       </c>
       <c r="I36">
-        <v>0.9328640939059692</v>
+        <v>0.6340342041964386</v>
       </c>
       <c r="J36">
-        <v>0.4288428780957158</v>
+        <v>0.2914690947105254</v>
       </c>
       <c r="K36">
-        <v>0.5679726386023753</v>
+        <v>0.386030593603174</v>
       </c>
       <c r="L36">
-        <v>1.629295736807123</v>
+        <v>1.107373767128056</v>
       </c>
       <c r="M36">
-        <v>1.025238725712364</v>
+        <v>0.6968179221548337</v>
       </c>
       <c r="N36">
-        <v>0.013407538681443</v>
+        <v>0.009112622271190711</v>
       </c>
       <c r="O36">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="P36">
-        <v>14.07591523858485</v>
+        <v>9.566893800429893</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2224,49 +2224,49 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.6453617190983354</v>
+        <v>0.4386291708088867</v>
       </c>
       <c r="C37">
-        <v>4.325594106315863</v>
+        <v>2.939950883296862</v>
       </c>
       <c r="D37">
-        <v>0.01378270056415918</v>
+        <v>0.009367606322250954</v>
       </c>
       <c r="E37">
-        <v>1.310980311502119</v>
+        <v>0.8910262105170368</v>
       </c>
       <c r="F37">
-        <v>0.6291732564644835</v>
+        <v>0.4276264544536654</v>
       </c>
       <c r="G37">
-        <v>1.022149065705499</v>
+        <v>0.6947179912683442</v>
       </c>
       <c r="H37">
-        <v>0.05594006763719893</v>
+        <v>0.03802045388899002</v>
       </c>
       <c r="I37">
-        <v>0.4146062639582084</v>
+        <v>0.2817929796428615</v>
       </c>
       <c r="J37">
-        <v>0.3645164463813585</v>
+        <v>0.2477487305039467</v>
       </c>
       <c r="K37">
-        <v>0.482776742812019</v>
+        <v>0.3281260045626979</v>
       </c>
       <c r="L37">
-        <v>1.810328596452359</v>
+        <v>1.230415296808952</v>
       </c>
       <c r="M37">
-        <v>1.139154139680404</v>
+        <v>0.7742421357275929</v>
       </c>
       <c r="N37">
-        <v>0.05363015472577201</v>
+        <v>0.03645048908476285</v>
       </c>
       <c r="O37">
-        <v>0.2228900854933057</v>
+        <v>0.1514903820419408</v>
       </c>
       <c r="P37">
-        <v>12.49088365679109</v>
+        <v>8.489604788928791</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2274,49 +2274,49 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.3622787718176038</v>
+        <v>0.246227863508905</v>
       </c>
       <c r="C38">
-        <v>2.428205568819608</v>
+        <v>1.650364072868996</v>
       </c>
       <c r="D38">
-        <v>0.009516626580014667</v>
+        <v>0.006468109127268518</v>
       </c>
       <c r="E38">
-        <v>0.9052006912752727</v>
+        <v>0.6152323834522399</v>
       </c>
       <c r="F38">
-        <v>0.5033386051715869</v>
+        <v>0.3421011635629322</v>
       </c>
       <c r="G38">
-        <v>0.8177192525643989</v>
+        <v>0.5557743930146755</v>
       </c>
       <c r="H38">
-        <v>0.02797003381859946</v>
+        <v>0.01901022694449501</v>
       </c>
       <c r="I38">
-        <v>0.2073031319791042</v>
+        <v>0.1408964898214308</v>
       </c>
       <c r="J38">
-        <v>0.4288428780957158</v>
+        <v>0.2914690947105254</v>
       </c>
       <c r="K38">
-        <v>0.5679726386023753</v>
+        <v>0.386030593603174</v>
       </c>
       <c r="L38">
-        <v>1.810328596452359</v>
+        <v>1.230415296808952</v>
       </c>
       <c r="M38">
-        <v>1.139154139680404</v>
+        <v>0.7742421357275929</v>
       </c>
       <c r="N38">
-        <v>0.02681507736288601</v>
+        <v>0.01822524454238142</v>
       </c>
       <c r="O38">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="P38">
-        <v>9.34609105496658</v>
+        <v>6.35220225871454</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2324,49 +2324,49 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.2426425262406276</v>
+        <v>0.1649154062571271</v>
       </c>
       <c r="C39">
-        <v>1.626333032139645</v>
+        <v>1.105360123223885</v>
       </c>
       <c r="D39">
-        <v>0.006891350282079589</v>
+        <v>0.004683803161125477</v>
       </c>
       <c r="E39">
-        <v>0.6554901557510594</v>
+        <v>0.4455131052585184</v>
       </c>
       <c r="F39">
-        <v>0.7550079077573807</v>
+        <v>0.5131517453443984</v>
       </c>
       <c r="G39">
-        <v>1.226578878846598</v>
+        <v>0.833661589522013</v>
       </c>
       <c r="H39">
-        <v>0.01398501690929973</v>
+        <v>0.009505113472247506</v>
       </c>
       <c r="I39">
-        <v>0.1036515659895521</v>
+        <v>0.07044824491071539</v>
       </c>
       <c r="J39">
-        <v>0.4074007341909299</v>
+        <v>0.2768956399749992</v>
       </c>
       <c r="K39">
-        <v>0.5395740066722564</v>
+        <v>0.3667290639230154</v>
       </c>
       <c r="L39">
-        <v>1.810328596452359</v>
+        <v>1.230415296808952</v>
       </c>
       <c r="M39">
-        <v>1.139154139680404</v>
+        <v>0.7742421357275929</v>
       </c>
       <c r="N39">
-        <v>0.013407538681443</v>
+        <v>0.009112622271190711</v>
       </c>
       <c r="O39">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="P39">
-        <v>8.596167970966961</v>
+        <v>5.842506485366266</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2374,49 +2374,49 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.2443275437839651</v>
+        <v>0.1660606521339127</v>
       </c>
       <c r="C40">
-        <v>1.637627011529503</v>
+        <v>1.113036235190718</v>
       </c>
       <c r="D40">
-        <v>0.003609754909660736</v>
+        <v>0.002453420703446679</v>
       </c>
       <c r="E40">
-        <v>0.343351986345793</v>
+        <v>0.2333640075163669</v>
       </c>
       <c r="F40">
-        <v>0.6920905821109322</v>
+        <v>0.4703890998990318</v>
       </c>
       <c r="G40">
-        <v>1.124363972276049</v>
+        <v>0.7641897903951788</v>
       </c>
       <c r="H40">
-        <v>0.04195505072789919</v>
+        <v>0.02851534041674251</v>
       </c>
       <c r="I40">
-        <v>0.3109546979686564</v>
+        <v>0.2113447347321461</v>
       </c>
       <c r="J40">
-        <v>0.4502850220005017</v>
+        <v>0.3060425494460517</v>
       </c>
       <c r="K40">
-        <v>0.5963712705324939</v>
+        <v>0.4053321232833327</v>
       </c>
       <c r="L40">
-        <v>2.353427175388068</v>
+        <v>1.599539885851638</v>
       </c>
       <c r="M40">
-        <v>1.480900381584525</v>
+        <v>1.006514776445871</v>
       </c>
       <c r="N40">
-        <v>0.02681507736288601</v>
+        <v>0.01822524454238142</v>
       </c>
       <c r="O40">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="P40">
-        <v>9.417524569267584</v>
+        <v>6.400753051577788</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2424,49 +2424,49 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.4566397542445141</v>
+        <v>0.3103616326088992</v>
       </c>
       <c r="C41">
-        <v>3.060668414651694</v>
+        <v>2.080226343011619</v>
       </c>
       <c r="D41">
-        <v>0.003609754909660736</v>
+        <v>0.002453420703446679</v>
       </c>
       <c r="E41">
-        <v>0.343351986345793</v>
+        <v>0.2333640075163669</v>
       </c>
       <c r="F41">
-        <v>0.8808425590502772</v>
+        <v>0.5986770362351317</v>
       </c>
       <c r="G41">
-        <v>1.431008691987699</v>
+        <v>0.9726051877756821</v>
       </c>
       <c r="H41">
-        <v>0.06992508454649866</v>
+        <v>0.04752556736123754</v>
       </c>
       <c r="I41">
-        <v>0.5182578299477607</v>
+        <v>0.352241224553577</v>
       </c>
       <c r="J41">
-        <v>1.093549339144076</v>
+        <v>0.7432461915118398</v>
       </c>
       <c r="K41">
-        <v>1.448330228436057</v>
+        <v>0.9843780136880937</v>
       </c>
       <c r="L41">
-        <v>3.620657192904718</v>
+        <v>2.460830593617904</v>
       </c>
       <c r="M41">
-        <v>2.278308279360808</v>
+        <v>1.548484271455186</v>
       </c>
       <c r="N41">
-        <v>0.013407538681443</v>
+        <v>0.009112622271190711</v>
       </c>
       <c r="O41">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="P41">
-        <v>15.27427917558432</v>
+        <v>10.38137870782066</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2474,49 +2474,49 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>1.186252350509734</v>
+        <v>0.8062530972570658</v>
       </c>
       <c r="C42">
-        <v>7.950961490460482</v>
+        <v>5.403982824650106</v>
       </c>
       <c r="D42">
-        <v>0.003609754909660736</v>
+        <v>0.002453420703446679</v>
       </c>
       <c r="E42">
-        <v>0.343351986345793</v>
+        <v>0.2333640075163669</v>
       </c>
       <c r="F42">
-        <v>1.635850466807658</v>
+        <v>1.11182878157953</v>
       </c>
       <c r="G42">
-        <v>2.657587570834296</v>
+        <v>1.806266777297695</v>
       </c>
       <c r="H42">
-        <v>0.5873707101905887</v>
+        <v>0.3992147658343952</v>
       </c>
       <c r="I42">
-        <v>4.353365771561188</v>
+        <v>2.958826286250047</v>
       </c>
       <c r="J42">
-        <v>2.165656534383364</v>
+        <v>1.471918928288154</v>
       </c>
       <c r="K42">
-        <v>2.868261824941994</v>
+        <v>1.949454497696029</v>
       </c>
       <c r="L42">
-        <v>6.698215806873732</v>
+        <v>4.552536598193121</v>
       </c>
       <c r="M42">
-        <v>4.214870316817495</v>
+        <v>2.864695902192095</v>
       </c>
       <c r="N42">
-        <v>0.107260309451544</v>
+        <v>0.07290097816952569</v>
       </c>
       <c r="O42">
-        <v>0.4457801709866115</v>
+        <v>0.3029807640838816</v>
       </c>
       <c r="P42">
-        <v>35.21839506507413</v>
+        <v>23.93667762971146</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2524,49 +2524,49 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>1.7658983854179</v>
+        <v>1.200217678871315</v>
       </c>
       <c r="C43">
-        <v>11.83609040057185</v>
+        <v>8.044565341240505</v>
       </c>
       <c r="D43">
-        <v>0.001640797686209425</v>
+        <v>0.001115191228839399</v>
       </c>
       <c r="E43">
-        <v>0.1560690847026332</v>
+        <v>0.1060745488710758</v>
       </c>
       <c r="F43">
-        <v>2.32794104891859</v>
+        <v>1.582217881478561</v>
       </c>
       <c r="G43">
-        <v>3.781951543110346</v>
+        <v>2.570456567692873</v>
       </c>
       <c r="H43">
-        <v>1.146771386562578</v>
+        <v>0.7794193047242957</v>
       </c>
       <c r="I43">
-        <v>8.499428411143276</v>
+        <v>5.776756082678662</v>
       </c>
       <c r="J43">
-        <v>2.637383700288652</v>
+        <v>1.792534932469732</v>
       </c>
       <c r="K43">
-        <v>3.493031727404607</v>
+        <v>2.374088150659521</v>
       </c>
       <c r="L43">
-        <v>13.39643161374746</v>
+        <v>9.105073196386241</v>
       </c>
       <c r="M43">
-        <v>8.42974063363499</v>
+        <v>5.72939180438419</v>
       </c>
       <c r="N43">
-        <v>0.120667848132987</v>
+        <v>0.08201360044071641</v>
       </c>
       <c r="O43">
-        <v>0.5015026923599379</v>
+        <v>0.3408533595943669</v>
       </c>
       <c r="P43">
-        <v>58.09454927368202</v>
+        <v>39.4847776407209</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2574,49 +2574,49 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>2.827459437720646</v>
+        <v>1.921722581246246</v>
       </c>
       <c r="C44">
-        <v>18.95129741618281</v>
+        <v>12.880515880345</v>
       </c>
       <c r="D44">
-        <v>0.005578712133112046</v>
+        <v>0.003791650178053958</v>
       </c>
       <c r="E44">
-        <v>0.5306348879889531</v>
+        <v>0.3606534661616579</v>
       </c>
       <c r="F44">
-        <v>2.957114305383074</v>
+        <v>2.009844335932227</v>
       </c>
       <c r="G44">
-        <v>4.804100608815844</v>
+        <v>3.265174558961218</v>
       </c>
       <c r="H44">
-        <v>1.286621555655575</v>
+        <v>0.8744704394467707</v>
       </c>
       <c r="I44">
-        <v>9.535944071038795</v>
+        <v>6.481238531785815</v>
       </c>
       <c r="J44">
-        <v>3.130553010098725</v>
+        <v>2.127724391386836</v>
       </c>
       <c r="K44">
-        <v>4.146200261797339</v>
+        <v>2.818023333303171</v>
       </c>
       <c r="L44">
-        <v>9.77577442084274</v>
+        <v>6.64424260276834</v>
       </c>
       <c r="M44">
-        <v>6.15143235427418</v>
+        <v>4.180907532929003</v>
       </c>
       <c r="N44">
-        <v>0.241335696265974</v>
+        <v>0.1640272008814328</v>
       </c>
       <c r="O44">
-        <v>1.003005384719876</v>
+        <v>0.6817067191887337</v>
       </c>
       <c r="P44">
-        <v>65.34705212291765</v>
+        <v>44.41404322451451</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2624,49 +2624,49 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>2.869584876304089</v>
+        <v>1.950353728165885</v>
       </c>
       <c r="C45">
-        <v>19.23364690092927</v>
+        <v>13.07241867951581</v>
       </c>
       <c r="D45">
-        <v>0.01148558380346598</v>
+        <v>0.007806338601875797</v>
       </c>
       <c r="E45">
-        <v>1.092483592918432</v>
+        <v>0.7425218420975308</v>
       </c>
       <c r="F45">
-        <v>3.586287561847559</v>
+        <v>2.437470790385893</v>
       </c>
       <c r="G45">
-        <v>5.826249674521343</v>
+        <v>3.959892550229562</v>
       </c>
       <c r="H45">
-        <v>0.671280811646387</v>
+        <v>0.4562454466678801</v>
       </c>
       <c r="I45">
-        <v>4.975275167498503</v>
+        <v>3.381515755714337</v>
       </c>
       <c r="J45">
-        <v>3.580838032099227</v>
+        <v>2.433766940832888</v>
       </c>
       <c r="K45">
-        <v>4.742571532329834</v>
+        <v>3.223355456586503</v>
       </c>
       <c r="L45">
-        <v>11.04300443835939</v>
+        <v>7.505533310534608</v>
       </c>
       <c r="M45">
-        <v>6.948840252050465</v>
+        <v>4.722877027938317</v>
       </c>
       <c r="N45">
-        <v>0.107260309451544</v>
+        <v>0.07290097816952569</v>
       </c>
       <c r="O45">
-        <v>0.4457801709866115</v>
+        <v>0.3029807640838816</v>
       </c>
       <c r="P45">
-        <v>65.13458890474612</v>
+        <v>44.2696396095245</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2674,49 +2674,49 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>2.463495648359703</v>
+        <v>1.674349471860555</v>
       </c>
       <c r="C46">
-        <v>16.51179786797334</v>
+        <v>11.22247569550917</v>
       </c>
       <c r="D46">
-        <v>0.01772061501106179</v>
+        <v>0.01204406527146552</v>
       </c>
       <c r="E46">
-        <v>1.685546114788439</v>
+        <v>1.145605127807619</v>
       </c>
       <c r="F46">
-        <v>5.536724656887458</v>
+        <v>3.763112799192254</v>
       </c>
       <c r="G46">
-        <v>8.994911778208388</v>
+        <v>6.11351832316143</v>
       </c>
       <c r="H46">
-        <v>0.615340744009188</v>
+        <v>0.4182249927788903</v>
       </c>
       <c r="I46">
-        <v>4.560668903540293</v>
+        <v>3.099722776071477</v>
       </c>
       <c r="J46">
-        <v>3.9239123345758</v>
+        <v>2.666942216601308</v>
       </c>
       <c r="K46">
-        <v>5.196949643211733</v>
+        <v>3.532179931469043</v>
       </c>
       <c r="L46">
-        <v>11.76713587694034</v>
+        <v>7.997699429258186</v>
       </c>
       <c r="M46">
-        <v>7.404501907922626</v>
+        <v>5.032573882229354</v>
       </c>
       <c r="N46">
-        <v>0.107260309451544</v>
+        <v>0.07290097816952569</v>
       </c>
       <c r="O46">
-        <v>0.4457801709866115</v>
+        <v>0.3029807640838816</v>
       </c>
       <c r="P46">
-        <v>69.23174657186651</v>
+        <v>47.05433045346417</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2724,49 +2724,49 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>1.833299087151407</v>
+        <v>1.246027513942739</v>
       </c>
       <c r="C47">
-        <v>12.2878495761662</v>
+        <v>8.351609819913802</v>
       </c>
       <c r="D47">
-        <v>0.01345454102691729</v>
+        <v>0.009144568076483076</v>
       </c>
       <c r="E47">
-        <v>1.279766494561593</v>
+        <v>0.869811300742822</v>
       </c>
       <c r="F47">
-        <v>3.208783607968868</v>
+        <v>2.180894917713694</v>
       </c>
       <c r="G47">
-        <v>5.212960235098041</v>
+        <v>3.543061755468556</v>
       </c>
       <c r="H47">
-        <v>0.2657153212766948</v>
+        <v>0.1805971559727026</v>
       </c>
       <c r="I47">
-        <v>1.96937975380149</v>
+        <v>1.338516653303593</v>
       </c>
       <c r="J47">
-        <v>3.473627312575298</v>
+        <v>2.360899667155257</v>
       </c>
       <c r="K47">
-        <v>4.60057837267924</v>
+        <v>3.12684780818571</v>
       </c>
       <c r="L47">
-        <v>7.965445824390381</v>
+        <v>5.413827305959391</v>
       </c>
       <c r="M47">
-        <v>5.012278214593779</v>
+        <v>3.40666539720141</v>
       </c>
       <c r="N47">
-        <v>0.06703769340721499</v>
+        <v>0.04556311135595359</v>
       </c>
       <c r="O47">
-        <v>0.2786126068666321</v>
+        <v>0.1893629775524261</v>
       </c>
       <c r="P47">
-        <v>47.46878864156375</v>
+        <v>32.26282995254454</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2774,49 +2774,49 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>1.924290034491642</v>
+        <v>1.307870791289161</v>
       </c>
       <c r="C48">
-        <v>12.89772446321857</v>
+        <v>8.766119866122761</v>
       </c>
       <c r="D48">
-        <v>0.01345454102691729</v>
+        <v>0.009144568076483076</v>
       </c>
       <c r="E48">
-        <v>1.279766494561593</v>
+        <v>0.869811300742822</v>
       </c>
       <c r="F48">
-        <v>2.831279654090177</v>
+        <v>1.924319045041494</v>
       </c>
       <c r="G48">
-        <v>4.599670795674744</v>
+        <v>3.126230960707548</v>
       </c>
       <c r="H48">
-        <v>0.2657153212766948</v>
+        <v>0.1805971559727026</v>
       </c>
       <c r="I48">
-        <v>1.96937975380149</v>
+        <v>1.338516653303593</v>
       </c>
       <c r="J48">
-        <v>3.259205873527439</v>
+        <v>2.215165119799994</v>
       </c>
       <c r="K48">
-        <v>4.316592053378051</v>
+        <v>2.933832511384123</v>
       </c>
       <c r="L48">
-        <v>7.0602815261642</v>
+        <v>4.798619657554911</v>
       </c>
       <c r="M48">
-        <v>4.442701144753576</v>
+        <v>3.019544329337613</v>
       </c>
       <c r="N48">
-        <v>0.13407538681443</v>
+        <v>0.09112622271190718</v>
       </c>
       <c r="O48">
-        <v>0.5572252137332642</v>
+        <v>0.3787259551048521</v>
       </c>
       <c r="P48">
-        <v>45.55136225651279</v>
+        <v>30.95962413714996</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2824,49 +2824,49 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>1.941140209925021</v>
+        <v>1.319323250057017</v>
       </c>
       <c r="C49">
-        <v>13.01066425711716</v>
+        <v>8.84288098579108</v>
       </c>
       <c r="D49">
-        <v>0.01050110519174033</v>
+        <v>0.007137223864572156</v>
       </c>
       <c r="E49">
-        <v>0.9988421420968526</v>
+        <v>0.6788771127748854</v>
       </c>
       <c r="F49">
-        <v>3.020031631029523</v>
+        <v>2.052606981377594</v>
       </c>
       <c r="G49">
-        <v>4.906315515386393</v>
+        <v>3.334646358088052</v>
       </c>
       <c r="H49">
-        <v>0.2517303043673952</v>
+        <v>0.1710920425004551</v>
       </c>
       <c r="I49">
-        <v>1.865728187811938</v>
+        <v>1.268068408392877</v>
       </c>
       <c r="J49">
-        <v>2.573057268574295</v>
+        <v>1.748814568263153</v>
       </c>
       <c r="K49">
-        <v>3.407835831614251</v>
+        <v>2.316183561619045</v>
       </c>
       <c r="L49">
-        <v>6.517182947228493</v>
+        <v>4.429495068512225</v>
       </c>
       <c r="M49">
-        <v>4.100954902849455</v>
+        <v>2.787271688619335</v>
       </c>
       <c r="N49">
-        <v>0.09385277077010104</v>
+        <v>0.06378835589833501</v>
       </c>
       <c r="O49">
-        <v>0.390057649613285</v>
+        <v>0.2651081685733964</v>
       </c>
       <c r="P49">
-        <v>43.08789472357589</v>
+        <v>29.28529377433202</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_PM25.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>1.709852094040908</v>
+        <v>2.515731192203172</v>
       </c>
       <c r="C2">
-        <v>11.46043516648098</v>
+        <v>16.86191122905895</v>
       </c>
       <c r="D2">
-        <v>0.01070583579685824</v>
+        <v>0.01575165778761049</v>
       </c>
       <c r="E2">
-        <v>1.018315669162328</v>
+        <v>1.498263213145279</v>
       </c>
       <c r="F2">
-        <v>2.736809308503457</v>
+        <v>4.026708841372695</v>
       </c>
       <c r="G2">
-        <v>4.446195144117404</v>
+        <v>6.541754020515191</v>
       </c>
       <c r="H2">
-        <v>0.1710920425004551</v>
+        <v>0.2517303043673952</v>
       </c>
       <c r="I2">
-        <v>1.268068408392877</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="J2">
-        <v>2.929264401840781</v>
+        <v>4.309870924861944</v>
       </c>
       <c r="K2">
-        <v>3.879607465711899</v>
+        <v>5.708125017953871</v>
       </c>
       <c r="L2">
-        <v>4.183412009150436</v>
+        <v>6.15511722793802</v>
       </c>
       <c r="M2">
-        <v>2.632423261473816</v>
+        <v>3.873124074913375</v>
       </c>
       <c r="N2">
-        <v>0.1184640895254793</v>
+        <v>0.174298002858759</v>
       </c>
       <c r="O2">
-        <v>0.4923437416363077</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="P2">
-        <v>37.05698863833398</v>
+        <v>54.52250667264146</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>1.765969142003404</v>
+        <v>2.598297051826719</v>
       </c>
       <c r="C3">
-        <v>11.83656465285578</v>
+        <v>17.41531621916204</v>
       </c>
       <c r="D3">
-        <v>0.01182102702569763</v>
+        <v>0.01739245547381991</v>
       </c>
       <c r="E3">
-        <v>1.124390218033404</v>
+        <v>1.654332297847911</v>
       </c>
       <c r="F3">
-        <v>2.779571953948825</v>
+        <v>4.089626167019145</v>
       </c>
       <c r="G3">
-        <v>4.515666943244237</v>
+        <v>6.643968927085742</v>
       </c>
       <c r="H3">
-        <v>0.1710920425004551</v>
+        <v>0.2517303043673952</v>
       </c>
       <c r="I3">
-        <v>1.268068408392877</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="J3">
-        <v>2.827250218692097</v>
+        <v>4.159775917528444</v>
       </c>
       <c r="K3">
-        <v>3.744496757950788</v>
+        <v>5.509334594443041</v>
       </c>
       <c r="L3">
-        <v>3.32212130138417</v>
+        <v>4.88788721042137</v>
       </c>
       <c r="M3">
-        <v>2.090453766464501</v>
+        <v>3.07571617713709</v>
       </c>
       <c r="N3">
-        <v>0.1093514672542886</v>
+        <v>0.160890464177316</v>
       </c>
       <c r="O3">
-        <v>0.4544711461258225</v>
+        <v>0.6686702564799173</v>
       </c>
       <c r="P3">
-        <v>36.02128904587635</v>
+        <v>52.99866623078189</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>1.788874059539115</v>
+        <v>2.631997402693475</v>
       </c>
       <c r="C4">
-        <v>11.99008689219243</v>
+        <v>17.64119580695921</v>
       </c>
       <c r="D4">
-        <v>0.01092887404262612</v>
+        <v>0.01607981732485237</v>
       </c>
       <c r="E4">
-        <v>1.039530578936543</v>
+        <v>1.529477030085806</v>
       </c>
       <c r="F4">
-        <v>2.822334599394192</v>
+        <v>4.152543492665592</v>
       </c>
       <c r="G4">
-        <v>4.585138742371072</v>
+        <v>6.746183833656289</v>
       </c>
       <c r="H4">
-        <v>0.1615869290282076</v>
+        <v>0.2377452874580954</v>
       </c>
       <c r="I4">
-        <v>1.197620163482161</v>
+        <v>1.762076621822386</v>
       </c>
       <c r="J4">
-        <v>2.637795307130256</v>
+        <v>3.881028046766228</v>
       </c>
       <c r="K4">
-        <v>3.493576872108725</v>
+        <v>5.140152379351496</v>
       </c>
       <c r="L4">
-        <v>3.32212130138417</v>
+        <v>4.88788721042137</v>
       </c>
       <c r="M4">
-        <v>2.090453766464501</v>
+        <v>3.07571617713709</v>
       </c>
       <c r="N4">
-        <v>0.1002388449830978</v>
+        <v>0.147482925495873</v>
       </c>
       <c r="O4">
-        <v>0.4165985506153373</v>
+        <v>0.6129477351065907</v>
       </c>
       <c r="P4">
-        <v>35.65688548167243</v>
+        <v>52.46251376694435</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>1.934320285890886</v>
+        <v>2.845994630697362</v>
       </c>
       <c r="C5">
-        <v>12.96495311198016</v>
+        <v>19.07553118947126</v>
       </c>
       <c r="D5">
-        <v>0.009144568076483076</v>
+        <v>0.01345454102691729</v>
       </c>
       <c r="E5">
-        <v>0.869811300742822</v>
+        <v>1.279766494561593</v>
       </c>
       <c r="F5">
-        <v>2.95062253573029</v>
+        <v>4.341295469604938</v>
       </c>
       <c r="G5">
-        <v>4.793554139751574</v>
+        <v>7.052828553367942</v>
       </c>
       <c r="H5">
-        <v>0.2756482906951777</v>
+        <v>0.405565490369692</v>
       </c>
       <c r="I5">
-        <v>2.042999102410746</v>
+        <v>3.005895413697013</v>
       </c>
       <c r="J5">
-        <v>2.594074942923676</v>
+        <v>3.81670161505187</v>
       </c>
       <c r="K5">
-        <v>3.435672283068249</v>
+        <v>5.054956483561139</v>
       </c>
       <c r="L5">
-        <v>3.199079771703275</v>
+        <v>4.706854350776135</v>
       </c>
       <c r="M5">
-        <v>2.013029552891742</v>
+        <v>2.961800763169051</v>
       </c>
       <c r="N5">
-        <v>0.09112622271190718</v>
+        <v>0.13407538681443</v>
       </c>
       <c r="O5">
-        <v>0.3787259551048521</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="P5">
-        <v>37.55276206368184</v>
+        <v>55.2519455959026</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>2.208034050442647</v>
+        <v>3.248713823555069</v>
       </c>
       <c r="C6">
-        <v>14.79954387205313</v>
+        <v>21.77479226364747</v>
       </c>
       <c r="D6">
-        <v>0.008698491584947317</v>
+        <v>0.01279822195243352</v>
       </c>
       <c r="E6">
-        <v>0.8273814811943915</v>
+        <v>1.217338860680539</v>
       </c>
       <c r="F6">
-        <v>2.694046663058091</v>
+        <v>3.963791515726248</v>
       </c>
       <c r="G6">
-        <v>4.37672334499057</v>
+        <v>6.439539113944641</v>
       </c>
       <c r="H6">
-        <v>0.6083272622238404</v>
+        <v>0.8950410821951829</v>
       </c>
       <c r="I6">
-        <v>4.508687674285785</v>
+        <v>6.633700223331335</v>
       </c>
       <c r="J6">
-        <v>2.186018210328941</v>
+        <v>3.216321585717868</v>
       </c>
       <c r="K6">
-        <v>2.895229452023806</v>
+        <v>4.259794789517814</v>
       </c>
       <c r="L6">
-        <v>1.599539885851638</v>
+        <v>2.353427175388068</v>
       </c>
       <c r="M6">
-        <v>1.006514776445871</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="N6">
-        <v>0.08201360044071641</v>
+        <v>0.120667848132987</v>
       </c>
       <c r="O6">
-        <v>0.3408533595943669</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="P6">
-        <v>38.14161212451874</v>
+        <v>56.11832957773412</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>2.356916014424776</v>
+        <v>3.46776610418897</v>
       </c>
       <c r="C7">
-        <v>15.79743842774136</v>
+        <v>23.24300958432908</v>
       </c>
       <c r="D7">
-        <v>0.003345573686518199</v>
+        <v>0.004922393058628276</v>
       </c>
       <c r="E7">
-        <v>0.3182236466132276</v>
+        <v>0.4682072541078996</v>
       </c>
       <c r="F7">
-        <v>1.838793754150761</v>
+        <v>2.705445002797281</v>
       </c>
       <c r="G7">
-        <v>2.98728736245388</v>
+        <v>4.395240982533642</v>
       </c>
       <c r="H7">
-        <v>0.6368426026405831</v>
+        <v>0.9369961329230818</v>
       </c>
       <c r="I7">
-        <v>4.72003240901793</v>
+        <v>6.944654921299993</v>
       </c>
       <c r="J7">
-        <v>1.413625109346049</v>
+        <v>2.079887958764222</v>
       </c>
       <c r="K7">
-        <v>1.872248378975394</v>
+        <v>2.75466729722152</v>
       </c>
       <c r="L7">
-        <v>1.599539885851638</v>
+        <v>2.353427175388068</v>
       </c>
       <c r="M7">
-        <v>1.006514776445871</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="N7">
-        <v>0.09112622271190718</v>
+        <v>0.13407538681443</v>
       </c>
       <c r="O7">
-        <v>0.3787259551048521</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="P7">
-        <v>35.02066011916475</v>
+        <v>51.52642578874461</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>1.793455043046258</v>
+        <v>2.638737472866824</v>
       </c>
       <c r="C8">
-        <v>12.02079134005976</v>
+        <v>17.68637172451864</v>
       </c>
       <c r="D8">
-        <v>0.004237726669589718</v>
+        <v>0.006235031207595817</v>
       </c>
       <c r="E8">
-        <v>0.4030832857100882</v>
+        <v>0.5930625218700062</v>
       </c>
       <c r="F8">
-        <v>2.522996081276625</v>
+        <v>3.712122213140454</v>
       </c>
       <c r="G8">
-        <v>4.09883614848323</v>
+        <v>6.030679487662441</v>
       </c>
       <c r="H8">
-        <v>0.3802045388899004</v>
+        <v>0.5594006763719893</v>
       </c>
       <c r="I8">
-        <v>2.817929796428616</v>
+        <v>4.146062639582086</v>
       </c>
       <c r="J8">
-        <v>1.049288740957892</v>
+        <v>1.543834361144576</v>
       </c>
       <c r="K8">
-        <v>1.389710136971426</v>
+        <v>2.044701498968551</v>
       </c>
       <c r="L8">
-        <v>1.476498356170743</v>
+        <v>2.17239431574283</v>
       </c>
       <c r="M8">
-        <v>0.9290905628731118</v>
+        <v>1.366984967616485</v>
       </c>
       <c r="N8">
-        <v>0.01822524454238142</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O8">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P8">
-        <v>28.98009219310059</v>
+        <v>42.63884703080201</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>1.42812160835165</v>
+        <v>2.1012168765421</v>
       </c>
       <c r="C9">
-        <v>9.572111622640175</v>
+        <v>14.08359229915372</v>
       </c>
       <c r="D9">
-        <v>0.004460764915357598</v>
+        <v>0.006563190744837701</v>
       </c>
       <c r="E9">
-        <v>0.4242981954843034</v>
+        <v>0.6242763388105328</v>
       </c>
       <c r="F9">
-        <v>1.582217881478561</v>
+        <v>2.32794104891859</v>
       </c>
       <c r="G9">
-        <v>2.570456567692873</v>
+        <v>3.781951543110346</v>
       </c>
       <c r="H9">
-        <v>0.7223886238908106</v>
+        <v>1.062861285106779</v>
       </c>
       <c r="I9">
-        <v>5.354066613214371</v>
+        <v>7.877519015205961</v>
       </c>
       <c r="J9">
-        <v>0.4809240062723671</v>
+        <v>0.7075907488579309</v>
       </c>
       <c r="K9">
-        <v>0.6369504794452372</v>
+        <v>0.937154853693919</v>
       </c>
       <c r="L9">
-        <v>1.722581415532533</v>
+        <v>2.534460035033303</v>
       </c>
       <c r="M9">
-        <v>1.08393899001863</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="N9">
-        <v>0.02733786681357215</v>
+        <v>0.04022261604432901</v>
       </c>
       <c r="O9">
-        <v>0.1136177865314556</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="P9">
-        <v>25.7234724222819</v>
+        <v>37.84733321089489</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>1.18303899071953</v>
+        <v>1.740623122267836</v>
       </c>
       <c r="C10">
-        <v>7.929423661738013</v>
+        <v>11.66668070972398</v>
       </c>
       <c r="D10">
-        <v>0.002230382457678799</v>
+        <v>0.003281595372418851</v>
       </c>
       <c r="E10">
-        <v>0.2121490977421517</v>
+        <v>0.3121381694052664</v>
       </c>
       <c r="F10">
-        <v>1.325642008806363</v>
+        <v>1.950437095039899</v>
       </c>
       <c r="G10">
-        <v>2.153625772931867</v>
+        <v>3.168662103687046</v>
       </c>
       <c r="H10">
-        <v>0.3611943119454053</v>
+        <v>0.5314306425533896</v>
       </c>
       <c r="I10">
-        <v>2.677033306607186</v>
+        <v>3.938759507602981</v>
       </c>
       <c r="J10">
-        <v>0.4517770968013146</v>
+        <v>0.6647064610483596</v>
       </c>
       <c r="K10">
-        <v>0.5983474200849197</v>
+        <v>0.8803575898336815</v>
       </c>
       <c r="L10">
-        <v>2.091706004575218</v>
+        <v>3.07755861396901</v>
       </c>
       <c r="M10">
-        <v>1.316211630736908</v>
+        <v>1.936562037456687</v>
       </c>
       <c r="N10">
-        <v>0.009112622271190711</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O10">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P10">
-        <v>20.34936490292823</v>
+        <v>29.94032770801532</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.840610473560634</v>
+        <v>1.236802876809865</v>
       </c>
       <c r="C11">
-        <v>5.634266183655083</v>
+        <v>8.289780872156246</v>
       </c>
       <c r="D11">
-        <v>0.004460764915357598</v>
+        <v>0.006563190744837701</v>
       </c>
       <c r="E11">
-        <v>0.4242981954843034</v>
+        <v>0.6242763388105328</v>
       </c>
       <c r="F11">
-        <v>0.6842023271258644</v>
+        <v>1.006677210343174</v>
       </c>
       <c r="G11">
-        <v>1.111548786029351</v>
+        <v>1.635438505128798</v>
       </c>
       <c r="H11">
-        <v>0.1710920425004551</v>
+        <v>0.2517303043673952</v>
       </c>
       <c r="I11">
-        <v>1.268068408392877</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="J11">
-        <v>0.4954974610078934</v>
+        <v>0.729032892762717</v>
       </c>
       <c r="K11">
-        <v>0.6562520091253958</v>
+        <v>0.9655534856240381</v>
       </c>
       <c r="L11">
-        <v>1.476498356170743</v>
+        <v>2.17239431574283</v>
       </c>
       <c r="M11">
-        <v>0.9290905628731118</v>
+        <v>1.366984967616485</v>
       </c>
       <c r="N11">
-        <v>0.03645048908476285</v>
+        <v>0.05363015472577201</v>
       </c>
       <c r="O11">
-        <v>0.1514903820419408</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="P11">
-        <v>13.88382644196777</v>
+        <v>20.42748338813794</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.5165058904303081</v>
+        <v>0.7599429120452986</v>
       </c>
       <c r="C12">
-        <v>3.461926497041476</v>
+        <v>5.093584704826249</v>
       </c>
       <c r="D12">
-        <v>0.004460764915357598</v>
+        <v>0.006563190744837701</v>
       </c>
       <c r="E12">
-        <v>0.4242981954843034</v>
+        <v>0.6242763388105328</v>
       </c>
       <c r="F12">
-        <v>0.3848638090082988</v>
+        <v>0.5662559308180354</v>
       </c>
       <c r="G12">
-        <v>0.62524619214151</v>
+        <v>0.9199341591349488</v>
       </c>
       <c r="H12">
-        <v>0.08554602125022756</v>
+        <v>0.1258651521836976</v>
       </c>
       <c r="I12">
-        <v>0.6340342041964386</v>
+        <v>0.9328640939059692</v>
       </c>
       <c r="J12">
-        <v>0.2768956399749992</v>
+        <v>0.4074007341909299</v>
       </c>
       <c r="K12">
-        <v>0.3667290639230154</v>
+        <v>0.5395740066722564</v>
       </c>
       <c r="L12">
-        <v>1.107373767128056</v>
+        <v>1.629295736807123</v>
       </c>
       <c r="M12">
-        <v>0.6968179221548337</v>
+        <v>1.025238725712364</v>
       </c>
       <c r="N12">
-        <v>0.01822524454238142</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O12">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P12">
-        <v>8.678668403212178</v>
+        <v>12.76905580596178</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,43 +1030,43 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.3664786805713936</v>
+        <v>0.5392056138680609</v>
       </c>
       <c r="C13">
-        <v>2.456355829386414</v>
+        <v>3.614073404754765</v>
       </c>
       <c r="D13">
-        <v>0.006691147373036397</v>
+        <v>0.009844786117256553</v>
       </c>
       <c r="E13">
-        <v>0.6364472932264552</v>
+        <v>0.9364145082157992</v>
       </c>
       <c r="F13">
-        <v>0.4276264544536654</v>
+        <v>0.6291732564644835</v>
       </c>
       <c r="G13">
-        <v>0.6947179912683442</v>
+        <v>1.022149065705499</v>
       </c>
       <c r="H13">
-        <v>0.05703068083348502</v>
+        <v>0.08391010145579837</v>
       </c>
       <c r="I13">
-        <v>0.4226894694642921</v>
+        <v>0.6219093959373129</v>
       </c>
       <c r="J13">
-        <v>0.2914690947105254</v>
+        <v>0.4288428780957158</v>
       </c>
       <c r="K13">
-        <v>0.386030593603174</v>
+        <v>0.5679726386023753</v>
       </c>
       <c r="L13">
-        <v>1.353456826489848</v>
+        <v>1.991361456097595</v>
       </c>
       <c r="M13">
-        <v>0.8516663493003526</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="P13">
-        <v>7.950660410680986</v>
+        <v>11.69792665896311</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.2416468800017627</v>
+        <v>0.3555387016442526</v>
       </c>
       <c r="C14">
-        <v>1.619659625001665</v>
+        <v>2.383029651260175</v>
       </c>
       <c r="D14">
-        <v>0.007137223864572156</v>
+        <v>0.01050110519174033</v>
       </c>
       <c r="E14">
-        <v>0.6788771127748854</v>
+        <v>0.9988421420968526</v>
       </c>
       <c r="F14">
-        <v>0.2565758726721992</v>
+        <v>0.3775039538786903</v>
       </c>
       <c r="G14">
-        <v>0.4168307947610065</v>
+        <v>0.6132894394232992</v>
       </c>
       <c r="H14">
-        <v>0.02851534041674251</v>
+        <v>0.04195505072789919</v>
       </c>
       <c r="I14">
-        <v>0.2113447347321461</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="J14">
-        <v>0.320616004181578</v>
+        <v>0.4717271659052875</v>
       </c>
       <c r="K14">
-        <v>0.4246336529634914</v>
+        <v>0.6247699024626128</v>
       </c>
       <c r="L14">
-        <v>1.968664474894324</v>
+        <v>2.896525754323775</v>
       </c>
       <c r="M14">
-        <v>1.238787417164149</v>
+        <v>1.822646623488646</v>
       </c>
       <c r="N14">
-        <v>0.009112622271190711</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O14">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P14">
-        <v>7.460274351210198</v>
+        <v>10.97641424842666</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1124,49 +1124,49 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.1843845861624826</v>
+        <v>0.2712878244773683</v>
       </c>
       <c r="C15">
-        <v>1.235854026660039</v>
+        <v>1.818330681767241</v>
       </c>
       <c r="D15">
-        <v>0.005352917898429118</v>
+        <v>0.007875828893805243</v>
       </c>
       <c r="E15">
-        <v>0.509157834581164</v>
+        <v>0.7491316065726394</v>
       </c>
       <c r="F15">
-        <v>0.4703890998990318</v>
+        <v>0.6920905821109322</v>
       </c>
       <c r="G15">
-        <v>0.7641897903951788</v>
+        <v>1.124363972276049</v>
       </c>
       <c r="H15">
-        <v>0.03802045388899002</v>
+        <v>0.05594006763719893</v>
       </c>
       <c r="I15">
-        <v>0.2817929796428615</v>
+        <v>0.4146062639582084</v>
       </c>
       <c r="J15">
-        <v>0.2477487305039467</v>
+        <v>0.3645164463813585</v>
       </c>
       <c r="K15">
-        <v>0.3281260045626979</v>
+        <v>0.482776742812019</v>
       </c>
       <c r="L15">
-        <v>1.722581415532533</v>
+        <v>2.534460035033303</v>
       </c>
       <c r="M15">
-        <v>1.08393899001863</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="N15">
-        <v>0.01822524454238142</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O15">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P15">
-        <v>6.965507265309336</v>
+        <v>10.24845596758223</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1174,49 +1174,49 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.1683511438874839</v>
+        <v>0.2476975788706406</v>
       </c>
       <c r="C16">
-        <v>1.128388459124382</v>
+        <v>1.66021497030922</v>
       </c>
       <c r="D16">
-        <v>0.002007344211910919</v>
+        <v>0.002953435835176966</v>
       </c>
       <c r="E16">
-        <v>0.1909341879679365</v>
+        <v>0.2809243524647397</v>
       </c>
       <c r="F16">
-        <v>0.5559143907897649</v>
+        <v>0.8179252334038292</v>
       </c>
       <c r="G16">
-        <v>0.9031333886488474</v>
+        <v>1.328793785417148</v>
       </c>
       <c r="H16">
-        <v>0.02851534041674251</v>
+        <v>0.04195505072789919</v>
       </c>
       <c r="I16">
-        <v>0.2113447347321461</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="J16">
-        <v>0.2331752757684204</v>
+        <v>0.3430743024765726</v>
       </c>
       <c r="K16">
-        <v>0.3088244748825393</v>
+        <v>0.4543781108819002</v>
       </c>
       <c r="L16">
-        <v>1.476498356170743</v>
+        <v>2.17239431574283</v>
       </c>
       <c r="M16">
-        <v>0.9290905628731118</v>
+        <v>1.366984967616485</v>
       </c>
       <c r="N16">
-        <v>0.009112622271190711</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O16">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P16">
-        <v>6.183162877255705</v>
+        <v>9.097380861769867</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1224,49 +1224,49 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.3389927795285392</v>
+        <v>0.4987651928279564</v>
       </c>
       <c r="C17">
-        <v>2.272129142182432</v>
+        <v>3.343017899398157</v>
       </c>
       <c r="D17">
-        <v>0.002899497194982439</v>
+        <v>0.004266073984144505</v>
       </c>
       <c r="E17">
-        <v>0.2757938270647972</v>
+        <v>0.4057796202268465</v>
       </c>
       <c r="F17">
-        <v>0.8552529089073309</v>
+        <v>1.258346512928967</v>
       </c>
       <c r="G17">
-        <v>1.389435982536688</v>
+        <v>2.044298131410997</v>
       </c>
       <c r="H17">
-        <v>0.02851534041674251</v>
+        <v>0.04195505072789919</v>
       </c>
       <c r="I17">
-        <v>0.2113447347321461</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="J17">
-        <v>0.5392178252144719</v>
+        <v>0.793359324477074</v>
       </c>
       <c r="K17">
-        <v>0.7141565981658721</v>
+        <v>1.050749381414394</v>
       </c>
       <c r="L17">
-        <v>2.214747534256113</v>
+        <v>3.258591473614247</v>
       </c>
       <c r="M17">
-        <v>1.393635844309667</v>
+        <v>2.050477451424727</v>
       </c>
       <c r="N17">
-        <v>0.02733786681357215</v>
+        <v>0.04022261604432901</v>
       </c>
       <c r="O17">
-        <v>0.1136177865314556</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="P17">
-        <v>10.37707766785481</v>
+        <v>15.26795099056838</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1274,49 +1274,49 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.746700311664215</v>
+        <v>1.098631438256174</v>
       </c>
       <c r="C18">
-        <v>5.004825002374816</v>
+        <v>7.363674562187833</v>
       </c>
       <c r="D18">
-        <v>0.001784305966143039</v>
+        <v>0.002625276297935081</v>
       </c>
       <c r="E18">
-        <v>0.1697192781937213</v>
+        <v>0.2497105355242132</v>
       </c>
       <c r="F18">
-        <v>1.368404654251729</v>
+        <v>2.013354420686348</v>
       </c>
       <c r="G18">
-        <v>2.223097572058702</v>
+        <v>3.270877010257596</v>
       </c>
       <c r="H18">
-        <v>0.4562454466678801</v>
+        <v>0.671280811646387</v>
       </c>
       <c r="I18">
-        <v>3.381515755714337</v>
+        <v>4.975275167498503</v>
       </c>
       <c r="J18">
-        <v>1.238743652519734</v>
+        <v>1.822582231906792</v>
       </c>
       <c r="K18">
-        <v>1.64063002281349</v>
+        <v>2.413883714060095</v>
       </c>
       <c r="L18">
-        <v>4.060370479469541</v>
+        <v>5.974084368292788</v>
       </c>
       <c r="M18">
-        <v>2.554999047901058</v>
+        <v>3.759208660945333</v>
       </c>
       <c r="N18">
-        <v>0.02733786681357215</v>
+        <v>0.04022261604432901</v>
       </c>
       <c r="O18">
-        <v>0.1136177865314556</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="P18">
-        <v>22.98799118294039</v>
+        <v>33.8225783777243</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1324,49 +1324,49 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>1.314742266549874</v>
+        <v>1.93440013975167</v>
       </c>
       <c r="C19">
-        <v>8.812176537923753</v>
+        <v>12.96548833955772</v>
       </c>
       <c r="D19">
-        <v>0.003122535440750319</v>
+        <v>0.00459423352138639</v>
       </c>
       <c r="E19">
-        <v>0.2970087368390124</v>
+        <v>0.4369934371673729</v>
       </c>
       <c r="F19">
-        <v>2.522996081276625</v>
+        <v>3.712122213140454</v>
       </c>
       <c r="G19">
-        <v>4.09883614848323</v>
+        <v>6.030679487662441</v>
       </c>
       <c r="H19">
-        <v>0.9410062337525033</v>
+        <v>1.384516674020673</v>
       </c>
       <c r="I19">
-        <v>6.974376246160825</v>
+        <v>10.26150503296566</v>
       </c>
       <c r="J19">
-        <v>2.098577481915784</v>
+        <v>3.087668722289152</v>
       </c>
       <c r="K19">
-        <v>2.779420273942853</v>
+        <v>4.089402997937102</v>
       </c>
       <c r="L19">
-        <v>7.259450251172818</v>
+        <v>10.68093871906891</v>
       </c>
       <c r="M19">
-        <v>4.5680286007928</v>
+        <v>6.721009424114385</v>
       </c>
       <c r="N19">
-        <v>0.09112622271190718</v>
+        <v>0.13407538681443</v>
       </c>
       <c r="O19">
-        <v>0.3787259551048521</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="P19">
-        <v>42.13959357206759</v>
+        <v>62.00062002174462</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1374,49 +1374,49 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>1.780857338401616</v>
+        <v>2.62020227989011</v>
       </c>
       <c r="C20">
-        <v>11.9363541084246</v>
+        <v>17.56213795123019</v>
       </c>
       <c r="D20">
-        <v>0.003345573686518199</v>
+        <v>0.004922393058628276</v>
       </c>
       <c r="E20">
-        <v>0.3182236466132276</v>
+        <v>0.4682072541078996</v>
       </c>
       <c r="F20">
-        <v>2.22365756315906</v>
+        <v>3.271700933615317</v>
       </c>
       <c r="G20">
-        <v>3.61253355459539</v>
+        <v>5.315175141668592</v>
       </c>
       <c r="H20">
-        <v>0.8174397586132854</v>
+        <v>1.202711454199777</v>
       </c>
       <c r="I20">
-        <v>6.058549062321524</v>
+        <v>8.914034675101485</v>
       </c>
       <c r="J20">
-        <v>2.040283662973678</v>
+        <v>3.00190014667001</v>
       </c>
       <c r="K20">
-        <v>2.702214155222218</v>
+        <v>3.975808470216626</v>
       </c>
       <c r="L20">
-        <v>6.275118013725654</v>
+        <v>9.232675841907028</v>
       </c>
       <c r="M20">
-        <v>3.948634892210725</v>
+        <v>5.809686112370061</v>
       </c>
       <c r="N20">
-        <v>0.09112622271190718</v>
+        <v>0.13407538681443</v>
       </c>
       <c r="O20">
-        <v>0.3787259551048521</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="P20">
-        <v>42.18706350776426</v>
+        <v>62.07046325458341</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1424,49 +1424,49 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>1.412088166076652</v>
+        <v>2.077626630935373</v>
       </c>
       <c r="C21">
-        <v>9.464646055104517</v>
+        <v>13.92547658769571</v>
       </c>
       <c r="D21">
-        <v>0.003568611932286078</v>
+        <v>0.005250552595870163</v>
       </c>
       <c r="E21">
-        <v>0.3394385563874427</v>
+        <v>0.4994210710484263</v>
       </c>
       <c r="F21">
-        <v>1.11182878157953</v>
+        <v>1.635850466807658</v>
       </c>
       <c r="G21">
-        <v>1.806266777297695</v>
+        <v>2.657587570834296</v>
       </c>
       <c r="H21">
-        <v>0.3421840850009102</v>
+        <v>0.5034606087347904</v>
       </c>
       <c r="I21">
-        <v>2.536136816785755</v>
+        <v>3.731456375623877</v>
       </c>
       <c r="J21">
-        <v>1.60308002090789</v>
+        <v>2.358635829526437</v>
       </c>
       <c r="K21">
-        <v>2.123168264817457</v>
+        <v>3.123849512313063</v>
       </c>
       <c r="L21">
-        <v>4.552536598193121</v>
+        <v>6.698215806873732</v>
       </c>
       <c r="M21">
-        <v>2.864695902192095</v>
+        <v>4.214870316817495</v>
       </c>
       <c r="N21">
-        <v>0.03645048908476285</v>
+        <v>0.05363015472577201</v>
       </c>
       <c r="O21">
-        <v>0.1514903820419408</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="P21">
-        <v>28.34757950740205</v>
+        <v>41.70822157002581</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1474,49 +1474,49 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>1.672058980106983</v>
+        <v>2.460125613273028</v>
       </c>
       <c r="C22">
-        <v>11.2071234715755</v>
+        <v>16.48920990919362</v>
       </c>
       <c r="D22">
-        <v>0.011151912288394</v>
+        <v>0.01640797686209425</v>
       </c>
       <c r="E22">
-        <v>1.060745488710758</v>
+        <v>1.560690847026332</v>
       </c>
       <c r="F22">
-        <v>3.463774281074689</v>
+        <v>5.096303377362318</v>
       </c>
       <c r="G22">
-        <v>5.62721572927359</v>
+        <v>8.279407432214541</v>
       </c>
       <c r="H22">
-        <v>0.3516891984731577</v>
+        <v>0.51744562564409</v>
       </c>
       <c r="I22">
-        <v>2.606585061696469</v>
+        <v>3.835107941613429</v>
       </c>
       <c r="J22">
-        <v>3.031278584989465</v>
+        <v>4.459965932195444</v>
       </c>
       <c r="K22">
-        <v>4.01471817347301</v>
+        <v>5.906915441464702</v>
       </c>
       <c r="L22">
-        <v>8.243782488619981</v>
+        <v>12.12920159623081</v>
       </c>
       <c r="M22">
-        <v>5.187422309374874</v>
+        <v>7.632332735858708</v>
       </c>
       <c r="N22">
-        <v>0.03645048908476285</v>
+        <v>0.05363015472577201</v>
       </c>
       <c r="O22">
-        <v>0.1514903820419408</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="P22">
-        <v>46.66548655078358</v>
+        <v>68.65963466915819</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1524,49 +1524,49 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>1.502562590342715</v>
+        <v>2.210743016859049</v>
       </c>
       <c r="C23">
-        <v>10.07105890048429</v>
+        <v>14.81770095949454</v>
       </c>
       <c r="D23">
-        <v>0.01159798877992975</v>
+        <v>0.01706429593657802</v>
       </c>
       <c r="E23">
-        <v>1.103175308259189</v>
+        <v>1.623118480907386</v>
       </c>
       <c r="F23">
-        <v>2.822334599394192</v>
+        <v>4.152543492665592</v>
       </c>
       <c r="G23">
-        <v>4.585138742371072</v>
+        <v>6.746183833656289</v>
       </c>
       <c r="H23">
-        <v>0.2186176098616927</v>
+        <v>0.3216553889138937</v>
       </c>
       <c r="I23">
-        <v>1.620309632946454</v>
+        <v>2.383986017759699</v>
       </c>
       <c r="J23">
-        <v>3.279027315493411</v>
+        <v>4.824482378576803</v>
       </c>
       <c r="K23">
-        <v>4.342844178035708</v>
+        <v>6.389692184276721</v>
       </c>
       <c r="L23">
-        <v>6.275118013725654</v>
+        <v>9.232675841907028</v>
       </c>
       <c r="M23">
-        <v>3.948634892210725</v>
+        <v>5.809686112370061</v>
       </c>
       <c r="N23">
-        <v>0.04556311135595359</v>
+        <v>0.06703769340721499</v>
       </c>
       <c r="O23">
-        <v>0.1893629775524261</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="P23">
-        <v>40.01534586081342</v>
+        <v>58.87518230359748</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1574,49 +1574,49 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>1.577003572333779</v>
+        <v>2.320269157176</v>
       </c>
       <c r="C24">
-        <v>10.57000617832841</v>
+        <v>15.55180961983535</v>
       </c>
       <c r="D24">
-        <v>0.01159798877992975</v>
+        <v>0.01706429593657802</v>
       </c>
       <c r="E24">
-        <v>1.103175308259189</v>
+        <v>1.623118480907386</v>
       </c>
       <c r="F24">
-        <v>2.522996081276625</v>
+        <v>3.712122213140454</v>
       </c>
       <c r="G24">
-        <v>4.09883614848323</v>
+        <v>6.030679487662441</v>
       </c>
       <c r="H24">
-        <v>0.2091124963894452</v>
+        <v>0.307670372004594</v>
       </c>
       <c r="I24">
-        <v>1.549861388035739</v>
+        <v>2.280334451770146</v>
       </c>
       <c r="J24">
-        <v>3.060425494460517</v>
+        <v>4.502850220005015</v>
       </c>
       <c r="K24">
-        <v>4.053321232833328</v>
+        <v>5.963712705324939</v>
       </c>
       <c r="L24">
-        <v>5.536868835640286</v>
+        <v>8.146478684035621</v>
       </c>
       <c r="M24">
-        <v>3.484089610774168</v>
+        <v>5.126193628561817</v>
       </c>
       <c r="N24">
-        <v>0.09112622271190718</v>
+        <v>0.13407538681443</v>
       </c>
       <c r="O24">
-        <v>0.3787259551048521</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="P24">
-        <v>38.2471465134114</v>
+        <v>56.27360391690802</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1624,49 +1624,49 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>1.590746522855206</v>
+        <v>2.340489367696054</v>
       </c>
       <c r="C25">
-        <v>10.6621195219304</v>
+        <v>15.68733737251366</v>
       </c>
       <c r="D25">
-        <v>0.008921529830715196</v>
+        <v>0.0131263814896754</v>
       </c>
       <c r="E25">
-        <v>0.8485963909686067</v>
+        <v>1.248552677621066</v>
       </c>
       <c r="F25">
-        <v>2.651284017612725</v>
+        <v>3.900874190079799</v>
       </c>
       <c r="G25">
-        <v>4.307251545863735</v>
+        <v>6.337324207374092</v>
       </c>
       <c r="H25">
-        <v>0.1996073829171976</v>
+        <v>0.2936853550952944</v>
       </c>
       <c r="I25">
-        <v>1.479413143125023</v>
+        <v>2.176682885780594</v>
       </c>
       <c r="J25">
-        <v>2.419193486097361</v>
+        <v>3.559395888194441</v>
       </c>
       <c r="K25">
-        <v>3.204053926906345</v>
+        <v>4.714172900399714</v>
       </c>
       <c r="L25">
-        <v>5.167744246597596</v>
+        <v>7.603380105099912</v>
       </c>
       <c r="M25">
-        <v>3.251816970055891</v>
+        <v>4.784447386657696</v>
       </c>
       <c r="N25">
-        <v>0.06378835589833501</v>
+        <v>0.09385277077010104</v>
       </c>
       <c r="O25">
-        <v>0.2651081685733964</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="P25">
-        <v>36.11964520923253</v>
+        <v>53.14337913838538</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1674,49 +1674,49 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>1.63655635792663</v>
+        <v>2.407890069429561</v>
       </c>
       <c r="C26">
-        <v>10.9691640006037</v>
+        <v>16.139096548108</v>
       </c>
       <c r="D26">
-        <v>0.009590644568018839</v>
+        <v>0.01411086010140106</v>
       </c>
       <c r="E26">
-        <v>0.9122411202912521</v>
+        <v>1.342194128442646</v>
       </c>
       <c r="F26">
-        <v>2.35194549949516</v>
+        <v>3.460452910554662</v>
       </c>
       <c r="G26">
-        <v>3.820948951975893</v>
+        <v>5.621819861380242</v>
       </c>
       <c r="H26">
-        <v>0.11406136166697</v>
+        <v>0.1678202029115967</v>
       </c>
       <c r="I26">
-        <v>0.8453789389285843</v>
+        <v>1.243818791874626</v>
       </c>
       <c r="J26">
-        <v>3.08957240393157</v>
+        <v>4.545734507814587</v>
       </c>
       <c r="K26">
-        <v>4.091924292193644</v>
+        <v>6.020509969185178</v>
       </c>
       <c r="L26">
-        <v>6.890325662130133</v>
+        <v>10.13784014013321</v>
       </c>
       <c r="M26">
-        <v>4.335755960074522</v>
+        <v>6.379263182210263</v>
       </c>
       <c r="N26">
-        <v>0.07290097816952569</v>
+        <v>0.107260309451544</v>
       </c>
       <c r="O26">
-        <v>0.3029807640838816</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="P26">
-        <v>39.44334693603948</v>
+        <v>58.03359165258412</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1724,49 +1724,49 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>1.717868815178407</v>
+        <v>2.527526315006537</v>
       </c>
       <c r="C27">
-        <v>11.51416795024881</v>
+        <v>16.94096908478797</v>
       </c>
       <c r="D27">
-        <v>0.007583300356107915</v>
+        <v>0.01115742426622409</v>
       </c>
       <c r="E27">
-        <v>0.7213069323233158</v>
+        <v>1.061269775977906</v>
       </c>
       <c r="F27">
-        <v>3.292723699293223</v>
+        <v>4.844634074776525</v>
       </c>
       <c r="G27">
-        <v>5.349328532766252</v>
+        <v>7.870547805932339</v>
       </c>
       <c r="H27">
-        <v>0.2281227233339401</v>
+        <v>0.3356404058231935</v>
       </c>
       <c r="I27">
-        <v>1.690757877857169</v>
+        <v>2.487637583749251</v>
       </c>
       <c r="J27">
-        <v>2.594074942923676</v>
+        <v>3.81670161505187</v>
       </c>
       <c r="K27">
-        <v>3.435672283068249</v>
+        <v>5.054956483561139</v>
       </c>
       <c r="L27">
-        <v>2.706913652979695</v>
+        <v>3.98272291219519</v>
       </c>
       <c r="M27">
-        <v>1.703332698600705</v>
+        <v>2.506139107296889</v>
       </c>
       <c r="N27">
-        <v>0.06378835589833501</v>
+        <v>0.09385277077010104</v>
       </c>
       <c r="O27">
-        <v>0.2651081685733964</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="P27">
-        <v>35.29074993340128</v>
+        <v>51.92381300880842</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1774,49 +1774,49 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>1.662897013092698</v>
+        <v>2.446645472926326</v>
       </c>
       <c r="C28">
-        <v>11.14571457584084</v>
+        <v>16.39885807407475</v>
       </c>
       <c r="D28">
-        <v>0.01159798877992975</v>
+        <v>0.01706429593657802</v>
       </c>
       <c r="E28">
-        <v>1.103175308259189</v>
+        <v>1.623118480907386</v>
       </c>
       <c r="F28">
-        <v>3.249961053847857</v>
+        <v>4.781716749130076</v>
       </c>
       <c r="G28">
-        <v>5.279856733639417</v>
+        <v>7.76833289936179</v>
       </c>
       <c r="H28">
-        <v>0.2091124963894452</v>
+        <v>0.307670372004594</v>
       </c>
       <c r="I28">
-        <v>1.549861388035739</v>
+        <v>2.280334451770146</v>
       </c>
       <c r="J28">
-        <v>2.448340395568414</v>
+        <v>3.602280176004014</v>
       </c>
       <c r="K28">
-        <v>3.242656986266661</v>
+        <v>4.770970164259952</v>
       </c>
       <c r="L28">
-        <v>5.536868835640286</v>
+        <v>8.146478684035621</v>
       </c>
       <c r="M28">
-        <v>3.484089610774168</v>
+        <v>5.126193628561817</v>
       </c>
       <c r="N28">
-        <v>0.1458019563390514</v>
+        <v>0.214520618903088</v>
       </c>
       <c r="O28">
-        <v>0.6059615281677633</v>
+        <v>0.891560341973223</v>
       </c>
       <c r="P28">
-        <v>39.67589587064145</v>
+        <v>58.37574440984935</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1824,49 +1824,49 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>1.828957665226612</v>
+        <v>2.690973016710295</v>
       </c>
       <c r="C29">
-        <v>12.25875081103156</v>
+        <v>18.03648508560424</v>
       </c>
       <c r="D29">
-        <v>0.0100367210595546</v>
+        <v>0.01476717917588483</v>
       </c>
       <c r="E29">
-        <v>0.9546709398396825</v>
+        <v>1.404621762323699</v>
       </c>
       <c r="F29">
-        <v>3.164435762957122</v>
+        <v>4.65588209783718</v>
       </c>
       <c r="G29">
-        <v>5.140913135385746</v>
+        <v>7.563903086220692</v>
       </c>
       <c r="H29">
-        <v>0.2756482906951777</v>
+        <v>0.405565490369692</v>
       </c>
       <c r="I29">
-        <v>2.042999102410746</v>
+        <v>3.005895413697013</v>
       </c>
       <c r="J29">
-        <v>2.433766940832888</v>
+        <v>3.580838032099227</v>
       </c>
       <c r="K29">
-        <v>3.223355456586503</v>
+        <v>4.742571532329834</v>
       </c>
       <c r="L29">
-        <v>3.32212130138417</v>
+        <v>4.88788721042137</v>
       </c>
       <c r="M29">
-        <v>2.090453766464501</v>
+        <v>3.07571617713709</v>
       </c>
       <c r="N29">
-        <v>0.2278155567797679</v>
+        <v>0.3351884670360751</v>
       </c>
       <c r="O29">
-        <v>0.94681488776213</v>
+        <v>1.39306303433316</v>
       </c>
       <c r="P29">
-        <v>37.92074033841617</v>
+        <v>55.79335758529545</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1874,49 +1874,49 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>2.291636999447997</v>
+        <v>3.371720104218719</v>
       </c>
       <c r="C30">
-        <v>15.35990004563191</v>
+        <v>22.59925275910716</v>
       </c>
       <c r="D30">
-        <v>0.004906841406893358</v>
+        <v>0.007219509819321472</v>
       </c>
       <c r="E30">
-        <v>0.4667280150327337</v>
+        <v>0.686703972691586</v>
       </c>
       <c r="F30">
-        <v>2.009844335932227</v>
+        <v>2.957114305383074</v>
       </c>
       <c r="G30">
-        <v>3.265174558961218</v>
+        <v>4.804100608815844</v>
       </c>
       <c r="H30">
-        <v>0.4562454466678801</v>
+        <v>0.671280811646387</v>
       </c>
       <c r="I30">
-        <v>3.381515755714337</v>
+        <v>4.975275167498503</v>
       </c>
       <c r="J30">
-        <v>2.11315093665131</v>
+        <v>3.10911086619394</v>
       </c>
       <c r="K30">
-        <v>2.798721803623012</v>
+        <v>4.11780162986722</v>
       </c>
       <c r="L30">
-        <v>2.583872123298798</v>
+        <v>3.801690052549956</v>
       </c>
       <c r="M30">
-        <v>1.625908485027945</v>
+        <v>2.392223693328848</v>
       </c>
       <c r="N30">
-        <v>0.1184640895254793</v>
+        <v>0.174298002858759</v>
       </c>
       <c r="O30">
-        <v>0.4923437416363077</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="P30">
-        <v>36.96841317855804</v>
+        <v>54.39218426183256</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1924,49 +1924,49 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>2.384401915467632</v>
+        <v>3.508206525229073</v>
       </c>
       <c r="C31">
-        <v>15.98166511494535</v>
+        <v>23.51406508968569</v>
       </c>
       <c r="D31">
-        <v>0.006468109127268518</v>
+        <v>0.009516626580014667</v>
       </c>
       <c r="E31">
-        <v>0.6152323834522399</v>
+        <v>0.9052006912752727</v>
       </c>
       <c r="F31">
-        <v>2.522996081276625</v>
+        <v>3.712122213140454</v>
       </c>
       <c r="G31">
-        <v>4.09883614848323</v>
+        <v>6.030679487662441</v>
       </c>
       <c r="H31">
-        <v>0.6653579430573254</v>
+        <v>0.9789511836509812</v>
       </c>
       <c r="I31">
-        <v>4.931377143750078</v>
+        <v>7.255609619268649</v>
       </c>
       <c r="J31">
-        <v>1.617653475643416</v>
+        <v>2.380077973431223</v>
       </c>
       <c r="K31">
-        <v>2.142469794497615</v>
+        <v>3.152248144243182</v>
       </c>
       <c r="L31">
-        <v>2.337789063937009</v>
+        <v>3.439624333259483</v>
       </c>
       <c r="M31">
-        <v>1.471060057882427</v>
+        <v>2.164392865392768</v>
       </c>
       <c r="N31">
-        <v>0.03645048908476285</v>
+        <v>0.05363015472577201</v>
       </c>
       <c r="O31">
-        <v>0.1514903820419408</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="P31">
-        <v>38.96324810264692</v>
+        <v>57.32721499303832</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1974,49 +1974,49 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>1.886219959065891</v>
+        <v>2.775223893877175</v>
       </c>
       <c r="C32">
-        <v>12.64255640937319</v>
+        <v>18.60118405509718</v>
       </c>
       <c r="D32">
-        <v>0.004683803161125477</v>
+        <v>0.006891350282079589</v>
       </c>
       <c r="E32">
-        <v>0.4455131052585184</v>
+        <v>0.6554901557510594</v>
       </c>
       <c r="F32">
-        <v>2.138132272268327</v>
+        <v>3.145866282322419</v>
       </c>
       <c r="G32">
-        <v>3.473589956341722</v>
+        <v>5.110745328527495</v>
       </c>
       <c r="H32">
-        <v>0.4467403331956329</v>
+        <v>0.6572957947370871</v>
       </c>
       <c r="I32">
-        <v>3.311067510803624</v>
+        <v>4.871623601508951</v>
       </c>
       <c r="J32">
-        <v>1.136729469371049</v>
+        <v>1.672487224573291</v>
       </c>
       <c r="K32">
-        <v>1.505519315052379</v>
+        <v>2.215093290549263</v>
       </c>
       <c r="L32">
-        <v>1.845622945213428</v>
+        <v>2.715492894678539</v>
       </c>
       <c r="M32">
-        <v>1.16136320359139</v>
+        <v>1.708731209520606</v>
       </c>
       <c r="N32">
-        <v>0.08201360044071641</v>
+        <v>0.120667848132987</v>
       </c>
       <c r="O32">
-        <v>0.3408533595943669</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="P32">
-        <v>30.42060524273136</v>
+        <v>44.75829562191807</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2024,49 +2024,49 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>1.579294064087349</v>
+        <v>2.323639192262678</v>
       </c>
       <c r="C33">
-        <v>10.58535840226207</v>
+        <v>15.57439757861507</v>
       </c>
       <c r="D33">
-        <v>0.006691147373036397</v>
+        <v>0.009844786117256553</v>
       </c>
       <c r="E33">
-        <v>0.6364472932264552</v>
+        <v>0.9364145082157992</v>
       </c>
       <c r="F33">
-        <v>1.667743172369295</v>
+        <v>2.453775700211486</v>
       </c>
       <c r="G33">
-        <v>2.709400165946542</v>
+        <v>3.986381356251445</v>
       </c>
       <c r="H33">
-        <v>0.6083272622238404</v>
+        <v>0.8950410821951829</v>
       </c>
       <c r="I33">
-        <v>4.508687674285785</v>
+        <v>6.633700223331335</v>
       </c>
       <c r="J33">
-        <v>0.7286727367763137</v>
+        <v>1.07210719523929</v>
       </c>
       <c r="K33">
-        <v>0.965076484007935</v>
+        <v>1.419931596505938</v>
       </c>
       <c r="L33">
-        <v>1.968664474894324</v>
+        <v>2.896525754323775</v>
       </c>
       <c r="M33">
-        <v>1.238787417164149</v>
+        <v>1.822646623488646</v>
       </c>
       <c r="N33">
-        <v>0.009112622271190711</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O33">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P33">
-        <v>27.25013551239877</v>
+        <v>40.09353565681267</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2074,49 +2074,49 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>1.297563578398092</v>
+        <v>1.909124876601603</v>
       </c>
       <c r="C34">
-        <v>8.697034858421269</v>
+        <v>12.79607864870985</v>
       </c>
       <c r="D34">
-        <v>0.004460764915357598</v>
+        <v>0.006563190744837701</v>
       </c>
       <c r="E34">
-        <v>0.4242981954843034</v>
+        <v>0.6242763388105328</v>
       </c>
       <c r="F34">
-        <v>1.11182878157953</v>
+        <v>1.635850466807658</v>
       </c>
       <c r="G34">
-        <v>1.806266777297695</v>
+        <v>2.657587570834296</v>
       </c>
       <c r="H34">
-        <v>0.2946585176396728</v>
+        <v>0.4335355241882916</v>
       </c>
       <c r="I34">
-        <v>2.183895592232177</v>
+        <v>3.213198545676115</v>
       </c>
       <c r="J34">
-        <v>0.4663505515368407</v>
+        <v>0.6861486049531452</v>
       </c>
       <c r="K34">
-        <v>0.6176489497650786</v>
+        <v>0.9087562217638004</v>
       </c>
       <c r="L34">
-        <v>0.9843322374471619</v>
+        <v>1.448262877161888</v>
       </c>
       <c r="M34">
-        <v>0.6193937085820745</v>
+        <v>0.9113233117443232</v>
       </c>
       <c r="N34">
-        <v>0.03645048908476285</v>
+        <v>0.05363015472577201</v>
       </c>
       <c r="O34">
-        <v>0.1514903820419408</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="P34">
-        <v>18.69567338442596</v>
+        <v>27.50722641821541</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2124,49 +2124,49 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.9173419473052697</v>
+        <v>1.34969905221349</v>
       </c>
       <c r="C35">
-        <v>6.148565685432861</v>
+        <v>9.046477491276772</v>
       </c>
       <c r="D35">
-        <v>0.004237726669589718</v>
+        <v>0.006235031207595817</v>
       </c>
       <c r="E35">
-        <v>0.4030832857100882</v>
+        <v>0.5930625218700062</v>
       </c>
       <c r="F35">
-        <v>1.069066136134164</v>
+        <v>1.57293314116121</v>
       </c>
       <c r="G35">
-        <v>1.736794978170861</v>
+        <v>2.555372664263747</v>
       </c>
       <c r="H35">
-        <v>0.1615869290282076</v>
+        <v>0.2377452874580954</v>
       </c>
       <c r="I35">
-        <v>1.197620163482161</v>
+        <v>1.762076621822386</v>
       </c>
       <c r="J35">
-        <v>0.3497629136526306</v>
+        <v>0.5146114537148591</v>
       </c>
       <c r="K35">
-        <v>0.4632367123238089</v>
+        <v>0.6815671663228503</v>
       </c>
       <c r="L35">
-        <v>1.599539885851638</v>
+        <v>2.353427175388068</v>
       </c>
       <c r="M35">
-        <v>1.006514776445871</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="N35">
-        <v>0.009112622271190711</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O35">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P35">
-        <v>15.10433635798883</v>
+        <v>22.22323804833838</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2174,49 +2174,49 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.5772039218999452</v>
+        <v>0.8492488418421962</v>
       </c>
       <c r="C36">
-        <v>3.868760431283599</v>
+        <v>5.69216561248876</v>
       </c>
       <c r="D36">
-        <v>0.007806338601875797</v>
+        <v>0.01148558380346598</v>
       </c>
       <c r="E36">
-        <v>0.7425218420975308</v>
+        <v>1.092483592918432</v>
       </c>
       <c r="F36">
-        <v>0.4276264544536654</v>
+        <v>0.6291732564644835</v>
       </c>
       <c r="G36">
-        <v>0.6947179912683442</v>
+        <v>1.022149065705499</v>
       </c>
       <c r="H36">
-        <v>0.08554602125022756</v>
+        <v>0.1258651521836976</v>
       </c>
       <c r="I36">
-        <v>0.6340342041964386</v>
+        <v>0.9328640939059692</v>
       </c>
       <c r="J36">
-        <v>0.2914690947105254</v>
+        <v>0.4288428780957158</v>
       </c>
       <c r="K36">
-        <v>0.386030593603174</v>
+        <v>0.5679726386023753</v>
       </c>
       <c r="L36">
-        <v>1.107373767128056</v>
+        <v>1.629295736807123</v>
       </c>
       <c r="M36">
-        <v>0.6968179221548337</v>
+        <v>1.025238725712364</v>
       </c>
       <c r="N36">
-        <v>0.009112622271190711</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O36">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P36">
-        <v>9.566893800429893</v>
+        <v>14.07591523858485</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2224,49 +2224,49 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.4386291708088867</v>
+        <v>0.6453617190983354</v>
       </c>
       <c r="C37">
-        <v>2.939950883296862</v>
+        <v>4.325594106315863</v>
       </c>
       <c r="D37">
-        <v>0.009367606322250954</v>
+        <v>0.01378270056415918</v>
       </c>
       <c r="E37">
-        <v>0.8910262105170368</v>
+        <v>1.310980311502119</v>
       </c>
       <c r="F37">
-        <v>0.4276264544536654</v>
+        <v>0.6291732564644835</v>
       </c>
       <c r="G37">
-        <v>0.6947179912683442</v>
+        <v>1.022149065705499</v>
       </c>
       <c r="H37">
-        <v>0.03802045388899002</v>
+        <v>0.05594006763719893</v>
       </c>
       <c r="I37">
-        <v>0.2817929796428615</v>
+        <v>0.4146062639582084</v>
       </c>
       <c r="J37">
-        <v>0.2477487305039467</v>
+        <v>0.3645164463813585</v>
       </c>
       <c r="K37">
-        <v>0.3281260045626979</v>
+        <v>0.482776742812019</v>
       </c>
       <c r="L37">
-        <v>1.230415296808952</v>
+        <v>1.810328596452359</v>
       </c>
       <c r="M37">
-        <v>0.7742421357275929</v>
+        <v>1.139154139680404</v>
       </c>
       <c r="N37">
-        <v>0.03645048908476285</v>
+        <v>0.05363015472577201</v>
       </c>
       <c r="O37">
-        <v>0.1514903820419408</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="P37">
-        <v>8.489604788928791</v>
+        <v>12.49088365679109</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2274,49 +2274,49 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.246227863508905</v>
+        <v>0.3622787718176038</v>
       </c>
       <c r="C38">
-        <v>1.650364072868996</v>
+        <v>2.428205568819608</v>
       </c>
       <c r="D38">
-        <v>0.006468109127268518</v>
+        <v>0.009516626580014667</v>
       </c>
       <c r="E38">
-        <v>0.6152323834522399</v>
+        <v>0.9052006912752727</v>
       </c>
       <c r="F38">
-        <v>0.3421011635629322</v>
+        <v>0.5033386051715869</v>
       </c>
       <c r="G38">
-        <v>0.5557743930146755</v>
+        <v>0.8177192525643989</v>
       </c>
       <c r="H38">
-        <v>0.01901022694449501</v>
+        <v>0.02797003381859946</v>
       </c>
       <c r="I38">
-        <v>0.1408964898214308</v>
+        <v>0.2073031319791042</v>
       </c>
       <c r="J38">
-        <v>0.2914690947105254</v>
+        <v>0.4288428780957158</v>
       </c>
       <c r="K38">
-        <v>0.386030593603174</v>
+        <v>0.5679726386023753</v>
       </c>
       <c r="L38">
-        <v>1.230415296808952</v>
+        <v>1.810328596452359</v>
       </c>
       <c r="M38">
-        <v>0.7742421357275929</v>
+        <v>1.139154139680404</v>
       </c>
       <c r="N38">
-        <v>0.01822524454238142</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O38">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P38">
-        <v>6.35220225871454</v>
+        <v>9.34609105496658</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2324,49 +2324,49 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.1649154062571271</v>
+        <v>0.2426425262406276</v>
       </c>
       <c r="C39">
-        <v>1.105360123223885</v>
+        <v>1.626333032139645</v>
       </c>
       <c r="D39">
-        <v>0.004683803161125477</v>
+        <v>0.006891350282079589</v>
       </c>
       <c r="E39">
-        <v>0.4455131052585184</v>
+        <v>0.6554901557510594</v>
       </c>
       <c r="F39">
-        <v>0.5131517453443984</v>
+        <v>0.7550079077573807</v>
       </c>
       <c r="G39">
-        <v>0.833661589522013</v>
+        <v>1.226578878846598</v>
       </c>
       <c r="H39">
-        <v>0.009505113472247506</v>
+        <v>0.01398501690929973</v>
       </c>
       <c r="I39">
-        <v>0.07044824491071539</v>
+        <v>0.1036515659895521</v>
       </c>
       <c r="J39">
-        <v>0.2768956399749992</v>
+        <v>0.4074007341909299</v>
       </c>
       <c r="K39">
-        <v>0.3667290639230154</v>
+        <v>0.5395740066722564</v>
       </c>
       <c r="L39">
-        <v>1.230415296808952</v>
+        <v>1.810328596452359</v>
       </c>
       <c r="M39">
-        <v>0.7742421357275929</v>
+        <v>1.139154139680404</v>
       </c>
       <c r="N39">
-        <v>0.009112622271190711</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O39">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P39">
-        <v>5.842506485366266</v>
+        <v>8.596167970966961</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2374,49 +2374,49 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.1660606521339127</v>
+        <v>0.2443275437839651</v>
       </c>
       <c r="C40">
-        <v>1.113036235190718</v>
+        <v>1.637627011529503</v>
       </c>
       <c r="D40">
-        <v>0.002453420703446679</v>
+        <v>0.003609754909660736</v>
       </c>
       <c r="E40">
-        <v>0.2333640075163669</v>
+        <v>0.343351986345793</v>
       </c>
       <c r="F40">
-        <v>0.4703890998990318</v>
+        <v>0.6920905821109322</v>
       </c>
       <c r="G40">
-        <v>0.7641897903951788</v>
+        <v>1.124363972276049</v>
       </c>
       <c r="H40">
-        <v>0.02851534041674251</v>
+        <v>0.04195505072789919</v>
       </c>
       <c r="I40">
-        <v>0.2113447347321461</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="J40">
-        <v>0.3060425494460517</v>
+        <v>0.4502850220005017</v>
       </c>
       <c r="K40">
-        <v>0.4053321232833327</v>
+        <v>0.5963712705324939</v>
       </c>
       <c r="L40">
-        <v>1.599539885851638</v>
+        <v>2.353427175388068</v>
       </c>
       <c r="M40">
-        <v>1.006514776445871</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="N40">
-        <v>0.01822524454238142</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O40">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P40">
-        <v>6.400753051577788</v>
+        <v>9.417524569267584</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2424,49 +2424,49 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.3103616326088992</v>
+        <v>0.4566397542445141</v>
       </c>
       <c r="C41">
-        <v>2.080226343011619</v>
+        <v>3.060668414651694</v>
       </c>
       <c r="D41">
-        <v>0.002453420703446679</v>
+        <v>0.003609754909660736</v>
       </c>
       <c r="E41">
-        <v>0.2333640075163669</v>
+        <v>0.343351986345793</v>
       </c>
       <c r="F41">
-        <v>0.5986770362351317</v>
+        <v>0.8808425590502772</v>
       </c>
       <c r="G41">
-        <v>0.9726051877756821</v>
+        <v>1.431008691987699</v>
       </c>
       <c r="H41">
-        <v>0.04752556736123754</v>
+        <v>0.06992508454649866</v>
       </c>
       <c r="I41">
-        <v>0.352241224553577</v>
+        <v>0.5182578299477607</v>
       </c>
       <c r="J41">
-        <v>0.7432461915118398</v>
+        <v>1.093549339144076</v>
       </c>
       <c r="K41">
-        <v>0.9843780136880937</v>
+        <v>1.448330228436057</v>
       </c>
       <c r="L41">
-        <v>2.460830593617904</v>
+        <v>3.620657192904718</v>
       </c>
       <c r="M41">
-        <v>1.548484271455186</v>
+        <v>2.278308279360808</v>
       </c>
       <c r="N41">
-        <v>0.009112622271190711</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O41">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P41">
-        <v>10.38137870782066</v>
+        <v>15.27427917558432</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2474,49 +2474,49 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.8062530972570658</v>
+        <v>1.186252350509734</v>
       </c>
       <c r="C42">
-        <v>5.403982824650106</v>
+        <v>7.950961490460482</v>
       </c>
       <c r="D42">
-        <v>0.002453420703446679</v>
+        <v>0.003609754909660736</v>
       </c>
       <c r="E42">
-        <v>0.2333640075163669</v>
+        <v>0.343351986345793</v>
       </c>
       <c r="F42">
-        <v>1.11182878157953</v>
+        <v>1.635850466807658</v>
       </c>
       <c r="G42">
-        <v>1.806266777297695</v>
+        <v>2.657587570834296</v>
       </c>
       <c r="H42">
-        <v>0.3992147658343952</v>
+        <v>0.5873707101905887</v>
       </c>
       <c r="I42">
-        <v>2.958826286250047</v>
+        <v>4.353365771561188</v>
       </c>
       <c r="J42">
-        <v>1.471918928288154</v>
+        <v>2.165656534383364</v>
       </c>
       <c r="K42">
-        <v>1.949454497696029</v>
+        <v>2.868261824941994</v>
       </c>
       <c r="L42">
-        <v>4.552536598193121</v>
+        <v>6.698215806873732</v>
       </c>
       <c r="M42">
-        <v>2.864695902192095</v>
+        <v>4.214870316817495</v>
       </c>
       <c r="N42">
-        <v>0.07290097816952569</v>
+        <v>0.107260309451544</v>
       </c>
       <c r="O42">
-        <v>0.3029807640838816</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="P42">
-        <v>23.93667762971146</v>
+        <v>35.21839506507413</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2524,49 +2524,49 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>1.200217678871315</v>
+        <v>1.7658983854179</v>
       </c>
       <c r="C43">
-        <v>8.044565341240505</v>
+        <v>11.83609040057185</v>
       </c>
       <c r="D43">
-        <v>0.001115191228839399</v>
+        <v>0.001640797686209425</v>
       </c>
       <c r="E43">
-        <v>0.1060745488710758</v>
+        <v>0.1560690847026332</v>
       </c>
       <c r="F43">
-        <v>1.582217881478561</v>
+        <v>2.32794104891859</v>
       </c>
       <c r="G43">
-        <v>2.570456567692873</v>
+        <v>3.781951543110346</v>
       </c>
       <c r="H43">
-        <v>0.7794193047242957</v>
+        <v>1.146771386562578</v>
       </c>
       <c r="I43">
-        <v>5.776756082678662</v>
+        <v>8.499428411143276</v>
       </c>
       <c r="J43">
-        <v>1.792534932469732</v>
+        <v>2.637383700288652</v>
       </c>
       <c r="K43">
-        <v>2.374088150659521</v>
+        <v>3.493031727404607</v>
       </c>
       <c r="L43">
-        <v>9.105073196386241</v>
+        <v>13.39643161374746</v>
       </c>
       <c r="M43">
-        <v>5.72939180438419</v>
+        <v>8.42974063363499</v>
       </c>
       <c r="N43">
-        <v>0.08201360044071641</v>
+        <v>0.120667848132987</v>
       </c>
       <c r="O43">
-        <v>0.3408533595943669</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="P43">
-        <v>39.4847776407209</v>
+        <v>58.09454927368202</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2574,49 +2574,49 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>1.921722581246246</v>
+        <v>2.827459437720646</v>
       </c>
       <c r="C44">
-        <v>12.880515880345</v>
+        <v>18.95129741618281</v>
       </c>
       <c r="D44">
-        <v>0.003791650178053958</v>
+        <v>0.005578712133112046</v>
       </c>
       <c r="E44">
-        <v>0.3606534661616579</v>
+        <v>0.5306348879889531</v>
       </c>
       <c r="F44">
-        <v>2.009844335932227</v>
+        <v>2.957114305383074</v>
       </c>
       <c r="G44">
-        <v>3.265174558961218</v>
+        <v>4.804100608815844</v>
       </c>
       <c r="H44">
-        <v>0.8744704394467707</v>
+        <v>1.286621555655575</v>
       </c>
       <c r="I44">
-        <v>6.481238531785815</v>
+        <v>9.535944071038795</v>
       </c>
       <c r="J44">
-        <v>2.127724391386836</v>
+        <v>3.130553010098725</v>
       </c>
       <c r="K44">
-        <v>2.818023333303171</v>
+        <v>4.146200261797339</v>
       </c>
       <c r="L44">
-        <v>6.64424260276834</v>
+        <v>9.77577442084274</v>
       </c>
       <c r="M44">
-        <v>4.180907532929003</v>
+        <v>6.15143235427418</v>
       </c>
       <c r="N44">
-        <v>0.1640272008814328</v>
+        <v>0.241335696265974</v>
       </c>
       <c r="O44">
-        <v>0.6817067191887337</v>
+        <v>1.003005384719876</v>
       </c>
       <c r="P44">
-        <v>44.41404322451451</v>
+        <v>65.34705212291765</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2624,49 +2624,49 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>1.950353728165885</v>
+        <v>2.869584876304089</v>
       </c>
       <c r="C45">
-        <v>13.07241867951581</v>
+        <v>19.23364690092927</v>
       </c>
       <c r="D45">
-        <v>0.007806338601875797</v>
+        <v>0.01148558380346598</v>
       </c>
       <c r="E45">
-        <v>0.7425218420975308</v>
+        <v>1.092483592918432</v>
       </c>
       <c r="F45">
-        <v>2.437470790385893</v>
+        <v>3.586287561847559</v>
       </c>
       <c r="G45">
-        <v>3.959892550229562</v>
+        <v>5.826249674521343</v>
       </c>
       <c r="H45">
-        <v>0.4562454466678801</v>
+        <v>0.671280811646387</v>
       </c>
       <c r="I45">
-        <v>3.381515755714337</v>
+        <v>4.975275167498503</v>
       </c>
       <c r="J45">
-        <v>2.433766940832888</v>
+        <v>3.580838032099227</v>
       </c>
       <c r="K45">
-        <v>3.223355456586503</v>
+        <v>4.742571532329834</v>
       </c>
       <c r="L45">
-        <v>7.505533310534608</v>
+        <v>11.04300443835939</v>
       </c>
       <c r="M45">
-        <v>4.722877027938317</v>
+        <v>6.948840252050465</v>
       </c>
       <c r="N45">
-        <v>0.07290097816952569</v>
+        <v>0.107260309451544</v>
       </c>
       <c r="O45">
-        <v>0.3029807640838816</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="P45">
-        <v>44.2696396095245</v>
+        <v>65.13458890474612</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2674,49 +2674,49 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>1.674349471860555</v>
+        <v>2.463495648359703</v>
       </c>
       <c r="C46">
-        <v>11.22247569550917</v>
+        <v>16.51179786797334</v>
       </c>
       <c r="D46">
-        <v>0.01204406527146552</v>
+        <v>0.01772061501106179</v>
       </c>
       <c r="E46">
-        <v>1.145605127807619</v>
+        <v>1.685546114788439</v>
       </c>
       <c r="F46">
-        <v>3.763112799192254</v>
+        <v>5.536724656887458</v>
       </c>
       <c r="G46">
-        <v>6.11351832316143</v>
+        <v>8.994911778208388</v>
       </c>
       <c r="H46">
-        <v>0.4182249927788903</v>
+        <v>0.615340744009188</v>
       </c>
       <c r="I46">
-        <v>3.099722776071477</v>
+        <v>4.560668903540293</v>
       </c>
       <c r="J46">
-        <v>2.666942216601308</v>
+        <v>3.9239123345758</v>
       </c>
       <c r="K46">
-        <v>3.532179931469043</v>
+        <v>5.196949643211733</v>
       </c>
       <c r="L46">
-        <v>7.997699429258186</v>
+        <v>11.76713587694034</v>
       </c>
       <c r="M46">
-        <v>5.032573882229354</v>
+        <v>7.404501907922626</v>
       </c>
       <c r="N46">
-        <v>0.07290097816952569</v>
+        <v>0.107260309451544</v>
       </c>
       <c r="O46">
-        <v>0.3029807640838816</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="P46">
-        <v>47.05433045346417</v>
+        <v>69.23174657186651</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2724,49 +2724,49 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>1.246027513942739</v>
+        <v>1.833299087151407</v>
       </c>
       <c r="C47">
-        <v>8.351609819913802</v>
+        <v>12.2878495761662</v>
       </c>
       <c r="D47">
-        <v>0.009144568076483076</v>
+        <v>0.01345454102691729</v>
       </c>
       <c r="E47">
-        <v>0.869811300742822</v>
+        <v>1.279766494561593</v>
       </c>
       <c r="F47">
-        <v>2.180894917713694</v>
+        <v>3.208783607968868</v>
       </c>
       <c r="G47">
-        <v>3.543061755468556</v>
+        <v>5.212960235098041</v>
       </c>
       <c r="H47">
-        <v>0.1805971559727026</v>
+        <v>0.2657153212766948</v>
       </c>
       <c r="I47">
-        <v>1.338516653303593</v>
+        <v>1.96937975380149</v>
       </c>
       <c r="J47">
-        <v>2.360899667155257</v>
+        <v>3.473627312575298</v>
       </c>
       <c r="K47">
-        <v>3.12684780818571</v>
+        <v>4.60057837267924</v>
       </c>
       <c r="L47">
-        <v>5.413827305959391</v>
+        <v>7.965445824390381</v>
       </c>
       <c r="M47">
-        <v>3.40666539720141</v>
+        <v>5.012278214593779</v>
       </c>
       <c r="N47">
-        <v>0.04556311135595359</v>
+        <v>0.06703769340721499</v>
       </c>
       <c r="O47">
-        <v>0.1893629775524261</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="P47">
-        <v>32.26282995254454</v>
+        <v>47.46878864156375</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2774,49 +2774,49 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>1.307870791289161</v>
+        <v>1.924290034491642</v>
       </c>
       <c r="C48">
-        <v>8.766119866122761</v>
+        <v>12.89772446321857</v>
       </c>
       <c r="D48">
-        <v>0.009144568076483076</v>
+        <v>0.01345454102691729</v>
       </c>
       <c r="E48">
-        <v>0.869811300742822</v>
+        <v>1.279766494561593</v>
       </c>
       <c r="F48">
-        <v>1.924319045041494</v>
+        <v>2.831279654090177</v>
       </c>
       <c r="G48">
-        <v>3.126230960707548</v>
+        <v>4.599670795674744</v>
       </c>
       <c r="H48">
-        <v>0.1805971559727026</v>
+        <v>0.2657153212766948</v>
       </c>
       <c r="I48">
-        <v>1.338516653303593</v>
+        <v>1.96937975380149</v>
       </c>
       <c r="J48">
-        <v>2.215165119799994</v>
+        <v>3.259205873527439</v>
       </c>
       <c r="K48">
-        <v>2.933832511384123</v>
+        <v>4.316592053378051</v>
       </c>
       <c r="L48">
-        <v>4.798619657554911</v>
+        <v>7.0602815261642</v>
       </c>
       <c r="M48">
-        <v>3.019544329337613</v>
+        <v>4.442701144753576</v>
       </c>
       <c r="N48">
-        <v>0.09112622271190718</v>
+        <v>0.13407538681443</v>
       </c>
       <c r="O48">
-        <v>0.3787259551048521</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="P48">
-        <v>30.95962413714996</v>
+        <v>45.55136225651279</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2824,49 +2824,49 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>1.319323250057017</v>
+        <v>1.941140209925021</v>
       </c>
       <c r="C49">
-        <v>8.84288098579108</v>
+        <v>13.01066425711716</v>
       </c>
       <c r="D49">
-        <v>0.007137223864572156</v>
+        <v>0.01050110519174033</v>
       </c>
       <c r="E49">
-        <v>0.6788771127748854</v>
+        <v>0.9988421420968526</v>
       </c>
       <c r="F49">
-        <v>2.052606981377594</v>
+        <v>3.020031631029523</v>
       </c>
       <c r="G49">
-        <v>3.334646358088052</v>
+        <v>4.906315515386393</v>
       </c>
       <c r="H49">
-        <v>0.1710920425004551</v>
+        <v>0.2517303043673952</v>
       </c>
       <c r="I49">
-        <v>1.268068408392877</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="J49">
-        <v>1.748814568263153</v>
+        <v>2.573057268574295</v>
       </c>
       <c r="K49">
-        <v>2.316183561619045</v>
+        <v>3.407835831614251</v>
       </c>
       <c r="L49">
-        <v>4.429495068512225</v>
+        <v>6.517182947228493</v>
       </c>
       <c r="M49">
-        <v>2.787271688619335</v>
+        <v>4.100954902849455</v>
       </c>
       <c r="N49">
-        <v>0.06378835589833501</v>
+        <v>0.09385277077010104</v>
       </c>
       <c r="O49">
-        <v>0.2651081685733964</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="P49">
-        <v>29.28529377433202</v>
+        <v>43.08789472357589</v>
       </c>
     </row>
   </sheetData>
